--- a/csv/results.xlsx
+++ b/csv/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10275"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="89">
   <si>
     <t>case</t>
   </si>
@@ -130,6 +130,159 @@
   </si>
   <si>
     <t>category fps from one text</t>
+  </si>
+  <si>
+    <t>highest similarity</t>
+  </si>
+  <si>
+    <t>worldnews &amp; football</t>
+  </si>
+  <si>
+    <t>fashion &amp; technology</t>
+  </si>
+  <si>
+    <t>film &amp; politics</t>
+  </si>
+  <si>
+    <t>fashion &amp; lifestyle</t>
+  </si>
+  <si>
+    <t>worldnews&amp; football &amp;fashion &amp; lifestyle</t>
+  </si>
+  <si>
+    <t>lifestyle &amp; books &amp;f film &amp; tvandradio</t>
+  </si>
+  <si>
+    <t>worldnews&amp;football&amp;fashion&amp;technology</t>
+  </si>
+  <si>
+    <t>sport &amp; uknews&amp; opinion &amp; society &amp; business</t>
+  </si>
+  <si>
+    <t>politics &amp; worldnews&amp;lifstyle&amp;environment&amp;technology</t>
+  </si>
+  <si>
+    <t>Tv/radio &amp; culture&amp;art/design&amp;film&amp;books</t>
+  </si>
+  <si>
+    <t>UsNews &amp; football&amp; fashion &amp; travel &amp; science</t>
+  </si>
+  <si>
+    <t>Travel&amp;Science</t>
+  </si>
+  <si>
+    <t>Art/design&amp;books&amp;film</t>
+  </si>
+  <si>
+    <t>Business &amp; Politics</t>
+  </si>
+  <si>
+    <t>Politics &amp; Uk News</t>
+  </si>
+  <si>
+    <t>first 10 specific categories</t>
+  </si>
+  <si>
+    <t>second 10 specific categories</t>
+  </si>
+  <si>
+    <t>all categories</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>12570 ms</t>
+  </si>
+  <si>
+    <t>11153 ms</t>
+  </si>
+  <si>
+    <t>12060 ms</t>
+  </si>
+  <si>
+    <t>10958 ms</t>
+  </si>
+  <si>
+    <t>13508 ms</t>
+  </si>
+  <si>
+    <t>14467 ms</t>
+  </si>
+  <si>
+    <t>16558 ms</t>
+  </si>
+  <si>
+    <t>14432 ms</t>
+  </si>
+  <si>
+    <t>28699 ms</t>
+  </si>
+  <si>
+    <t>34381 ms</t>
+  </si>
+  <si>
+    <t>16929 ms</t>
+  </si>
+  <si>
+    <t>18137 ms</t>
+  </si>
+  <si>
+    <t>18655 ms</t>
+  </si>
+  <si>
+    <t>19011 ms</t>
+  </si>
+  <si>
+    <t>12554 ms</t>
+  </si>
+  <si>
+    <t>19266 ms</t>
+  </si>
+  <si>
+    <t>12627 ms</t>
+  </si>
+  <si>
+    <t>11274 ms</t>
+  </si>
+  <si>
+    <t>61288 ms</t>
+  </si>
+  <si>
+    <t>427243 ms</t>
+  </si>
+  <si>
+    <t>132605 ms</t>
+  </si>
+  <si>
+    <t>119498 ms</t>
+  </si>
+  <si>
+    <t>42757 ms</t>
+  </si>
+  <si>
+    <t>41373 ms</t>
+  </si>
+  <si>
+    <t>44693 ms</t>
+  </si>
+  <si>
+    <t>50448 ms</t>
+  </si>
+  <si>
+    <t>17256 ms</t>
+  </si>
+  <si>
+    <t>17108 ms</t>
+  </si>
+  <si>
+    <t>32561 ms</t>
+  </si>
+  <si>
+    <t>33050 ms</t>
+  </si>
+  <si>
+    <t>16791 ms</t>
   </si>
 </sst>
 </file>
@@ -153,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -213,11 +366,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +429,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -544,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C97" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,13 +3805,1987 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>253</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>203</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>48</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J20" si="0">I3/D3</f>
+        <v>0.96</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>241</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <f>C4-D4</f>
+        <v>193</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>47</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>232</v>
+      </c>
+      <c r="D5">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <f>C5-D5</f>
+        <v>186</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>45</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>247</v>
+      </c>
+      <c r="D6">
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <f>C6-D6</f>
+        <v>198</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6">
+        <v>49</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>400</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>90</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>449</v>
+      </c>
+      <c r="D8">
+        <v>89</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E20" si="1">C8-D8</f>
+        <v>360</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>75</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.84269662921348309</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>494</v>
+      </c>
+      <c r="D9">
+        <v>98</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9">
+        <v>93</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.94897959183673475</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1189</v>
+      </c>
+      <c r="D10">
+        <v>237</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>952</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <v>165</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.69620253164556967</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>614</v>
+      </c>
+      <c r="D11">
+        <v>122</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>492</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <v>106</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.86885245901639341</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>575</v>
+      </c>
+      <c r="D12">
+        <v>115</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>517</v>
+      </c>
+      <c r="D13">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>414</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>78</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.75728155339805825</v>
+      </c>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>609</v>
+      </c>
+      <c r="D14">
+        <v>121</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>488</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14">
+        <v>115</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.95041322314049592</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>225</v>
+      </c>
+      <c r="D15">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15">
+        <v>44</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>301</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16">
+        <v>57</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="K16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>242</v>
+      </c>
+      <c r="D17">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17">
+        <v>43</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="K17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>228</v>
+      </c>
+      <c r="D18">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18">
+        <v>38</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1126</v>
+      </c>
+      <c r="D19">
+        <v>225</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>901</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19">
+        <v>191</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.84888888888888892</v>
+      </c>
+      <c r="K19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>2315</v>
+      </c>
+      <c r="D20">
+        <v>463</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1852</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20">
+        <v>318</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0.68682505399568039</v>
+      </c>
+      <c r="K20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>253</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <f>C26-D26</f>
+        <v>203</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26">
+        <v>48</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:J44" si="2">I26/D26</f>
+        <v>0.96</v>
+      </c>
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>241</v>
+      </c>
+      <c r="D27">
+        <v>48</v>
+      </c>
+      <c r="E27">
+        <f>C27-D27</f>
+        <v>193</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27">
+        <v>48</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>232</v>
+      </c>
+      <c r="D28">
+        <v>46</v>
+      </c>
+      <c r="E28">
+        <f>C28-D28</f>
+        <v>186</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28">
+        <v>44</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>247</v>
+      </c>
+      <c r="D29">
+        <v>49</v>
+      </c>
+      <c r="E29">
+        <f>C29</f>
+        <v>247</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29">
+        <v>45</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>0.91836734693877553</v>
+      </c>
+      <c r="K29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>247</v>
+      </c>
+      <c r="D30">
+        <v>49</v>
+      </c>
+      <c r="E30">
+        <f>C30</f>
+        <v>247</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30">
+        <v>45</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>0.91836734693877553</v>
+      </c>
+      <c r="K30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E44" si="3">C31-D31</f>
+        <v>400</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31">
+        <v>89</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>0.89</v>
+      </c>
+      <c r="K31" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>449</v>
+      </c>
+      <c r="D32">
+        <v>89</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32">
+        <v>70</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>0.7865168539325843</v>
+      </c>
+      <c r="K32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>494</v>
+      </c>
+      <c r="D33">
+        <v>98</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>396</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33">
+        <v>92</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>0.93877551020408168</v>
+      </c>
+      <c r="K33" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>1189</v>
+      </c>
+      <c r="D34">
+        <v>237</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>952</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34">
+        <v>171</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>0.72151898734177211</v>
+      </c>
+      <c r="K34" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>614</v>
+      </c>
+      <c r="D35">
+        <v>122</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>492</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35">
+        <v>103</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>0.84426229508196726</v>
+      </c>
+      <c r="K35" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>575</v>
+      </c>
+      <c r="D36">
+        <v>115</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36">
+        <v>101</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>0.87826086956521743</v>
+      </c>
+      <c r="K36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>517</v>
+      </c>
+      <c r="D37">
+        <v>103</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>414</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37">
+        <v>82</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>0.79611650485436891</v>
+      </c>
+      <c r="K37" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>609</v>
+      </c>
+      <c r="D38">
+        <v>121</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>488</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38">
+        <v>115</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>0.95041322314049592</v>
+      </c>
+      <c r="K38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>225</v>
+      </c>
+      <c r="D39">
+        <v>45</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39">
+        <v>44</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="K39" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>301</v>
+      </c>
+      <c r="D40">
+        <v>60</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>241</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40">
+        <v>54</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="K40" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>242</v>
+      </c>
+      <c r="D41">
+        <v>48</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>194</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41">
+        <v>44</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="K41" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>228</v>
+      </c>
+      <c r="D42">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42">
+        <v>39</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="K42" t="s">
+        <v>53</v>
+      </c>
+      <c r="L42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>1126</v>
+      </c>
+      <c r="D43">
+        <v>225</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>901</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43">
+        <v>196</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>0.87111111111111106</v>
+      </c>
+      <c r="K43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>2315</v>
+      </c>
+      <c r="D44">
+        <v>463</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>1852</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44">
+        <v>349</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>0.75377969762419006</v>
+      </c>
+      <c r="K44" t="s">
+        <v>56</v>
+      </c>
+      <c r="L44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" t="s">
+        <v>14</v>
+      </c>
+      <c r="M49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>253</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <f>C50-D50</f>
+        <v>203</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="K50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>241</v>
+      </c>
+      <c r="D51">
+        <v>48</v>
+      </c>
+      <c r="E51">
+        <f>C51-D51</f>
+        <v>193</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="K51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>232</v>
+      </c>
+      <c r="D52">
+        <v>46</v>
+      </c>
+      <c r="E52">
+        <f>C52-D52</f>
+        <v>186</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="K52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>247</v>
+      </c>
+      <c r="D53">
+        <v>49</v>
+      </c>
+      <c r="E53">
+        <f>C53-D53</f>
+        <v>198</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="K53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>500</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54:E67" si="4">C54-D54</f>
+        <v>400</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="K54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>449</v>
+      </c>
+      <c r="D55">
+        <v>89</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="K55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>494</v>
+      </c>
+      <c r="D56">
+        <v>98</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>396</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="K56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>1189</v>
+      </c>
+      <c r="D57">
+        <v>237</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>952</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="K57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>614</v>
+      </c>
+      <c r="D58">
+        <v>122</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>492</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="K58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>575</v>
+      </c>
+      <c r="D59">
+        <v>115</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>460</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="K59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>517</v>
+      </c>
+      <c r="D60">
+        <v>103</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="4"/>
+        <v>414</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="K60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>609</v>
+      </c>
+      <c r="D61">
+        <v>121</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>488</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="K61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>225</v>
+      </c>
+      <c r="D62">
+        <v>45</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="K62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>301</v>
+      </c>
+      <c r="D63">
+        <v>60</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>241</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="K63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>242</v>
+      </c>
+      <c r="D64">
+        <v>48</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="4"/>
+        <v>194</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="K64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>228</v>
+      </c>
+      <c r="D65">
+        <v>45</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="K65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>1126</v>
+      </c>
+      <c r="D66">
+        <v>225</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="4"/>
+        <v>901</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="K66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>2315</v>
+      </c>
+      <c r="D67">
+        <v>463</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="4"/>
+        <v>1852</v>
+      </c>
+      <c r="F67">
+        <v>20</v>
+      </c>
+      <c r="K67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A48:M48"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/csv/results.xlsx
+++ b/csv/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="129">
   <si>
     <t>case</t>
   </si>
@@ -283,19 +283,145 @@
   </si>
   <si>
     <t>16791 ms</t>
+  </si>
+  <si>
+    <t>contextMap one class after another</t>
+  </si>
+  <si>
+    <t>similarity between class word lists</t>
+  </si>
+  <si>
+    <t>0.76172879712944</t>
+  </si>
+  <si>
+    <t>0.61678934626464</t>
+  </si>
+  <si>
+    <t>0.62423114798037</t>
+  </si>
+  <si>
+    <t>0.87198925444155</t>
+  </si>
+  <si>
+    <t>33717 ms</t>
+  </si>
+  <si>
+    <t>31881ms</t>
+  </si>
+  <si>
+    <t>28690 ms</t>
+  </si>
+  <si>
+    <t>30697 ms</t>
+  </si>
+  <si>
+    <t>34959 ms</t>
+  </si>
+  <si>
+    <t>32469 ms</t>
+  </si>
+  <si>
+    <t>sorted after total similarity</t>
+  </si>
+  <si>
+    <t>31236 ms</t>
+  </si>
+  <si>
+    <t>89869 ms</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>85500 ms</t>
+  </si>
+  <si>
+    <t>104748 ms</t>
+  </si>
+  <si>
+    <t>117176 ms</t>
+  </si>
+  <si>
+    <t>86565 ms</t>
+  </si>
+  <si>
+    <t>83127 ms</t>
+  </si>
+  <si>
+    <t>39328 ms</t>
+  </si>
+  <si>
+    <t>0.79571600495903</t>
+  </si>
+  <si>
+    <t>0.80295243539593</t>
+  </si>
+  <si>
+    <t>0.75922063712499</t>
+  </si>
+  <si>
+    <t>51505 ms</t>
+  </si>
+  <si>
+    <t>books &amp; film,books&amp;art/design similar</t>
+  </si>
+  <si>
+    <t>458920 ms</t>
+  </si>
+  <si>
+    <t>156843 ms</t>
+  </si>
+  <si>
+    <t>113668 ms</t>
+  </si>
+  <si>
+    <t>122212 ms</t>
+  </si>
+  <si>
+    <t>152310 ms</t>
+  </si>
+  <si>
+    <t>0.83070464044399</t>
+  </si>
+  <si>
+    <t>film &amp; science</t>
+  </si>
+  <si>
+    <t>0.78037621187808</t>
+  </si>
+  <si>
+    <t>film &amp; business</t>
+  </si>
+  <si>
+    <t>film &amp; business &amp; football</t>
+  </si>
+  <si>
+    <t>film&amp; business &amp; football &amp; travel</t>
+  </si>
+  <si>
+    <t>film&amp;business&amp;football&amp;travel&amp;science</t>
+  </si>
+  <si>
+    <t>2 falsch: travel film, travel business</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -407,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -439,6 +565,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3805,22 +3934,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="F53" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
@@ -3834,9 +3965,10 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3855,26 +3987,26 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3893,27 +4025,27 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>48</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J20" si="0">I3/D3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K20" si="0">J3/D3</f>
         <v>0.96</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>39</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3933,27 +4065,27 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>47</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>0.97916666666666663</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3973,24 +4105,24 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>38</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>45</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>0.97826086956521741</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4010,27 +4142,27 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>49</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>42</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4049,27 +4181,27 @@
       <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>38</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>90</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>43</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4089,24 +4221,24 @@
       <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>15</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>38</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>75</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>0.84269662921348309</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4126,27 +4258,27 @@
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>38</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>93</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>0.94897959183673475</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>45</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4166,27 +4298,27 @@
       <c r="F10">
         <v>10</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>38</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>165</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>0.69620253164556967</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>54</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4206,27 +4338,27 @@
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>15</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>38</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>106</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>0.86885245901639341</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>46</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4246,27 +4378,27 @@
       <c r="F12">
         <v>5</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>15</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>38</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>100</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="0"/>
         <v>0.86956521739130432</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>47</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4286,27 +4418,27 @@
       <c r="F13">
         <v>5</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>15</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>38</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>78</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="0"/>
         <v>0.75728155339805825</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>48</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4326,27 +4458,27 @@
       <c r="F14">
         <v>5</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>15</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>38</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>115</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="0"/>
         <v>0.95041322314049592</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>49</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4366,24 +4498,24 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>15</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>38</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>44</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4403,24 +4535,24 @@
       <c r="F16">
         <v>3</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>38</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>57</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4440,24 +4572,24 @@
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>15</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>38</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>43</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="0"/>
         <v>0.89583333333333337</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4477,24 +4609,24 @@
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>15</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>38</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>38</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="0"/>
         <v>0.84444444444444444</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4514,27 +4646,27 @@
       <c r="F19">
         <v>10</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>15</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>38</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>191</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="0"/>
         <v>0.84888888888888892</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>55</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4554,28 +4686,28 @@
       <c r="F20">
         <v>20</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>15</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>38</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>318</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="0"/>
         <v>0.68682505399568039</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>56</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
@@ -4589,9 +4721,10 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="10"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -4610,26 +4743,26 @@
       <c r="F25" t="s">
         <v>5</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>17</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>7</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>8</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>9</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>14</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4649,27 +4782,27 @@
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>18</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>19</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>48</v>
       </c>
-      <c r="J26">
-        <f t="shared" ref="J26:J44" si="2">I26/D26</f>
+      <c r="K26">
+        <f t="shared" ref="K26:K44" si="2">J26/D26</f>
         <v>0.96</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>39</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -4689,27 +4822,27 @@
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>18</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>19</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>48</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>40</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -4729,27 +4862,27 @@
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>18</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>19</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>44</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f t="shared" si="2"/>
         <v>0.95652173913043481</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>41</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4769,27 +4902,27 @@
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>18</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>19</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>45</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <f t="shared" si="2"/>
         <v>0.91836734693877553</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>42</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -4809,27 +4942,27 @@
       <c r="F30">
         <v>2</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>20</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>19</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>45</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f t="shared" si="2"/>
         <v>0.91836734693877553</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>42</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -4849,27 +4982,27 @@
       <c r="F31">
         <v>4</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>18</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>19</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>89</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <f t="shared" si="2"/>
         <v>0.89</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>43</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -4889,27 +5022,27 @@
       <c r="F32">
         <v>4</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>18</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>70</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <f t="shared" si="2"/>
         <v>0.7865168539325843</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>44</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -4929,27 +5062,27 @@
       <c r="F33">
         <v>4</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>18</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>19</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>92</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <f t="shared" si="2"/>
         <v>0.93877551020408168</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>45</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -4969,27 +5102,27 @@
       <c r="F34">
         <v>10</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>18</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>19</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>171</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <f t="shared" si="2"/>
         <v>0.72151898734177211</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>54</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10</v>
       </c>
@@ -5009,27 +5142,27 @@
       <c r="F35">
         <v>5</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>18</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>19</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>103</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <f t="shared" si="2"/>
         <v>0.84426229508196726</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>46</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
@@ -5049,27 +5182,27 @@
       <c r="F36">
         <v>5</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>18</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>19</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>101</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <f t="shared" si="2"/>
         <v>0.87826086956521743</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>47</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12</v>
       </c>
@@ -5089,27 +5222,27 @@
       <c r="F37">
         <v>5</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>18</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>19</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>82</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <f t="shared" si="2"/>
         <v>0.79611650485436891</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>48</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
@@ -5129,27 +5262,27 @@
       <c r="F38">
         <v>5</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>18</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>19</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>115</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <f t="shared" si="2"/>
         <v>0.95041322314049592</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>49</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14</v>
       </c>
@@ -5169,27 +5302,27 @@
       <c r="F39">
         <v>2</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>18</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>19</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>44</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <f t="shared" si="2"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>50</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>15</v>
       </c>
@@ -5209,27 +5342,27 @@
       <c r="F40">
         <v>3</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>18</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>19</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>54</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>51</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>16</v>
       </c>
@@ -5249,27 +5382,27 @@
       <c r="F41">
         <v>2</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>18</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>19</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>44</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <f t="shared" si="2"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>52</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>17</v>
       </c>
@@ -5289,27 +5422,27 @@
       <c r="F42">
         <v>2</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>18</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>19</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>39</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <f t="shared" si="2"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>53</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>18</v>
       </c>
@@ -5329,27 +5462,27 @@
       <c r="F43">
         <v>10</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>18</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>19</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>196</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <f t="shared" si="2"/>
         <v>0.87111111111111106</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>55</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>19</v>
       </c>
@@ -5369,28 +5502,28 @@
       <c r="F44">
         <v>20</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>18</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>19</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>349</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <f t="shared" si="2"/>
         <v>0.75377969762419006</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>56</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>30</v>
       </c>
@@ -5405,9 +5538,10 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
-      <c r="M48" s="11"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="10"/>
+      <c r="N48" s="11"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -5427,28 +5561,31 @@
         <v>5</v>
       </c>
       <c r="G49" t="s">
+        <v>90</v>
+      </c>
+      <c r="H49" t="s">
         <v>32</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>7</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>8</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>9</v>
-      </c>
-      <c r="K49" t="s">
-        <v>14</v>
       </c>
       <c r="L49" t="s">
         <v>14</v>
       </c>
       <c r="M49" t="s">
+        <v>14</v>
+      </c>
+      <c r="N49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -5468,321 +5605,1220 @@
       <c r="F50">
         <v>2</v>
       </c>
-      <c r="K50" t="s">
+      <c r="G50" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50">
+        <v>35</v>
+      </c>
+      <c r="I50" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50">
+        <v>47</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ref="K50:K67" si="4">J50/D50</f>
+        <v>0.94</v>
+      </c>
+      <c r="L50" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>101</v>
+      </c>
+      <c r="N50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
       <c r="C51">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D51">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E51">
         <f>C51-D51</f>
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F51">
         <v>2</v>
       </c>
-      <c r="K51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51">
+        <v>35</v>
+      </c>
+      <c r="I51" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51">
+        <v>47</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="4"/>
+        <v>0.94</v>
+      </c>
+      <c r="L51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M51" t="s">
+        <v>89</v>
+      </c>
+      <c r="N51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
       <c r="C52">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D52">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E52">
         <f>C52-D52</f>
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
-      <c r="K52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52">
+        <v>35</v>
+      </c>
+      <c r="I52" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52">
+        <v>42</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="L52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" t="s">
+        <v>101</v>
+      </c>
+      <c r="N52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
       <c r="C53">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D53">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E53">
-        <f>C53-D53</f>
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
-      <c r="K53" t="s">
+      <c r="G53" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53">
+        <v>35</v>
+      </c>
+      <c r="I53" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53">
+        <v>44</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="4"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="L53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M53" t="s">
+        <v>89</v>
+      </c>
+      <c r="N53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>232</v>
+      </c>
+      <c r="D54">
+        <v>46</v>
+      </c>
+      <c r="E54">
+        <f>C54-D54</f>
+        <v>186</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>93</v>
+      </c>
+      <c r="H54">
+        <v>35</v>
+      </c>
+      <c r="I54" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54">
+        <v>46</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>41</v>
+      </c>
+      <c r="M54" t="s">
+        <v>101</v>
+      </c>
+      <c r="N54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>247</v>
+      </c>
+      <c r="D55">
+        <v>49</v>
+      </c>
+      <c r="E55">
+        <f>C55-D55</f>
+        <v>198</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55">
+        <v>35</v>
+      </c>
+      <c r="I55" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55">
+        <v>39</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="4"/>
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="L55" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C54">
+      <c r="M55" t="s">
+        <v>101</v>
+      </c>
+      <c r="N55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>247</v>
+      </c>
+      <c r="D56">
+        <v>49</v>
+      </c>
+      <c r="E56">
+        <f>C56-D56</f>
+        <v>198</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>94</v>
+      </c>
+      <c r="H56">
+        <v>35</v>
+      </c>
+      <c r="I56" t="s">
+        <v>35</v>
+      </c>
+      <c r="J56">
+        <v>41</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="L56" t="s">
+        <v>42</v>
+      </c>
+      <c r="M56" t="s">
+        <v>89</v>
+      </c>
+      <c r="N56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
         <v>500</v>
       </c>
-      <c r="D54">
+      <c r="D57">
         <v>100</v>
       </c>
-      <c r="E54">
-        <f t="shared" ref="E54:E67" si="4">C54-D54</f>
+      <c r="E57">
+        <f t="shared" ref="E57:E78" si="5">C57-D57</f>
         <v>400</v>
       </c>
-      <c r="F54">
+      <c r="F57">
         <v>4</v>
       </c>
-      <c r="K54" t="s">
+      <c r="G57" t="s">
+        <v>104</v>
+      </c>
+      <c r="H57">
+        <v>35</v>
+      </c>
+      <c r="I57" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57">
+        <v>82</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
+        <v>0.82</v>
+      </c>
+      <c r="L57" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C55">
+      <c r="M57" t="s">
+        <v>101</v>
+      </c>
+      <c r="N57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>500</v>
+      </c>
+      <c r="D58">
+        <v>100</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58">
+        <v>35</v>
+      </c>
+      <c r="I58" t="s">
+        <v>35</v>
+      </c>
+      <c r="J58">
+        <v>81</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>0.81</v>
+      </c>
+      <c r="L58" t="s">
+        <v>43</v>
+      </c>
+      <c r="M58" t="s">
+        <v>89</v>
+      </c>
+      <c r="N58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
         <v>449</v>
       </c>
-      <c r="D55">
+      <c r="D59">
         <v>89</v>
       </c>
-      <c r="E55">
+      <c r="E59">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>104</v>
+      </c>
+      <c r="H59">
+        <v>35</v>
+      </c>
+      <c r="I59" t="s">
+        <v>35</v>
+      </c>
+      <c r="J59">
+        <v>55</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="4"/>
+        <v>0.6179775280898876</v>
+      </c>
+      <c r="L59" t="s">
+        <v>44</v>
+      </c>
+      <c r="M59" t="s">
+        <v>101</v>
+      </c>
+      <c r="N59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>449</v>
+      </c>
+      <c r="D60">
+        <v>89</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="F55">
+      <c r="F60">
         <v>4</v>
       </c>
-      <c r="K55" t="s">
+      <c r="G60" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60">
+        <v>35</v>
+      </c>
+      <c r="I60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J60">
+        <v>55</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>0.6179775280898876</v>
+      </c>
+      <c r="L60" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C56">
+      <c r="M60" t="s">
+        <v>89</v>
+      </c>
+      <c r="N60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
         <v>494</v>
       </c>
-      <c r="D56">
+      <c r="D61">
         <v>98</v>
       </c>
-      <c r="E56">
+      <c r="E61">
+        <f t="shared" si="5"/>
+        <v>396</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>104</v>
+      </c>
+      <c r="H61">
+        <v>35</v>
+      </c>
+      <c r="I61" t="s">
+        <v>35</v>
+      </c>
+      <c r="J61">
+        <v>80</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="4"/>
+        <v>0.81632653061224492</v>
+      </c>
+      <c r="L61" t="s">
+        <v>45</v>
+      </c>
+      <c r="M61" t="s">
+        <v>101</v>
+      </c>
+      <c r="N61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>494</v>
+      </c>
+      <c r="D62">
+        <v>98</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="5"/>
         <v>396</v>
       </c>
-      <c r="F56">
+      <c r="F62">
         <v>4</v>
       </c>
-      <c r="K56" t="s">
+      <c r="G62" t="s">
+        <v>104</v>
+      </c>
+      <c r="H62">
+        <v>35</v>
+      </c>
+      <c r="I62" t="s">
+        <v>35</v>
+      </c>
+      <c r="J62">
+        <v>82</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="L62" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C57">
+      <c r="M62" t="s">
+        <v>89</v>
+      </c>
+      <c r="N62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63">
         <v>1189</v>
       </c>
-      <c r="D57">
+      <c r="D63">
         <v>237</v>
       </c>
-      <c r="E57">
+      <c r="E63">
+        <f t="shared" si="5"/>
+        <v>952</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>104</v>
+      </c>
+      <c r="H63">
+        <v>35</v>
+      </c>
+      <c r="I63" t="s">
+        <v>35</v>
+      </c>
+      <c r="J63">
+        <v>116</v>
+      </c>
+      <c r="K63">
         <f t="shared" si="4"/>
-        <v>952</v>
-      </c>
-      <c r="F57">
-        <v>10</v>
-      </c>
-      <c r="K57" t="s">
+        <v>0.48945147679324896</v>
+      </c>
+      <c r="L63" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C58">
+      <c r="M63" t="s">
+        <v>101</v>
+      </c>
+      <c r="N63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64">
         <v>614</v>
       </c>
-      <c r="D58">
+      <c r="D64">
         <v>122</v>
       </c>
-      <c r="E58">
+      <c r="E64">
+        <f t="shared" si="5"/>
+        <v>492</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>104</v>
+      </c>
+      <c r="H64">
+        <v>35</v>
+      </c>
+      <c r="I64" t="s">
+        <v>35</v>
+      </c>
+      <c r="J64">
+        <v>90</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="4"/>
+        <v>0.73770491803278693</v>
+      </c>
+      <c r="L64" t="s">
+        <v>46</v>
+      </c>
+      <c r="M64" t="s">
+        <v>101</v>
+      </c>
+      <c r="N64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>575</v>
+      </c>
+      <c r="D65">
+        <v>115</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="5"/>
+        <v>460</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>104</v>
+      </c>
+      <c r="H65">
+        <v>35</v>
+      </c>
+      <c r="I65" t="s">
+        <v>35</v>
+      </c>
+      <c r="J65">
+        <v>77</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="4"/>
+        <v>0.66956521739130437</v>
+      </c>
+      <c r="L65" t="s">
+        <v>47</v>
+      </c>
+      <c r="M65" t="s">
+        <v>101</v>
+      </c>
+      <c r="N65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>517</v>
+      </c>
+      <c r="D66">
+        <v>103</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="5"/>
+        <v>414</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>104</v>
+      </c>
+      <c r="H66">
+        <v>35</v>
+      </c>
+      <c r="I66" t="s">
+        <v>35</v>
+      </c>
+      <c r="J66">
+        <v>56</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>0.5436893203883495</v>
+      </c>
+      <c r="L66" t="s">
+        <v>48</v>
+      </c>
+      <c r="M66" t="s">
+        <v>101</v>
+      </c>
+      <c r="N66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>609</v>
+      </c>
+      <c r="D67">
+        <v>121</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="5"/>
+        <v>488</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>104</v>
+      </c>
+      <c r="H67">
+        <v>35</v>
+      </c>
+      <c r="I67" t="s">
+        <v>35</v>
+      </c>
+      <c r="J67">
+        <v>109</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="4"/>
+        <v>0.90082644628099173</v>
+      </c>
+      <c r="L67" t="s">
+        <v>49</v>
+      </c>
+      <c r="M67" t="s">
+        <v>101</v>
+      </c>
+      <c r="N67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>225</v>
+      </c>
+      <c r="D68">
+        <v>45</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>111</v>
+      </c>
+      <c r="H68">
+        <v>35</v>
+      </c>
+      <c r="I68" t="s">
+        <v>35</v>
+      </c>
+      <c r="J68">
+        <v>41</v>
+      </c>
+      <c r="K68">
+        <f>J68/D68</f>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="L68" t="s">
+        <v>50</v>
+      </c>
+      <c r="M68" t="s">
+        <v>101</v>
+      </c>
+      <c r="N68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>301</v>
+      </c>
+      <c r="D69">
+        <v>60</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="5"/>
+        <v>241</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69" t="s">
+        <v>115</v>
+      </c>
+      <c r="H69">
+        <v>35</v>
+      </c>
+      <c r="I69" t="s">
+        <v>35</v>
+      </c>
+      <c r="J69">
+        <v>41</v>
+      </c>
+      <c r="K69">
+        <f>J69/D69</f>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="L69" t="s">
+        <v>51</v>
+      </c>
+      <c r="M69" t="s">
+        <v>101</v>
+      </c>
+      <c r="N69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>242</v>
+      </c>
+      <c r="D70">
+        <v>48</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="5"/>
+        <v>194</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>112</v>
+      </c>
+      <c r="H70">
+        <v>35</v>
+      </c>
+      <c r="I70" t="s">
+        <v>35</v>
+      </c>
+      <c r="J70">
+        <v>40</v>
+      </c>
+      <c r="K70">
+        <f>J70/D70</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L70" t="s">
+        <v>52</v>
+      </c>
+      <c r="M70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>228</v>
+      </c>
+      <c r="D71">
+        <v>45</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="5"/>
+        <v>183</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>113</v>
+      </c>
+      <c r="H71">
+        <v>35</v>
+      </c>
+      <c r="I71" t="s">
+        <v>35</v>
+      </c>
+      <c r="J71">
+        <v>35</v>
+      </c>
+      <c r="K71">
+        <f>J71/D71</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="L71" t="s">
+        <v>53</v>
+      </c>
+      <c r="M71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>1126</v>
+      </c>
+      <c r="D72">
+        <v>225</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="5"/>
+        <v>901</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="L72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>2315</v>
+      </c>
+      <c r="D73">
+        <v>463</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="5"/>
+        <v>1852</v>
+      </c>
+      <c r="F73">
+        <v>20</v>
+      </c>
+      <c r="L73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>206</v>
+      </c>
+      <c r="D74">
+        <v>41</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>121</v>
+      </c>
+      <c r="H74">
+        <v>35</v>
+      </c>
+      <c r="I74" t="s">
+        <v>35</v>
+      </c>
+      <c r="J74">
+        <v>40</v>
+      </c>
+      <c r="K74">
+        <f>J74/D74</f>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="L74" t="s">
+        <v>122</v>
+      </c>
+      <c r="M74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>240</v>
+      </c>
+      <c r="D75">
+        <v>48</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="5"/>
+        <v>192</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>123</v>
+      </c>
+      <c r="H75">
+        <v>35</v>
+      </c>
+      <c r="I75" t="s">
+        <v>35</v>
+      </c>
+      <c r="J75">
+        <v>48</v>
+      </c>
+      <c r="K75">
+        <f>J75/D75</f>
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>124</v>
+      </c>
+      <c r="M75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>390</v>
+      </c>
+      <c r="D76">
+        <v>78</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>312</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>104</v>
+      </c>
+      <c r="H76">
+        <v>35</v>
+      </c>
+      <c r="I76" t="s">
+        <v>35</v>
+      </c>
+      <c r="J76">
+        <v>77</v>
+      </c>
+      <c r="K76">
+        <f>J76/D76</f>
+        <v>0.98717948717948723</v>
+      </c>
+      <c r="L76" t="s">
+        <v>125</v>
+      </c>
+      <c r="M76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>524</v>
+      </c>
+      <c r="D77">
+        <v>104</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="5"/>
+        <v>420</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77" t="s">
+        <v>128</v>
+      </c>
+      <c r="H77">
+        <v>35</v>
+      </c>
+      <c r="I77" t="s">
+        <v>35</v>
+      </c>
+      <c r="J77">
+        <v>102</v>
+      </c>
+      <c r="K77">
+        <f>J77/D77</f>
+        <v>0.98076923076923073</v>
+      </c>
+      <c r="L77" t="s">
+        <v>126</v>
+      </c>
+      <c r="M77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>615</v>
+      </c>
+      <c r="D78">
+        <v>123</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="5"/>
         <v>492</v>
       </c>
-      <c r="F58">
-        <v>5</v>
-      </c>
-      <c r="K58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C59">
-        <v>575</v>
-      </c>
-      <c r="D59">
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>104</v>
+      </c>
+      <c r="H78">
+        <v>35</v>
+      </c>
+      <c r="I78" t="s">
+        <v>35</v>
+      </c>
+      <c r="J78">
         <v>115</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="4"/>
-        <v>460</v>
-      </c>
-      <c r="F59">
-        <v>5</v>
-      </c>
-      <c r="K59" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C60">
-        <v>517</v>
-      </c>
-      <c r="D60">
-        <v>103</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="4"/>
-        <v>414</v>
-      </c>
-      <c r="F60">
-        <v>5</v>
-      </c>
-      <c r="K60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C61">
-        <v>609</v>
-      </c>
-      <c r="D61">
-        <v>121</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="4"/>
-        <v>488</v>
-      </c>
-      <c r="F61">
-        <v>5</v>
-      </c>
-      <c r="K61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C62">
-        <v>225</v>
-      </c>
-      <c r="D62">
-        <v>45</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-      <c r="K62" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C63">
-        <v>301</v>
-      </c>
-      <c r="D63">
-        <v>60</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="4"/>
-        <v>241</v>
-      </c>
-      <c r="F63">
-        <v>3</v>
-      </c>
-      <c r="K63" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C64">
-        <v>242</v>
-      </c>
-      <c r="D64">
-        <v>48</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="4"/>
-        <v>194</v>
-      </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-      <c r="K64" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C65">
-        <v>228</v>
-      </c>
-      <c r="D65">
-        <v>45</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="4"/>
-        <v>183</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-      <c r="K65" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C66">
-        <v>1126</v>
-      </c>
-      <c r="D66">
-        <v>225</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="4"/>
-        <v>901</v>
-      </c>
-      <c r="F66">
-        <v>10</v>
-      </c>
-      <c r="K66" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C67">
-        <v>2315</v>
-      </c>
-      <c r="D67">
-        <v>463</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="4"/>
-        <v>1852</v>
-      </c>
-      <c r="F67">
-        <v>20</v>
-      </c>
-      <c r="K67" t="s">
-        <v>56</v>
-      </c>
+      <c r="K78">
+        <f>J78/D78</f>
+        <v>0.93495934959349591</v>
+      </c>
+      <c r="L78" t="s">
+        <v>127</v>
+      </c>
+      <c r="M78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A48:N48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/csv/results.xlsx
+++ b/csv/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="143">
   <si>
     <t>case</t>
   </si>
@@ -403,6 +403,48 @@
   </si>
   <si>
     <t>2 falsch: travel film, travel business</t>
+  </si>
+  <si>
+    <t>0.82315354508291</t>
+  </si>
+  <si>
+    <t>business &amp; science</t>
+  </si>
+  <si>
+    <t>0.66799542310943</t>
+  </si>
+  <si>
+    <t>lifestyle &amp; uk news</t>
+  </si>
+  <si>
+    <t>0.84755667461047</t>
+  </si>
+  <si>
+    <t>business &amp; technology</t>
+  </si>
+  <si>
+    <t>582170 ms</t>
+  </si>
+  <si>
+    <t>semantic fingerprinting (85% training data and 15% test data)</t>
+  </si>
+  <si>
+    <t>worldnews&amp;football</t>
+  </si>
+  <si>
+    <t>0.62124175152693</t>
+  </si>
+  <si>
+    <t>0.76608166418603</t>
+  </si>
+  <si>
+    <t>fashion&amp;technology</t>
+  </si>
+  <si>
+    <t>check if euclidean distance for contextmap better</t>
+  </si>
+  <si>
+    <t>todo</t>
   </si>
 </sst>
 </file>
@@ -548,6 +590,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,9 +610,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:XFD99"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,19 +930,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1968,19 +2010,19 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -2303,19 +2345,19 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -2512,19 +2554,19 @@
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -2815,19 +2857,19 @@
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -3071,19 +3113,19 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -3228,19 +3270,19 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="9"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -3311,19 +3353,19 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="9"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -3394,19 +3436,19 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="9"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -3934,10 +3976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F53" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3946,27 +3988,27 @@
     <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" customWidth="1"/>
     <col min="12" max="12" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4708,21 +4750,21 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5524,22 +5566,22 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="12"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -5920,7 +5962,7 @@
         <v>100</v>
       </c>
       <c r="E57">
-        <f t="shared" ref="E57:E78" si="5">C57-D57</f>
+        <f t="shared" ref="E57:E81" si="5">C57-D57</f>
         <v>400</v>
       </c>
       <c r="F57">
@@ -6573,6 +6615,9 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
       <c r="C72">
         <v>1126</v>
       </c>
@@ -6586,8 +6631,30 @@
       <c r="F72">
         <v>10</v>
       </c>
+      <c r="G72" t="s">
+        <v>104</v>
+      </c>
+      <c r="H72">
+        <v>35</v>
+      </c>
+      <c r="I72" t="s">
+        <v>35</v>
+      </c>
+      <c r="J72">
+        <v>146</v>
+      </c>
+      <c r="K72">
+        <f>J72/D72</f>
+        <v>0.64888888888888885</v>
+      </c>
       <c r="L72" t="s">
         <v>55</v>
+      </c>
+      <c r="M72" t="s">
+        <v>101</v>
+      </c>
+      <c r="N72" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -6638,7 +6705,7 @@
         <v>40</v>
       </c>
       <c r="K74">
-        <f>J74/D74</f>
+        <f t="shared" ref="K74:K81" si="6">J74/D74</f>
         <v>0.97560975609756095</v>
       </c>
       <c r="L74" t="s">
@@ -6678,7 +6745,7 @@
         <v>48</v>
       </c>
       <c r="K75">
-        <f>J75/D75</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L75" t="s">
@@ -6718,7 +6785,7 @@
         <v>77</v>
       </c>
       <c r="K76">
-        <f>J76/D76</f>
+        <f t="shared" si="6"/>
         <v>0.98717948717948723</v>
       </c>
       <c r="L76" t="s">
@@ -6758,7 +6825,7 @@
         <v>102</v>
       </c>
       <c r="K77">
-        <f>J77/D77</f>
+        <f t="shared" si="6"/>
         <v>0.98076923076923073</v>
       </c>
       <c r="L77" t="s">
@@ -6798,7 +6865,7 @@
         <v>115</v>
       </c>
       <c r="K78">
-        <f>J78/D78</f>
+        <f t="shared" si="6"/>
         <v>0.93495934959349591</v>
       </c>
       <c r="L78" t="s">
@@ -6808,17 +6875,550 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G82" s="12"/>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G83" s="12"/>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>216</v>
+      </c>
+      <c r="D79">
+        <v>43</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="5"/>
+        <v>173</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="s">
+        <v>129</v>
+      </c>
+      <c r="H79">
+        <v>35</v>
+      </c>
+      <c r="I79" t="s">
+        <v>35</v>
+      </c>
+      <c r="J79">
+        <v>39</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="6"/>
+        <v>0.90697674418604646</v>
+      </c>
+      <c r="L79" t="s">
+        <v>130</v>
+      </c>
+      <c r="M79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>228</v>
+      </c>
+      <c r="D80">
+        <v>45</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="5"/>
+        <v>183</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>131</v>
+      </c>
+      <c r="H80">
+        <v>35</v>
+      </c>
+      <c r="I80" t="s">
+        <v>35</v>
+      </c>
+      <c r="J80">
+        <v>43</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="6"/>
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="L80" t="s">
+        <v>132</v>
+      </c>
+      <c r="M80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>236</v>
+      </c>
+      <c r="D81">
+        <v>47</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="5"/>
+        <v>189</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81" t="s">
+        <v>133</v>
+      </c>
+      <c r="H81">
+        <v>35</v>
+      </c>
+      <c r="I81" t="s">
+        <v>35</v>
+      </c>
+      <c r="J81">
+        <v>42</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="6"/>
+        <v>0.8936170212765957</v>
+      </c>
+      <c r="L81" t="s">
+        <v>134</v>
+      </c>
+      <c r="M81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="12"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" t="s">
+        <v>7</v>
+      </c>
+      <c r="J85" t="s">
+        <v>8</v>
+      </c>
+      <c r="K85" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85" t="s">
+        <v>14</v>
+      </c>
+      <c r="M85" t="s">
+        <v>14</v>
+      </c>
+      <c r="N85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>494</v>
+      </c>
+      <c r="D86">
+        <v>74</v>
+      </c>
+      <c r="E86">
+        <f>C86-D86</f>
+        <v>420</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86" t="s">
+        <v>104</v>
+      </c>
+      <c r="H86">
+        <v>35</v>
+      </c>
+      <c r="I86" t="s">
+        <v>35</v>
+      </c>
+      <c r="J86">
+        <v>64</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ref="K86:K93" si="7">J86/D86</f>
+        <v>0.86486486486486491</v>
+      </c>
+      <c r="L86" t="s">
+        <v>45</v>
+      </c>
+      <c r="M86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>494</v>
+      </c>
+      <c r="D87">
+        <v>74</v>
+      </c>
+      <c r="E87">
+        <v>420</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87" t="s">
+        <v>104</v>
+      </c>
+      <c r="H87">
+        <v>35</v>
+      </c>
+      <c r="I87" t="s">
+        <v>35</v>
+      </c>
+      <c r="J87">
+        <v>65</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="7"/>
+        <v>0.8783783783783784</v>
+      </c>
+      <c r="L87" t="s">
+        <v>45</v>
+      </c>
+      <c r="M87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>253</v>
+      </c>
+      <c r="D88">
+        <v>37</v>
+      </c>
+      <c r="E88">
+        <f>C88-D88</f>
+        <v>216</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88" t="s">
+        <v>138</v>
+      </c>
+      <c r="H88">
+        <v>35</v>
+      </c>
+      <c r="I88" t="s">
+        <v>35</v>
+      </c>
+      <c r="J88">
+        <v>34</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="7"/>
+        <v>0.91891891891891897</v>
+      </c>
+      <c r="L88" t="s">
+        <v>137</v>
+      </c>
+      <c r="M88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>253</v>
+      </c>
+      <c r="D89">
+        <v>37</v>
+      </c>
+      <c r="E89">
+        <v>216</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>138</v>
+      </c>
+      <c r="H89">
+        <v>35</v>
+      </c>
+      <c r="I89" t="s">
+        <v>35</v>
+      </c>
+      <c r="J89">
+        <v>35</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="7"/>
+        <v>0.94594594594594594</v>
+      </c>
+      <c r="L89" t="s">
+        <v>137</v>
+      </c>
+      <c r="M89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>241</v>
+      </c>
+      <c r="D90">
+        <v>36</v>
+      </c>
+      <c r="E90">
+        <f>C90-D90</f>
+        <v>205</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90" t="s">
+        <v>139</v>
+      </c>
+      <c r="H90">
+        <v>35</v>
+      </c>
+      <c r="I90" t="s">
+        <v>35</v>
+      </c>
+      <c r="J90">
+        <v>32</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="7"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L90" t="s">
+        <v>140</v>
+      </c>
+      <c r="M90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>241</v>
+      </c>
+      <c r="D91">
+        <v>36</v>
+      </c>
+      <c r="E91">
+        <f>C91-D91</f>
+        <v>205</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91" t="s">
+        <v>139</v>
+      </c>
+      <c r="H91">
+        <v>35</v>
+      </c>
+      <c r="I91" t="s">
+        <v>35</v>
+      </c>
+      <c r="J91">
+        <v>32</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="7"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L91" t="s">
+        <v>140</v>
+      </c>
+      <c r="M91" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>609</v>
+      </c>
+      <c r="D92">
+        <v>91</v>
+      </c>
+      <c r="E92">
+        <f>C92-D92</f>
+        <v>518</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92" t="s">
+        <v>104</v>
+      </c>
+      <c r="H92">
+        <v>35</v>
+      </c>
+      <c r="I92" t="s">
+        <v>35</v>
+      </c>
+      <c r="J92">
+        <v>85</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="7"/>
+        <v>0.93406593406593408</v>
+      </c>
+      <c r="L92" t="s">
+        <v>49</v>
+      </c>
+      <c r="M92" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>517</v>
+      </c>
+      <c r="D93">
+        <v>77</v>
+      </c>
+      <c r="E93">
+        <f>C93-D93</f>
+        <v>440</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>104</v>
+      </c>
+      <c r="H93">
+        <v>35</v>
+      </c>
+      <c r="I93" t="s">
+        <v>35</v>
+      </c>
+      <c r="J93">
+        <v>45</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="7"/>
+        <v>0.58441558441558439</v>
+      </c>
+      <c r="L93" t="s">
+        <v>48</v>
+      </c>
+      <c r="M93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>142</v>
+      </c>
+      <c r="J98" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A24:M24"/>
     <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A84:N84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/csv/results.xlsx
+++ b/csv/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10275" activeTab="1"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10275" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="152">
   <si>
     <t>case</t>
   </si>
@@ -445,6 +445,33 @@
   </si>
   <si>
     <t>todo</t>
+  </si>
+  <si>
+    <t>knn (85% training data and 15 test data)</t>
+  </si>
+  <si>
+    <t>first 10 categories</t>
+  </si>
+  <si>
+    <t>uk news &amp; world news</t>
+  </si>
+  <si>
+    <t>sport &amp; football</t>
+  </si>
+  <si>
+    <t>sport &amp; football &amp; fashion &amp; life and style</t>
+  </si>
+  <si>
+    <t>wenn andere cats dabei mehr fehler bei ähnliche cats</t>
+  </si>
+  <si>
+    <t>sport &amp; football &amp; fashion &amp; technology</t>
+  </si>
+  <si>
+    <t>0.85791631799646</t>
+  </si>
+  <si>
+    <t>addtional stopword list</t>
   </si>
 </sst>
 </file>
@@ -914,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -3976,10 +4003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView topLeftCell="H61" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4748,2677 +4775,2845 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="12"/>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>253</v>
+      </c>
+      <c r="D24">
+        <v>37</v>
+      </c>
+      <c r="E24">
+        <f>C24-D24</f>
+        <v>216</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24">
+        <v>35</v>
+      </c>
+      <c r="K24">
+        <f>J24/D24</f>
+        <v>0.94594594594594594</v>
+      </c>
+      <c r="L24" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
+      <c r="A25">
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>517</v>
+      </c>
+      <c r="D25">
+        <v>77</v>
+      </c>
+      <c r="E25">
+        <f>C25-D25</f>
+        <v>440</v>
+      </c>
+      <c r="F25">
         <v>5</v>
       </c>
-      <c r="H25" t="s">
-        <v>17</v>
+      <c r="H25">
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="J25">
+        <v>59</v>
+      </c>
+      <c r="K25">
+        <f>J25/D25</f>
+        <v>0.76623376623376627</v>
       </c>
       <c r="L25" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26">
-        <v>253</v>
+        <v>609</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="E26">
         <f>C26-D26</f>
+        <v>518</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26">
+        <v>86</v>
+      </c>
+      <c r="K26">
+        <f>J26/D26</f>
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="L26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>253</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <f>C30-D30</f>
         <v>203</v>
       </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
         <v>18</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I30" t="s">
         <v>19</v>
       </c>
-      <c r="J26">
+      <c r="J30">
         <v>48</v>
       </c>
-      <c r="K26">
-        <f t="shared" ref="K26:K44" si="2">J26/D26</f>
+      <c r="K30">
+        <f t="shared" ref="K30:K48" si="2">J30/D30</f>
         <v>0.96</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L30" t="s">
         <v>39</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
         <v>241</v>
       </c>
-      <c r="D27">
+      <c r="D31">
         <v>48</v>
       </c>
-      <c r="E27">
-        <f>C27-D27</f>
+      <c r="E31">
+        <f>C31-D31</f>
         <v>193</v>
       </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
         <v>18</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I31" t="s">
         <v>19</v>
       </c>
-      <c r="J27">
+      <c r="J31">
         <v>48</v>
       </c>
-      <c r="K27">
+      <c r="K31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L31" t="s">
         <v>40</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>3</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
         <v>232</v>
       </c>
-      <c r="D28">
+      <c r="D32">
         <v>46</v>
       </c>
-      <c r="E28">
-        <f>C28-D28</f>
+      <c r="E32">
+        <f>C32-D32</f>
         <v>186</v>
       </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
         <v>18</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="J28">
+      <c r="J32">
         <v>44</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="2"/>
+      <c r="K32">
+        <f>J32/D32</f>
         <v>0.95652173913043481</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L32" t="s">
         <v>41</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>4</v>
       </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
         <v>247</v>
       </c>
-      <c r="D29">
+      <c r="D33">
         <v>49</v>
       </c>
-      <c r="E29">
-        <f>C29</f>
+      <c r="E33">
+        <f>C33</f>
         <v>247</v>
       </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
         <v>18</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I33" t="s">
         <v>19</v>
       </c>
-      <c r="J29">
+      <c r="J33">
         <v>45</v>
       </c>
-      <c r="K29">
+      <c r="K33">
         <f t="shared" si="2"/>
         <v>0.91836734693877553</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L33" t="s">
         <v>42</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>5</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30">
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
         <v>247</v>
       </c>
-      <c r="D30">
+      <c r="D34">
         <v>49</v>
       </c>
-      <c r="E30">
-        <f>C30</f>
+      <c r="E34">
+        <f>C34</f>
         <v>247</v>
       </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
         <v>20</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I34" t="s">
         <v>19</v>
       </c>
-      <c r="J30">
+      <c r="J34">
         <v>45</v>
       </c>
-      <c r="K30">
+      <c r="K34">
         <f t="shared" si="2"/>
         <v>0.91836734693877553</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L34" t="s">
         <v>42</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31">
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
         <v>500</v>
       </c>
-      <c r="D31">
+      <c r="D35">
         <v>100</v>
       </c>
-      <c r="E31">
-        <f t="shared" ref="E31:E44" si="3">C31-D31</f>
+      <c r="E35">
+        <f t="shared" ref="E35:E48" si="3">C35-D35</f>
         <v>400</v>
       </c>
-      <c r="F31">
+      <c r="F35">
         <v>4</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H35" t="s">
         <v>18</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I35" t="s">
         <v>19</v>
       </c>
-      <c r="J31">
+      <c r="J35">
         <v>89</v>
       </c>
-      <c r="K31">
+      <c r="K35">
         <f t="shared" si="2"/>
         <v>0.89</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L35" t="s">
         <v>43</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>7</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32">
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
         <v>449</v>
       </c>
-      <c r="D32">
+      <c r="D36">
         <v>89</v>
       </c>
-      <c r="E32">
+      <c r="E36">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="F32">
+      <c r="F36">
         <v>4</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H36" t="s">
         <v>18</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I36" t="s">
         <v>19</v>
       </c>
-      <c r="J32">
+      <c r="J36">
         <v>70</v>
       </c>
-      <c r="K32">
+      <c r="K36">
         <f t="shared" si="2"/>
         <v>0.7865168539325843</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L36" t="s">
         <v>44</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M36" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>8</v>
       </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
         <v>494</v>
       </c>
-      <c r="D33">
+      <c r="D37">
         <v>98</v>
       </c>
-      <c r="E33">
+      <c r="E37">
         <f t="shared" si="3"/>
         <v>396</v>
       </c>
-      <c r="F33">
+      <c r="F37">
         <v>4</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H37" t="s">
         <v>18</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I37" t="s">
         <v>19</v>
       </c>
-      <c r="J33">
+      <c r="J37">
         <v>92</v>
       </c>
-      <c r="K33">
+      <c r="K37">
         <f t="shared" si="2"/>
         <v>0.93877551020408168</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L37" t="s">
         <v>45</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>9</v>
       </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34">
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
         <v>1189</v>
       </c>
-      <c r="D34">
+      <c r="D38">
         <v>237</v>
       </c>
-      <c r="E34">
+      <c r="E38">
         <f t="shared" si="3"/>
         <v>952</v>
       </c>
-      <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
         <v>18</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I38" t="s">
         <v>19</v>
       </c>
-      <c r="J34">
+      <c r="J38">
         <v>171</v>
       </c>
-      <c r="K34">
+      <c r="K38">
         <f t="shared" si="2"/>
         <v>0.72151898734177211</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L38" t="s">
         <v>54</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
         <v>614</v>
       </c>
-      <c r="D35">
+      <c r="D39">
         <v>122</v>
       </c>
-      <c r="E35">
+      <c r="E39">
         <f t="shared" si="3"/>
         <v>492</v>
       </c>
-      <c r="F35">
+      <c r="F39">
         <v>5</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H39" t="s">
         <v>18</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I39" t="s">
         <v>19</v>
       </c>
-      <c r="J35">
+      <c r="J39">
         <v>103</v>
       </c>
-      <c r="K35">
+      <c r="K39">
         <f t="shared" si="2"/>
         <v>0.84426229508196726</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L39" t="s">
         <v>46</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M39" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>11</v>
       </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36">
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
         <v>575</v>
       </c>
-      <c r="D36">
+      <c r="D40">
         <v>115</v>
       </c>
-      <c r="E36">
+      <c r="E40">
         <f t="shared" si="3"/>
         <v>460</v>
       </c>
-      <c r="F36">
+      <c r="F40">
         <v>5</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H40" t="s">
         <v>18</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I40" t="s">
         <v>19</v>
       </c>
-      <c r="J36">
+      <c r="J40">
         <v>101</v>
       </c>
-      <c r="K36">
+      <c r="K40">
         <f t="shared" si="2"/>
         <v>0.87826086956521743</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L40" t="s">
         <v>47</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>12</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37">
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
         <v>517</v>
       </c>
-      <c r="D37">
+      <c r="D41">
         <v>103</v>
       </c>
-      <c r="E37">
+      <c r="E41">
         <f t="shared" si="3"/>
         <v>414</v>
       </c>
-      <c r="F37">
+      <c r="F41">
         <v>5</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H41" t="s">
         <v>18</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I41" t="s">
         <v>19</v>
       </c>
-      <c r="J37">
+      <c r="J41">
         <v>82</v>
       </c>
-      <c r="K37">
+      <c r="K41">
         <f t="shared" si="2"/>
         <v>0.79611650485436891</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L41" t="s">
         <v>48</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>13</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
         <v>609</v>
       </c>
-      <c r="D38">
+      <c r="D42">
         <v>121</v>
       </c>
-      <c r="E38">
+      <c r="E42">
         <f t="shared" si="3"/>
         <v>488</v>
       </c>
-      <c r="F38">
+      <c r="F42">
         <v>5</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H42" t="s">
         <v>18</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I42" t="s">
         <v>19</v>
       </c>
-      <c r="J38">
+      <c r="J42">
         <v>115</v>
       </c>
-      <c r="K38">
+      <c r="K42">
         <f t="shared" si="2"/>
         <v>0.95041322314049592</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L42" t="s">
         <v>49</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>14</v>
       </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39">
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
         <v>225</v>
       </c>
-      <c r="D39">
+      <c r="D43">
         <v>45</v>
       </c>
-      <c r="E39">
+      <c r="E43">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
         <v>18</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I43" t="s">
         <v>19</v>
       </c>
-      <c r="J39">
+      <c r="J43">
         <v>44</v>
       </c>
-      <c r="K39">
+      <c r="K43">
         <f t="shared" si="2"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L43" t="s">
         <v>50</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M43" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>15</v>
       </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
         <v>301</v>
       </c>
-      <c r="D40">
+      <c r="D44">
         <v>60</v>
       </c>
-      <c r="E40">
+      <c r="E44">
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
-      <c r="F40">
+      <c r="F44">
         <v>3</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H44" t="s">
         <v>18</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I44" t="s">
         <v>19</v>
       </c>
-      <c r="J40">
+      <c r="J44">
         <v>54</v>
       </c>
-      <c r="K40">
+      <c r="K44">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L44" t="s">
         <v>51</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M44" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>16</v>
       </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41">
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
         <v>242</v>
       </c>
-      <c r="D41">
+      <c r="D45">
         <v>48</v>
       </c>
-      <c r="E41">
+      <c r="E45">
         <f t="shared" si="3"/>
         <v>194</v>
       </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
         <v>18</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I45" t="s">
         <v>19</v>
       </c>
-      <c r="J41">
+      <c r="J45">
         <v>44</v>
       </c>
-      <c r="K41">
+      <c r="K45">
         <f t="shared" si="2"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L45" t="s">
         <v>52</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M45" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>17</v>
       </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42">
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
         <v>228</v>
       </c>
-      <c r="D42">
+      <c r="D46">
         <v>45</v>
       </c>
-      <c r="E42">
+      <c r="E46">
         <f t="shared" si="3"/>
         <v>183</v>
       </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
         <v>18</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I46" t="s">
         <v>19</v>
       </c>
-      <c r="J42">
+      <c r="J46">
         <v>39</v>
       </c>
-      <c r="K42">
+      <c r="K46">
         <f t="shared" si="2"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L46" t="s">
         <v>53</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M46" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>18</v>
       </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43">
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
         <v>1126</v>
       </c>
-      <c r="D43">
+      <c r="D47">
         <v>225</v>
       </c>
-      <c r="E43">
+      <c r="E47">
         <f t="shared" si="3"/>
         <v>901</v>
       </c>
-      <c r="F43">
-        <v>10</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
         <v>18</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I47" t="s">
         <v>19</v>
       </c>
-      <c r="J43">
+      <c r="J47">
         <v>196</v>
       </c>
-      <c r="K43">
+      <c r="K47">
         <f t="shared" si="2"/>
         <v>0.87111111111111106</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L47" t="s">
         <v>55</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>19</v>
       </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44">
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
         <v>2315</v>
       </c>
-      <c r="D44">
+      <c r="D48">
         <v>463</v>
       </c>
-      <c r="E44">
+      <c r="E48">
         <f t="shared" si="3"/>
         <v>1852</v>
       </c>
-      <c r="F44">
+      <c r="F48">
         <v>20</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H48" t="s">
         <v>18</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I48" t="s">
         <v>19</v>
       </c>
-      <c r="J44">
+      <c r="J48">
         <v>349</v>
       </c>
-      <c r="K44">
+      <c r="K48">
         <f t="shared" si="2"/>
         <v>0.75377969762419006</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L48" t="s">
         <v>56</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+    <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="12"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="12"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>0</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B53" t="s">
         <v>1</v>
       </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
         <v>3</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E53" t="s">
         <v>4</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F53" t="s">
         <v>5</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G53" t="s">
         <v>90</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H53" t="s">
         <v>32</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I53" t="s">
         <v>7</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J53" t="s">
         <v>8</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K53" t="s">
         <v>9</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L53" t="s">
         <v>14</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M53" t="s">
         <v>14</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N53" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>1</v>
       </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50">
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54">
         <v>253</v>
       </c>
-      <c r="D50">
+      <c r="D54">
         <v>50</v>
       </c>
-      <c r="E50">
-        <f>C50-D50</f>
+      <c r="E54">
+        <f>C54-D54</f>
         <v>203</v>
       </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
         <v>92</v>
       </c>
-      <c r="H50">
-        <v>35</v>
-      </c>
-      <c r="I50" t="s">
-        <v>35</v>
-      </c>
-      <c r="J50">
+      <c r="H54">
+        <v>35</v>
+      </c>
+      <c r="I54" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54">
         <v>47</v>
       </c>
-      <c r="K50">
-        <f t="shared" ref="K50:K67" si="4">J50/D50</f>
+      <c r="K54">
+        <f t="shared" ref="K54:K71" si="4">J54/D54</f>
         <v>0.94</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L54" t="s">
         <v>39</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M54" t="s">
         <v>101</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N54" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
         <v>253</v>
       </c>
-      <c r="D51">
+      <c r="D55">
         <v>50</v>
       </c>
-      <c r="E51">
-        <f>C51-D51</f>
+      <c r="E55">
+        <f>C55-D55</f>
         <v>203</v>
       </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
         <v>92</v>
       </c>
-      <c r="H51">
-        <v>35</v>
-      </c>
-      <c r="I51" t="s">
-        <v>35</v>
-      </c>
-      <c r="J51">
+      <c r="H55">
+        <v>35</v>
+      </c>
+      <c r="I55" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55">
         <v>47</v>
       </c>
-      <c r="K51">
+      <c r="K55">
         <f t="shared" si="4"/>
         <v>0.94</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L55" t="s">
         <v>39</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M55" t="s">
         <v>89</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N55" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>3</v>
       </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52">
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
         <v>241</v>
       </c>
-      <c r="D52">
+      <c r="D56">
         <v>48</v>
       </c>
-      <c r="E52">
-        <f>C52-D52</f>
+      <c r="E56">
+        <f>C56-D56</f>
         <v>193</v>
       </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
         <v>91</v>
       </c>
-      <c r="H52">
-        <v>35</v>
-      </c>
-      <c r="I52" t="s">
-        <v>35</v>
-      </c>
-      <c r="J52">
+      <c r="H56">
+        <v>35</v>
+      </c>
+      <c r="I56" t="s">
+        <v>35</v>
+      </c>
+      <c r="J56">
         <v>42</v>
       </c>
-      <c r="K52">
+      <c r="K56">
         <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L56" t="s">
         <v>40</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M56" t="s">
         <v>101</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N56" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>4</v>
       </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53">
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
         <v>241</v>
       </c>
-      <c r="D53">
+      <c r="D57">
         <v>48</v>
       </c>
-      <c r="E53">
+      <c r="E57">
         <v>193</v>
       </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
         <v>91</v>
       </c>
-      <c r="H53">
-        <v>35</v>
-      </c>
-      <c r="I53" t="s">
-        <v>35</v>
-      </c>
-      <c r="J53">
+      <c r="H57">
+        <v>35</v>
+      </c>
+      <c r="I57" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57">
         <v>44</v>
       </c>
-      <c r="K53">
+      <c r="K57">
         <f t="shared" si="4"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L57" t="s">
         <v>40</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M57" t="s">
         <v>89</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N57" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>5</v>
       </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54">
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58">
         <v>232</v>
       </c>
-      <c r="D54">
+      <c r="D58">
         <v>46</v>
       </c>
-      <c r="E54">
-        <f>C54-D54</f>
+      <c r="E58">
+        <f>C58-D58</f>
         <v>186</v>
       </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
         <v>93</v>
       </c>
-      <c r="H54">
-        <v>35</v>
-      </c>
-      <c r="I54" t="s">
-        <v>35</v>
-      </c>
-      <c r="J54">
+      <c r="H58">
+        <v>35</v>
+      </c>
+      <c r="I58" t="s">
+        <v>35</v>
+      </c>
+      <c r="J58">
         <v>46</v>
       </c>
-      <c r="K54">
+      <c r="K58">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L58" t="s">
         <v>41</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M58" t="s">
         <v>101</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N58" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>6</v>
       </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55">
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
         <v>247</v>
       </c>
-      <c r="D55">
+      <c r="D59">
         <v>49</v>
       </c>
-      <c r="E55">
-        <f>C55-D55</f>
+      <c r="E59">
+        <f>C59-D59</f>
         <v>198</v>
       </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="s">
         <v>94</v>
       </c>
-      <c r="H55">
-        <v>35</v>
-      </c>
-      <c r="I55" t="s">
-        <v>35</v>
-      </c>
-      <c r="J55">
+      <c r="H59">
+        <v>35</v>
+      </c>
+      <c r="I59" t="s">
+        <v>35</v>
+      </c>
+      <c r="J59">
         <v>39</v>
       </c>
-      <c r="K55">
+      <c r="K59">
         <f t="shared" si="4"/>
         <v>0.79591836734693877</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L59" t="s">
         <v>42</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M59" t="s">
         <v>101</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N59" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>7</v>
       </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56">
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
         <v>247</v>
       </c>
-      <c r="D56">
+      <c r="D60">
         <v>49</v>
       </c>
-      <c r="E56">
-        <f>C56-D56</f>
+      <c r="E60">
+        <f>C60-D60</f>
         <v>198</v>
       </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
         <v>94</v>
       </c>
-      <c r="H56">
-        <v>35</v>
-      </c>
-      <c r="I56" t="s">
-        <v>35</v>
-      </c>
-      <c r="J56">
+      <c r="H60">
+        <v>35</v>
+      </c>
+      <c r="I60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J60">
         <v>41</v>
       </c>
-      <c r="K56">
+      <c r="K60">
         <f t="shared" si="4"/>
         <v>0.83673469387755106</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L60" t="s">
         <v>42</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M60" t="s">
         <v>89</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N60" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>8</v>
       </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57">
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
         <v>500</v>
       </c>
-      <c r="D57">
+      <c r="D61">
         <v>100</v>
       </c>
-      <c r="E57">
-        <f t="shared" ref="E57:E81" si="5">C57-D57</f>
+      <c r="E61">
+        <f t="shared" ref="E61:E85" si="5">C61-D61</f>
         <v>400</v>
       </c>
-      <c r="F57">
+      <c r="F61">
         <v>4</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G61" t="s">
         <v>104</v>
       </c>
-      <c r="H57">
-        <v>35</v>
-      </c>
-      <c r="I57" t="s">
-        <v>35</v>
-      </c>
-      <c r="J57">
+      <c r="H61">
+        <v>35</v>
+      </c>
+      <c r="I61" t="s">
+        <v>35</v>
+      </c>
+      <c r="J61">
         <v>82</v>
       </c>
-      <c r="K57">
+      <c r="K61">
         <f t="shared" si="4"/>
         <v>0.82</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L61" t="s">
         <v>43</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M61" t="s">
         <v>101</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>9</v>
       </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58">
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
         <v>500</v>
       </c>
-      <c r="D58">
+      <c r="D62">
         <v>100</v>
       </c>
-      <c r="E58">
+      <c r="E62">
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
-      <c r="F58">
+      <c r="F62">
         <v>4</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G62" t="s">
         <v>104</v>
       </c>
-      <c r="H58">
-        <v>35</v>
-      </c>
-      <c r="I58" t="s">
-        <v>35</v>
-      </c>
-      <c r="J58">
+      <c r="H62">
+        <v>35</v>
+      </c>
+      <c r="I62" t="s">
+        <v>35</v>
+      </c>
+      <c r="J62">
         <v>81</v>
       </c>
-      <c r="K58">
+      <c r="K62">
         <f t="shared" si="4"/>
         <v>0.81</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L62" t="s">
         <v>43</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M62" t="s">
         <v>89</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N62" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>10</v>
-      </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63">
         <v>449</v>
       </c>
-      <c r="D59">
+      <c r="D63">
         <v>89</v>
       </c>
-      <c r="E59">
+      <c r="E63">
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="F59">
+      <c r="F63">
         <v>4</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G63" t="s">
         <v>104</v>
       </c>
-      <c r="H59">
-        <v>35</v>
-      </c>
-      <c r="I59" t="s">
-        <v>35</v>
-      </c>
-      <c r="J59">
+      <c r="H63">
+        <v>35</v>
+      </c>
+      <c r="I63" t="s">
+        <v>35</v>
+      </c>
+      <c r="J63">
         <v>55</v>
       </c>
-      <c r="K59">
+      <c r="K63">
         <f t="shared" si="4"/>
         <v>0.6179775280898876</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L63" t="s">
         <v>44</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M63" t="s">
         <v>101</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N63" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>11</v>
       </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60">
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64">
         <v>449</v>
       </c>
-      <c r="D60">
+      <c r="D64">
         <v>89</v>
       </c>
-      <c r="E60">
+      <c r="E64">
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="F60">
+      <c r="F64">
         <v>4</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G64" t="s">
         <v>104</v>
       </c>
-      <c r="H60">
-        <v>35</v>
-      </c>
-      <c r="I60" t="s">
-        <v>35</v>
-      </c>
-      <c r="J60">
+      <c r="H64">
+        <v>35</v>
+      </c>
+      <c r="I64" t="s">
+        <v>35</v>
+      </c>
+      <c r="J64">
         <v>55</v>
       </c>
-      <c r="K60">
+      <c r="K64">
         <f t="shared" si="4"/>
         <v>0.6179775280898876</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L64" t="s">
         <v>44</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M64" t="s">
         <v>89</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N64" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>12</v>
       </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61">
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
         <v>494</v>
       </c>
-      <c r="D61">
+      <c r="D65">
         <v>98</v>
       </c>
-      <c r="E61">
+      <c r="E65">
         <f t="shared" si="5"/>
         <v>396</v>
       </c>
-      <c r="F61">
+      <c r="F65">
         <v>4</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G65" t="s">
         <v>104</v>
       </c>
-      <c r="H61">
-        <v>35</v>
-      </c>
-      <c r="I61" t="s">
-        <v>35</v>
-      </c>
-      <c r="J61">
+      <c r="H65">
+        <v>35</v>
+      </c>
+      <c r="I65" t="s">
+        <v>35</v>
+      </c>
+      <c r="J65">
         <v>80</v>
       </c>
-      <c r="K61">
+      <c r="K65">
         <f t="shared" si="4"/>
         <v>0.81632653061224492</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L65" t="s">
         <v>45</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M65" t="s">
         <v>101</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N65" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>13</v>
       </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62">
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66">
         <v>494</v>
       </c>
-      <c r="D62">
+      <c r="D66">
         <v>98</v>
       </c>
-      <c r="E62">
+      <c r="E66">
         <f t="shared" si="5"/>
         <v>396</v>
       </c>
-      <c r="F62">
+      <c r="F66">
         <v>4</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G66" t="s">
         <v>104</v>
       </c>
-      <c r="H62">
-        <v>35</v>
-      </c>
-      <c r="I62" t="s">
-        <v>35</v>
-      </c>
-      <c r="J62">
+      <c r="H66">
+        <v>35</v>
+      </c>
+      <c r="I66" t="s">
+        <v>35</v>
+      </c>
+      <c r="J66">
         <v>82</v>
       </c>
-      <c r="K62">
+      <c r="K66">
         <f t="shared" si="4"/>
         <v>0.83673469387755106</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L66" t="s">
         <v>45</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M66" t="s">
         <v>89</v>
       </c>
-      <c r="N62" t="s">
+      <c r="N66" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>14</v>
       </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63">
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67">
         <v>1189</v>
       </c>
-      <c r="D63">
+      <c r="D67">
         <v>237</v>
       </c>
-      <c r="E63">
+      <c r="E67">
         <f t="shared" si="5"/>
         <v>952</v>
       </c>
-      <c r="F63">
-        <v>10</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
         <v>104</v>
       </c>
-      <c r="H63">
-        <v>35</v>
-      </c>
-      <c r="I63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J63">
+      <c r="H67">
+        <v>35</v>
+      </c>
+      <c r="I67" t="s">
+        <v>35</v>
+      </c>
+      <c r="J67">
         <v>116</v>
       </c>
-      <c r="K63">
+      <c r="K67">
         <f t="shared" si="4"/>
         <v>0.48945147679324896</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L67" t="s">
         <v>54</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M67" t="s">
         <v>101</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N67" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>15</v>
       </c>
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64">
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68">
         <v>614</v>
       </c>
-      <c r="D64">
+      <c r="D68">
         <v>122</v>
       </c>
-      <c r="E64">
+      <c r="E68">
         <f t="shared" si="5"/>
         <v>492</v>
       </c>
-      <c r="F64">
+      <c r="F68">
         <v>5</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G68" t="s">
         <v>104</v>
       </c>
-      <c r="H64">
-        <v>35</v>
-      </c>
-      <c r="I64" t="s">
-        <v>35</v>
-      </c>
-      <c r="J64">
+      <c r="H68">
+        <v>35</v>
+      </c>
+      <c r="I68" t="s">
+        <v>35</v>
+      </c>
+      <c r="J68">
         <v>90</v>
       </c>
-      <c r="K64">
+      <c r="K68">
         <f t="shared" si="4"/>
         <v>0.73770491803278693</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L68" t="s">
         <v>46</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M68" t="s">
         <v>101</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N68" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>16</v>
       </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65">
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
         <v>575</v>
       </c>
-      <c r="D65">
+      <c r="D69">
         <v>115</v>
       </c>
-      <c r="E65">
+      <c r="E69">
         <f t="shared" si="5"/>
         <v>460</v>
       </c>
-      <c r="F65">
+      <c r="F69">
         <v>5</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G69" t="s">
         <v>104</v>
       </c>
-      <c r="H65">
-        <v>35</v>
-      </c>
-      <c r="I65" t="s">
-        <v>35</v>
-      </c>
-      <c r="J65">
+      <c r="H69">
+        <v>35</v>
+      </c>
+      <c r="I69" t="s">
+        <v>35</v>
+      </c>
+      <c r="J69">
         <v>77</v>
       </c>
-      <c r="K65">
+      <c r="K69">
         <f t="shared" si="4"/>
         <v>0.66956521739130437</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L69" t="s">
         <v>47</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M69" t="s">
         <v>101</v>
       </c>
-      <c r="N65" t="s">
+      <c r="N69" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70">
         <v>517</v>
       </c>
-      <c r="D66">
+      <c r="D70">
         <v>103</v>
       </c>
-      <c r="E66">
+      <c r="E70">
         <f t="shared" si="5"/>
         <v>414</v>
       </c>
-      <c r="F66">
+      <c r="F70">
         <v>5</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G70" t="s">
         <v>104</v>
       </c>
-      <c r="H66">
-        <v>35</v>
-      </c>
-      <c r="I66" t="s">
-        <v>35</v>
-      </c>
-      <c r="J66">
+      <c r="H70">
+        <v>35</v>
+      </c>
+      <c r="I70" t="s">
+        <v>35</v>
+      </c>
+      <c r="J70">
         <v>56</v>
       </c>
-      <c r="K66">
+      <c r="K70">
         <f t="shared" si="4"/>
         <v>0.5436893203883495</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L70" t="s">
         <v>48</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M70" t="s">
         <v>101</v>
       </c>
-      <c r="N66" t="s">
+      <c r="N70" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71">
         <v>609</v>
       </c>
-      <c r="D67">
+      <c r="D71">
         <v>121</v>
       </c>
-      <c r="E67">
+      <c r="E71">
         <f t="shared" si="5"/>
         <v>488</v>
       </c>
-      <c r="F67">
+      <c r="F71">
         <v>5</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G71" t="s">
         <v>104</v>
       </c>
-      <c r="H67">
-        <v>35</v>
-      </c>
-      <c r="I67" t="s">
-        <v>35</v>
-      </c>
-      <c r="J67">
+      <c r="H71">
+        <v>35</v>
+      </c>
+      <c r="I71" t="s">
+        <v>35</v>
+      </c>
+      <c r="J71">
         <v>109</v>
       </c>
-      <c r="K67">
+      <c r="K71">
         <f t="shared" si="4"/>
         <v>0.90082644628099173</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L71" t="s">
         <v>49</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M71" t="s">
         <v>101</v>
       </c>
-      <c r="N67" t="s">
+      <c r="N71" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72">
         <v>225</v>
       </c>
-      <c r="D68">
+      <c r="D72">
         <v>45</v>
       </c>
-      <c r="E68">
+      <c r="E72">
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="s">
         <v>111</v>
       </c>
-      <c r="H68">
-        <v>35</v>
-      </c>
-      <c r="I68" t="s">
-        <v>35</v>
-      </c>
-      <c r="J68">
+      <c r="H72">
+        <v>35</v>
+      </c>
+      <c r="I72" t="s">
+        <v>35</v>
+      </c>
+      <c r="J72">
         <v>41</v>
       </c>
-      <c r="K68">
-        <f>J68/D68</f>
+      <c r="K72">
+        <f>J72/D72</f>
         <v>0.91111111111111109</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L72" t="s">
         <v>50</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M72" t="s">
         <v>101</v>
       </c>
-      <c r="N68" t="s">
+      <c r="N72" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73">
         <v>301</v>
       </c>
-      <c r="D69">
+      <c r="D73">
         <v>60</v>
       </c>
-      <c r="E69">
+      <c r="E73">
         <f t="shared" si="5"/>
         <v>241</v>
       </c>
-      <c r="F69">
+      <c r="F73">
         <v>3</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G73" t="s">
         <v>115</v>
       </c>
-      <c r="H69">
-        <v>35</v>
-      </c>
-      <c r="I69" t="s">
-        <v>35</v>
-      </c>
-      <c r="J69">
+      <c r="H73">
+        <v>35</v>
+      </c>
+      <c r="I73" t="s">
+        <v>35</v>
+      </c>
+      <c r="J73">
         <v>41</v>
       </c>
-      <c r="K69">
-        <f>J69/D69</f>
+      <c r="K73">
+        <f>J73/D73</f>
         <v>0.68333333333333335</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L73" t="s">
         <v>51</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M73" t="s">
         <v>101</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N73" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74">
         <v>242</v>
       </c>
-      <c r="D70">
+      <c r="D74">
         <v>48</v>
       </c>
-      <c r="E70">
+      <c r="E74">
         <f t="shared" si="5"/>
         <v>194</v>
       </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
         <v>112</v>
       </c>
-      <c r="H70">
-        <v>35</v>
-      </c>
-      <c r="I70" t="s">
-        <v>35</v>
-      </c>
-      <c r="J70">
+      <c r="H74">
+        <v>35</v>
+      </c>
+      <c r="I74" t="s">
+        <v>35</v>
+      </c>
+      <c r="J74">
         <v>40</v>
       </c>
-      <c r="K70">
-        <f>J70/D70</f>
+      <c r="K74">
+        <f>J74/D74</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L74" t="s">
         <v>52</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M74" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
         <v>228</v>
       </c>
-      <c r="D71">
+      <c r="D75">
         <v>45</v>
       </c>
-      <c r="E71">
+      <c r="E75">
         <f t="shared" si="5"/>
         <v>183</v>
       </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="s">
         <v>113</v>
       </c>
-      <c r="H71">
-        <v>35</v>
-      </c>
-      <c r="I71" t="s">
-        <v>35</v>
-      </c>
-      <c r="J71">
-        <v>35</v>
-      </c>
-      <c r="K71">
-        <f>J71/D71</f>
+      <c r="H75">
+        <v>35</v>
+      </c>
+      <c r="I75" t="s">
+        <v>35</v>
+      </c>
+      <c r="J75">
+        <v>35</v>
+      </c>
+      <c r="K75">
+        <f>J75/D75</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L75" t="s">
         <v>53</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M75" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76">
         <v>1126</v>
       </c>
-      <c r="D72">
+      <c r="D76">
         <v>225</v>
       </c>
-      <c r="E72">
+      <c r="E76">
         <f t="shared" si="5"/>
         <v>901</v>
       </c>
-      <c r="F72">
-        <v>10</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
         <v>104</v>
       </c>
-      <c r="H72">
-        <v>35</v>
-      </c>
-      <c r="I72" t="s">
-        <v>35</v>
-      </c>
-      <c r="J72">
+      <c r="H76">
+        <v>35</v>
+      </c>
+      <c r="I76" t="s">
+        <v>35</v>
+      </c>
+      <c r="J76">
         <v>146</v>
       </c>
-      <c r="K72">
-        <f>J72/D72</f>
+      <c r="K76">
+        <f>J76/D76</f>
         <v>0.64888888888888885</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L76" t="s">
         <v>55</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M76" t="s">
         <v>101</v>
       </c>
-      <c r="N72" t="s">
+      <c r="N76" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C73">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C77">
         <v>2315</v>
       </c>
-      <c r="D73">
+      <c r="D77">
         <v>463</v>
       </c>
-      <c r="E73">
+      <c r="E77">
         <f t="shared" si="5"/>
         <v>1852</v>
       </c>
-      <c r="F73">
+      <c r="F77">
         <v>20</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L77" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78">
         <v>206</v>
       </c>
-      <c r="D74">
+      <c r="D78">
         <v>41</v>
       </c>
-      <c r="E74">
+      <c r="E78">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="F74">
-        <v>2</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78" t="s">
         <v>121</v>
       </c>
-      <c r="H74">
-        <v>35</v>
-      </c>
-      <c r="I74" t="s">
-        <v>35</v>
-      </c>
-      <c r="J74">
+      <c r="H78">
+        <v>35</v>
+      </c>
+      <c r="I78" t="s">
+        <v>35</v>
+      </c>
+      <c r="J78">
         <v>40</v>
       </c>
-      <c r="K74">
-        <f t="shared" ref="K74:K81" si="6">J74/D74</f>
+      <c r="K78">
+        <f t="shared" ref="K78:K85" si="6">J78/D78</f>
         <v>0.97560975609756095</v>
       </c>
-      <c r="L74" t="s">
+      <c r="L78" t="s">
         <v>122</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79">
         <v>240</v>
       </c>
-      <c r="D75">
+      <c r="D79">
         <v>48</v>
       </c>
-      <c r="E75">
+      <c r="E79">
         <f t="shared" si="5"/>
         <v>192</v>
       </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="s">
         <v>123</v>
       </c>
-      <c r="H75">
-        <v>35</v>
-      </c>
-      <c r="I75" t="s">
-        <v>35</v>
-      </c>
-      <c r="J75">
+      <c r="H79">
+        <v>35</v>
+      </c>
+      <c r="I79" t="s">
+        <v>35</v>
+      </c>
+      <c r="J79">
         <v>48</v>
       </c>
-      <c r="K75">
+      <c r="K79">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L79" t="s">
         <v>124</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M79" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80">
         <v>390</v>
       </c>
-      <c r="D76">
+      <c r="D80">
         <v>78</v>
       </c>
-      <c r="E76">
+      <c r="E80">
         <f t="shared" si="5"/>
         <v>312</v>
       </c>
-      <c r="F76">
+      <c r="F80">
         <v>3</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G80" t="s">
         <v>104</v>
       </c>
-      <c r="H76">
-        <v>35</v>
-      </c>
-      <c r="I76" t="s">
-        <v>35</v>
-      </c>
-      <c r="J76">
+      <c r="H80">
+        <v>35</v>
+      </c>
+      <c r="I80" t="s">
+        <v>35</v>
+      </c>
+      <c r="J80">
         <v>77</v>
       </c>
-      <c r="K76">
+      <c r="K80">
         <f t="shared" si="6"/>
         <v>0.98717948717948723</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L80" t="s">
         <v>125</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M80" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81">
         <v>524</v>
       </c>
-      <c r="D77">
+      <c r="D81">
         <v>104</v>
       </c>
-      <c r="E77">
+      <c r="E81">
         <f t="shared" si="5"/>
         <v>420</v>
       </c>
-      <c r="F77">
+      <c r="F81">
         <v>4</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G81" t="s">
         <v>128</v>
       </c>
-      <c r="H77">
-        <v>35</v>
-      </c>
-      <c r="I77" t="s">
-        <v>35</v>
-      </c>
-      <c r="J77">
+      <c r="H81">
+        <v>35</v>
+      </c>
+      <c r="I81" t="s">
+        <v>35</v>
+      </c>
+      <c r="J81">
         <v>102</v>
       </c>
-      <c r="K77">
+      <c r="K81">
         <f t="shared" si="6"/>
         <v>0.98076923076923073</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L81" t="s">
         <v>126</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M81" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82">
         <v>615</v>
       </c>
-      <c r="D78">
+      <c r="D82">
         <v>123</v>
       </c>
-      <c r="E78">
+      <c r="E82">
         <f t="shared" si="5"/>
         <v>492</v>
       </c>
-      <c r="F78">
+      <c r="F82">
         <v>5</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G82" t="s">
         <v>104</v>
       </c>
-      <c r="H78">
-        <v>35</v>
-      </c>
-      <c r="I78" t="s">
-        <v>35</v>
-      </c>
-      <c r="J78">
+      <c r="H82">
+        <v>35</v>
+      </c>
+      <c r="I82" t="s">
+        <v>35</v>
+      </c>
+      <c r="J82">
         <v>115</v>
       </c>
-      <c r="K78">
+      <c r="K82">
         <f t="shared" si="6"/>
         <v>0.93495934959349591</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L82" t="s">
         <v>127</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M82" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83">
         <v>216</v>
       </c>
-      <c r="D79">
+      <c r="D83">
         <v>43</v>
       </c>
-      <c r="E79">
+      <c r="E83">
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83" t="s">
         <v>129</v>
       </c>
-      <c r="H79">
-        <v>35</v>
-      </c>
-      <c r="I79" t="s">
-        <v>35</v>
-      </c>
-      <c r="J79">
+      <c r="H83">
+        <v>35</v>
+      </c>
+      <c r="I83" t="s">
+        <v>35</v>
+      </c>
+      <c r="J83">
         <v>39</v>
       </c>
-      <c r="K79">
+      <c r="K83">
         <f t="shared" si="6"/>
         <v>0.90697674418604646</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L83" t="s">
         <v>130</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M83" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84">
         <v>228</v>
       </c>
-      <c r="D80">
+      <c r="D84">
         <v>45</v>
       </c>
-      <c r="E80">
+      <c r="E84">
         <f t="shared" si="5"/>
         <v>183</v>
       </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
         <v>131</v>
       </c>
-      <c r="H80">
-        <v>35</v>
-      </c>
-      <c r="I80" t="s">
-        <v>35</v>
-      </c>
-      <c r="J80">
+      <c r="H84">
+        <v>35</v>
+      </c>
+      <c r="I84" t="s">
+        <v>35</v>
+      </c>
+      <c r="J84">
         <v>43</v>
       </c>
-      <c r="K80">
+      <c r="K84">
         <f t="shared" si="6"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L84" t="s">
         <v>132</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M84" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85">
         <v>236</v>
       </c>
-      <c r="D81">
+      <c r="D85">
         <v>47</v>
       </c>
-      <c r="E81">
+      <c r="E85">
         <f t="shared" si="5"/>
         <v>189</v>
       </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" t="s">
         <v>133</v>
       </c>
-      <c r="H81">
-        <v>35</v>
-      </c>
-      <c r="I81" t="s">
-        <v>35</v>
-      </c>
-      <c r="J81">
+      <c r="H85">
+        <v>35</v>
+      </c>
+      <c r="I85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J85">
         <v>42</v>
       </c>
-      <c r="K81">
+      <c r="K85">
         <f t="shared" si="6"/>
         <v>0.8936170212765957</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L85" t="s">
         <v>134</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M85" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G82" s="6"/>
-    </row>
-    <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G83" s="6"/>
-    </row>
-    <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="12"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="12"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>0</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B89" t="s">
         <v>1</v>
       </c>
-      <c r="C85" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
         <v>3</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E89" t="s">
         <v>4</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F89" t="s">
         <v>5</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G89" t="s">
         <v>90</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H89" t="s">
         <v>32</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I89" t="s">
         <v>7</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J89" t="s">
         <v>8</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K89" t="s">
         <v>9</v>
       </c>
-      <c r="L85" t="s">
+      <c r="L89" t="s">
         <v>14</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M89" t="s">
         <v>14</v>
       </c>
-      <c r="N85" t="s">
+      <c r="N89" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>1</v>
       </c>
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86">
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90">
         <v>494</v>
       </c>
-      <c r="D86">
+      <c r="D90">
         <v>74</v>
       </c>
-      <c r="E86">
-        <f>C86-D86</f>
+      <c r="E90">
+        <f>C90-D90</f>
         <v>420</v>
       </c>
-      <c r="F86">
+      <c r="F90">
         <v>4</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G90" t="s">
         <v>104</v>
       </c>
-      <c r="H86">
-        <v>35</v>
-      </c>
-      <c r="I86" t="s">
-        <v>35</v>
-      </c>
-      <c r="J86">
+      <c r="H90">
+        <v>35</v>
+      </c>
+      <c r="I90" t="s">
+        <v>35</v>
+      </c>
+      <c r="J90">
         <v>64</v>
       </c>
-      <c r="K86">
-        <f t="shared" ref="K86:K93" si="7">J86/D86</f>
+      <c r="K90">
+        <f t="shared" ref="K90:K97" si="7">J90/D90</f>
         <v>0.86486486486486491</v>
       </c>
-      <c r="L86" t="s">
+      <c r="L90" t="s">
         <v>45</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>2</v>
-      </c>
-      <c r="B87" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91">
         <v>494</v>
       </c>
-      <c r="D87">
+      <c r="D91">
         <v>74</v>
       </c>
-      <c r="E87">
+      <c r="E91">
         <v>420</v>
       </c>
-      <c r="F87">
+      <c r="F91">
         <v>4</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G91" t="s">
         <v>104</v>
       </c>
-      <c r="H87">
-        <v>35</v>
-      </c>
-      <c r="I87" t="s">
-        <v>35</v>
-      </c>
-      <c r="J87">
+      <c r="H91">
+        <v>35</v>
+      </c>
+      <c r="I91" t="s">
+        <v>35</v>
+      </c>
+      <c r="J91">
         <v>65</v>
       </c>
-      <c r="K87">
+      <c r="K91">
         <f t="shared" si="7"/>
         <v>0.8783783783783784</v>
       </c>
-      <c r="L87" t="s">
+      <c r="L91" t="s">
         <v>45</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M91" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>3</v>
       </c>
-      <c r="B88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88">
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92">
         <v>253</v>
       </c>
-      <c r="D88">
+      <c r="D92">
         <v>37</v>
       </c>
-      <c r="E88">
-        <f>C88-D88</f>
+      <c r="E92">
+        <f>C92-D92</f>
         <v>216</v>
       </c>
-      <c r="F88">
-        <v>2</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92" t="s">
         <v>138</v>
       </c>
-      <c r="H88">
-        <v>35</v>
-      </c>
-      <c r="I88" t="s">
-        <v>35</v>
-      </c>
-      <c r="J88">
+      <c r="H92">
+        <v>35</v>
+      </c>
+      <c r="I92" t="s">
+        <v>35</v>
+      </c>
+      <c r="J92">
         <v>34</v>
       </c>
-      <c r="K88">
+      <c r="K92">
         <f t="shared" si="7"/>
         <v>0.91891891891891897</v>
       </c>
-      <c r="L88" t="s">
+      <c r="L92" t="s">
         <v>137</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M92" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>4</v>
       </c>
-      <c r="B89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89">
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93">
         <v>253</v>
       </c>
-      <c r="D89">
+      <c r="D93">
         <v>37</v>
       </c>
-      <c r="E89">
+      <c r="E93">
         <v>216</v>
       </c>
-      <c r="F89">
-        <v>2</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" t="s">
         <v>138</v>
       </c>
-      <c r="H89">
-        <v>35</v>
-      </c>
-      <c r="I89" t="s">
-        <v>35</v>
-      </c>
-      <c r="J89">
-        <v>35</v>
-      </c>
-      <c r="K89">
+      <c r="H93">
+        <v>35</v>
+      </c>
+      <c r="I93" t="s">
+        <v>35</v>
+      </c>
+      <c r="J93">
+        <v>35</v>
+      </c>
+      <c r="K93">
         <f t="shared" si="7"/>
         <v>0.94594594594594594</v>
       </c>
-      <c r="L89" t="s">
+      <c r="L93" t="s">
         <v>137</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M93" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>5</v>
       </c>
-      <c r="B90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90">
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94">
         <v>241</v>
       </c>
-      <c r="D90">
+      <c r="D94">
         <v>36</v>
       </c>
-      <c r="E90">
-        <f>C90-D90</f>
+      <c r="E94">
+        <f>C94-D94</f>
         <v>205</v>
       </c>
-      <c r="F90">
-        <v>2</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94" t="s">
         <v>139</v>
       </c>
-      <c r="H90">
-        <v>35</v>
-      </c>
-      <c r="I90" t="s">
-        <v>35</v>
-      </c>
-      <c r="J90">
+      <c r="H94">
+        <v>35</v>
+      </c>
+      <c r="I94" t="s">
+        <v>35</v>
+      </c>
+      <c r="J94">
         <v>32</v>
       </c>
-      <c r="K90">
+      <c r="K94">
         <f t="shared" si="7"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="L90" t="s">
+      <c r="L94" t="s">
         <v>140</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M94" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>6</v>
       </c>
-      <c r="B91" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91">
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95">
         <v>241</v>
       </c>
-      <c r="D91">
+      <c r="D95">
         <v>36</v>
       </c>
-      <c r="E91">
-        <f>C91-D91</f>
+      <c r="E95">
+        <f>C95-D95</f>
         <v>205</v>
       </c>
-      <c r="F91">
-        <v>2</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95" t="s">
         <v>139</v>
       </c>
-      <c r="H91">
-        <v>35</v>
-      </c>
-      <c r="I91" t="s">
-        <v>35</v>
-      </c>
-      <c r="J91">
+      <c r="H95">
+        <v>35</v>
+      </c>
+      <c r="I95" t="s">
+        <v>35</v>
+      </c>
+      <c r="J95">
         <v>32</v>
       </c>
-      <c r="K91">
+      <c r="K95">
         <f t="shared" si="7"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="L91" t="s">
+      <c r="L95" t="s">
         <v>140</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M95" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>7</v>
       </c>
-      <c r="B92" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92">
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96">
         <v>609</v>
       </c>
-      <c r="D92">
+      <c r="D96">
         <v>91</v>
       </c>
-      <c r="E92">
-        <f>C92-D92</f>
+      <c r="E96">
+        <f>C96-D96</f>
         <v>518</v>
       </c>
-      <c r="F92">
+      <c r="F96">
         <v>5</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G96" t="s">
         <v>104</v>
       </c>
-      <c r="H92">
-        <v>35</v>
-      </c>
-      <c r="I92" t="s">
-        <v>35</v>
-      </c>
-      <c r="J92">
+      <c r="H96">
+        <v>35</v>
+      </c>
+      <c r="I96" t="s">
+        <v>35</v>
+      </c>
+      <c r="J96">
         <v>85</v>
       </c>
-      <c r="K92">
+      <c r="K96">
         <f t="shared" si="7"/>
         <v>0.93406593406593408</v>
       </c>
-      <c r="L92" t="s">
+      <c r="L96" t="s">
         <v>49</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M96" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>8</v>
       </c>
-      <c r="B93" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93">
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97">
         <v>517</v>
       </c>
-      <c r="D93">
+      <c r="D97">
         <v>77</v>
       </c>
-      <c r="E93">
-        <f>C93-D93</f>
+      <c r="E97">
+        <f>C97-D97</f>
         <v>440</v>
       </c>
-      <c r="F93">
+      <c r="F97">
         <v>5</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G97" t="s">
         <v>104</v>
       </c>
-      <c r="H93">
-        <v>35</v>
-      </c>
-      <c r="I93" t="s">
-        <v>35</v>
-      </c>
-      <c r="J93">
+      <c r="H97">
+        <v>35</v>
+      </c>
+      <c r="I97" t="s">
+        <v>35</v>
+      </c>
+      <c r="J97">
         <v>45</v>
       </c>
-      <c r="K93">
+      <c r="K97">
         <f t="shared" si="7"/>
         <v>0.58441558441558439</v>
       </c>
-      <c r="L93" t="s">
+      <c r="L97" t="s">
         <v>48</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M97" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I98" t="s">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
         <v>142</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J102" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="A84:N84"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="A88:N88"/>
+    <mergeCell ref="A22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7427,12 +7622,845 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1189</v>
+      </c>
+      <c r="D3">
+        <v>237</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3" si="0">C3-D3</f>
+        <v>952</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>167</v>
+      </c>
+      <c r="J3">
+        <f>I3/D3</f>
+        <v>0.70464135021097052</v>
+      </c>
+      <c r="K3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>214</v>
+      </c>
+      <c r="D4">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <f>C4-D4</f>
+        <v>172</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <f>I4/D4</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>294</v>
+      </c>
+      <c r="D5">
+        <v>58</v>
+      </c>
+      <c r="E5">
+        <f>C5-D5</f>
+        <v>236</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>58</v>
+      </c>
+      <c r="J5">
+        <f>I5/D5</f>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>541</v>
+      </c>
+      <c r="D6">
+        <v>108</v>
+      </c>
+      <c r="E6">
+        <f>C6-D6</f>
+        <v>433</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6">
+        <v>99</v>
+      </c>
+      <c r="J6">
+        <f>I6/D6</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="K6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>535</v>
+      </c>
+      <c r="D7">
+        <v>107</v>
+      </c>
+      <c r="E7">
+        <f>C7-D7</f>
+        <v>428</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>102</v>
+      </c>
+      <c r="J7">
+        <f>I7/D7</f>
+        <v>0.95327102803738317</v>
+      </c>
+      <c r="K7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>214</v>
+      </c>
+      <c r="D11">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <f>C11-D11</f>
+        <v>172</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>37</v>
+      </c>
+      <c r="J11">
+        <f>I11/D11</f>
+        <v>0.88095238095238093</v>
+      </c>
+      <c r="K11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1189</v>
+      </c>
+      <c r="D12">
+        <v>237</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12" si="1">C12-D12</f>
+        <v>952</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>172</v>
+      </c>
+      <c r="J12">
+        <f>I12/D12</f>
+        <v>0.72573839662447259</v>
+      </c>
+      <c r="K12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>294</v>
+      </c>
+      <c r="D13">
+        <v>58</v>
+      </c>
+      <c r="E13">
+        <f>C13-D13</f>
+        <v>236</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>58</v>
+      </c>
+      <c r="J13">
+        <f>I13/D13</f>
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>541</v>
+      </c>
+      <c r="D14">
+        <v>108</v>
+      </c>
+      <c r="E14">
+        <f>C14-D14</f>
+        <v>433</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14">
+        <v>96</v>
+      </c>
+      <c r="J14">
+        <f>I14/D14</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>535</v>
+      </c>
+      <c r="D15">
+        <v>107</v>
+      </c>
+      <c r="E15">
+        <f>C15-D15</f>
+        <v>428</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15">
+        <v>101</v>
+      </c>
+      <c r="J15">
+        <f>I15/D15</f>
+        <v>0.94392523364485981</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>294</v>
+      </c>
+      <c r="D21">
+        <v>58</v>
+      </c>
+      <c r="E21">
+        <f>C21-D21</f>
+        <v>236</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21">
+        <v>51</v>
+      </c>
+      <c r="K21">
+        <f>J21/D21</f>
+        <v>0.87931034482758619</v>
+      </c>
+      <c r="L21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>294</v>
+      </c>
+      <c r="D22">
+        <v>58</v>
+      </c>
+      <c r="E22">
+        <v>236</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22">
+        <v>53</v>
+      </c>
+      <c r="K22">
+        <f>J22/D22</f>
+        <v>0.91379310344827591</v>
+      </c>
+      <c r="L22" t="s">
+        <v>146</v>
+      </c>
+      <c r="M22" t="s">
+        <v>151</v>
+      </c>
+      <c r="N22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>294</v>
+      </c>
+      <c r="D23">
+        <v>58</v>
+      </c>
+      <c r="E23">
+        <v>236</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23">
+        <v>52</v>
+      </c>
+      <c r="K23">
+        <f>J23/D23</f>
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="L23" t="s">
+        <v>146</v>
+      </c>
+      <c r="M23" t="s">
+        <v>151</v>
+      </c>
+      <c r="N23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>294</v>
+      </c>
+      <c r="D24">
+        <v>58</v>
+      </c>
+      <c r="E24">
+        <v>236</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24">
+        <v>53</v>
+      </c>
+      <c r="K24">
+        <f>J24/D24</f>
+        <v>0.91379310344827591</v>
+      </c>
+      <c r="L24" t="s">
+        <v>146</v>
+      </c>
+      <c r="N24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>535</v>
+      </c>
+      <c r="D25">
+        <v>107</v>
+      </c>
+      <c r="E25">
+        <f>C25-D25</f>
+        <v>428</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25">
+        <v>93</v>
+      </c>
+      <c r="K25">
+        <f>J25/D25</f>
+        <v>0.86915887850467288</v>
+      </c>
+      <c r="L25" t="s">
+        <v>149</v>
+      </c>
+      <c r="M25" t="s">
+        <v>151</v>
+      </c>
+      <c r="N25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>535</v>
+      </c>
+      <c r="D26">
+        <v>107</v>
+      </c>
+      <c r="E26">
+        <f>C26-D26</f>
+        <v>428</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26">
+        <v>94</v>
+      </c>
+      <c r="K26">
+        <f>J26/D26</f>
+        <v>0.87850467289719625</v>
+      </c>
+      <c r="L26" t="s">
+        <v>149</v>
+      </c>
+      <c r="N26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A19:O19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/csv/results.xlsx
+++ b/csv/results.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10275" activeTab="2"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10275" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Bevor Datenvermehrung" sheetId="1" r:id="rId1"/>
+    <sheet name="Nach Datenvermehrung" sheetId="2" r:id="rId2"/>
+    <sheet name="Nach 3.Sem" sheetId="3" r:id="rId3"/>
+    <sheet name="Nach Substring Remove" sheetId="4" r:id="rId4"/>
+    <sheet name="Nach nbsp remove" sheetId="5" r:id="rId5"/>
+    <sheet name="Nach shortDocs remove" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="185">
   <si>
     <t>case</t>
   </si>
@@ -472,13 +476,112 @@
   </si>
   <si>
     <t>addtional stopword list</t>
+  </si>
+  <si>
+    <t>k = N^0.5 (N = numb of train data)</t>
+  </si>
+  <si>
+    <t>5 weniger als bei k = n^0.5</t>
+  </si>
+  <si>
+    <t>second 10 categories</t>
+  </si>
+  <si>
+    <t>books &amp; us news</t>
+  </si>
+  <si>
+    <t>world &amp; football &amp; fashion&amp; technology</t>
+  </si>
+  <si>
+    <t>all cats</t>
+  </si>
+  <si>
+    <t>culture &amp; world &amp;science&amp; sport</t>
+  </si>
+  <si>
+    <t>politics &amp; business</t>
+  </si>
+  <si>
+    <t>sport &amp;football</t>
+  </si>
+  <si>
+    <t>sport &amp; football &amp; fashion &amp; lifestyle</t>
+  </si>
+  <si>
+    <t>Zahlen NICHT removed!!</t>
+  </si>
+  <si>
+    <t>zahlen remove keine besserung</t>
+  </si>
+  <si>
+    <t>0.57031573179146</t>
+  </si>
+  <si>
+    <t>world &amp; football</t>
+  </si>
+  <si>
+    <t>highest similarity of fps</t>
+  </si>
+  <si>
+    <t>0.69024023136555</t>
+  </si>
+  <si>
+    <t>one after another/stop word reduction or number reduction does not better</t>
+  </si>
+  <si>
+    <t>0.58638030788492</t>
+  </si>
+  <si>
+    <t>0.7494951132178</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0.67977272628501 tech &amp; fashion</t>
+  </si>
+  <si>
+    <t>0.75051784451835</t>
+  </si>
+  <si>
+    <t>politics &amp; world news</t>
+  </si>
+  <si>
+    <t>thres = trainNumb*0.4</t>
+  </si>
+  <si>
+    <t>thres = trainNumb*0.75</t>
+  </si>
+  <si>
+    <t>thres = trainNumb*0.5</t>
+  </si>
+  <si>
+    <t>thres = trainNumb*0.2</t>
+  </si>
+  <si>
+    <t>thres = trainNumb*0.3</t>
+  </si>
+  <si>
+    <t>thres = trainNumb*0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> first 10 cats</t>
+  </si>
+  <si>
+    <t>second 10 cats</t>
+  </si>
+  <si>
+    <t>thres = trainNumb*0.6</t>
+  </si>
+  <si>
+    <t>travel &amp; science</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +595,26 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -501,7 +624,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -598,11 +721,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -620,6 +771,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,6 +798,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -941,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -957,19 +1121,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2037,19 +2201,19 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="9"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -2372,19 +2536,19 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="9"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="18"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -2581,19 +2745,19 @@
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="9"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="18"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -2884,19 +3048,19 @@
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="9"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="18"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -3140,19 +3304,19 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="9"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="18"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -3297,19 +3461,19 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="9"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="18"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -3380,19 +3544,19 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="9"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="18"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -3463,19 +3627,19 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="9"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="18"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -4005,8 +4169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="H61" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView topLeftCell="I67" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4021,21 +4185,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="12"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4777,21 +4941,21 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="12"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -4944,21 +5108,21 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="12"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -5760,22 +5924,22 @@
     </row>
     <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="12"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="21"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -7196,22 +7360,22 @@
       <c r="G87" s="6"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="12"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="21"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -7624,8 +7788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="J13" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7642,21 +7806,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="12"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -7890,21 +8054,21 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -8135,23 +8299,23 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="12"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="21"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -8233,7 +8397,7 @@
         <v>51</v>
       </c>
       <c r="K21">
-        <f>J21/D21</f>
+        <f t="shared" ref="K21:K26" si="2">J21/D21</f>
         <v>0.87931034482758619</v>
       </c>
       <c r="L21" t="s">
@@ -8272,7 +8436,7 @@
         <v>53</v>
       </c>
       <c r="K22">
-        <f>J22/D22</f>
+        <f t="shared" si="2"/>
         <v>0.91379310344827591</v>
       </c>
       <c r="L22" t="s">
@@ -8317,7 +8481,7 @@
         <v>52</v>
       </c>
       <c r="K23">
-        <f>J23/D23</f>
+        <f t="shared" si="2"/>
         <v>0.89655172413793105</v>
       </c>
       <c r="L23" t="s">
@@ -8362,7 +8526,7 @@
         <v>53</v>
       </c>
       <c r="K24">
-        <f>J24/D24</f>
+        <f t="shared" si="2"/>
         <v>0.91379310344827591</v>
       </c>
       <c r="L24" t="s">
@@ -8402,7 +8566,7 @@
         <v>93</v>
       </c>
       <c r="K25">
-        <f>J25/D25</f>
+        <f t="shared" si="2"/>
         <v>0.86915887850467288</v>
       </c>
       <c r="L25" t="s">
@@ -8445,7 +8609,7 @@
         <v>94</v>
       </c>
       <c r="K26">
-        <f>J26/D26</f>
+        <f t="shared" si="2"/>
         <v>0.87850467289719625</v>
       </c>
       <c r="L26" t="s">
@@ -8463,4 +8627,4057 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>535</v>
+      </c>
+      <c r="D3">
+        <v>107</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="0">C3-D3</f>
+        <v>428</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>103</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J13" si="1">I3/D3</f>
+        <v>0.96261682242990654</v>
+      </c>
+      <c r="K3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1189</v>
+      </c>
+      <c r="D4">
+        <v>237</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>952</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>169</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0.71308016877637126</v>
+      </c>
+      <c r="K4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1189</v>
+      </c>
+      <c r="D5">
+        <v>237</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>952</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>165</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.69620253164556967</v>
+      </c>
+      <c r="K5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1189</v>
+      </c>
+      <c r="D6">
+        <v>237</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>952</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6">
+        <v>165</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.69620253164556967</v>
+      </c>
+      <c r="K6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1189</v>
+      </c>
+      <c r="D7">
+        <v>237</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>952</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>165</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.69620253164556967</v>
+      </c>
+      <c r="K7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1189</v>
+      </c>
+      <c r="D8">
+        <v>237</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>952</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>165</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.69620253164556967</v>
+      </c>
+      <c r="K8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1189</v>
+      </c>
+      <c r="D9">
+        <v>237</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>952</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9">
+        <v>169</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.71308016877637126</v>
+      </c>
+      <c r="K9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1189</v>
+      </c>
+      <c r="D10">
+        <v>237</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>952</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <v>168</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.70886075949367089</v>
+      </c>
+      <c r="K10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1126</v>
+      </c>
+      <c r="D11">
+        <v>225</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>901</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <v>191</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.84888888888888892</v>
+      </c>
+      <c r="K11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>207</v>
+      </c>
+      <c r="D12">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>38</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.92682926829268297</v>
+      </c>
+      <c r="K12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>494</v>
+      </c>
+      <c r="D13">
+        <v>98</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>93</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.94897959183673475</v>
+      </c>
+      <c r="K13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1189</v>
+      </c>
+      <c r="D18">
+        <v>237</v>
+      </c>
+      <c r="E18">
+        <v>952</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18">
+        <v>175</v>
+      </c>
+      <c r="J18">
+        <f>I18/D18</f>
+        <v>0.73839662447257381</v>
+      </c>
+      <c r="K18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>535</v>
+      </c>
+      <c r="D28">
+        <v>107</v>
+      </c>
+      <c r="E28">
+        <f>C28-D28</f>
+        <v>428</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>35</v>
+      </c>
+      <c r="I28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28">
+        <v>92</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ref="K28" si="2">J28/D28</f>
+        <v>0.85981308411214952</v>
+      </c>
+      <c r="L28" t="s">
+        <v>149</v>
+      </c>
+      <c r="N28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A26:O26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1188</v>
+      </c>
+      <c r="D3">
+        <v>237</v>
+      </c>
+      <c r="E3">
+        <f>C3-D3</f>
+        <v>951</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>171</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="0">I3/D3</f>
+        <v>0.72151898734177211</v>
+      </c>
+      <c r="K3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2314</v>
+      </c>
+      <c r="D4">
+        <v>462</v>
+      </c>
+      <c r="E4">
+        <f>C4-D4</f>
+        <v>1852</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>335</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.72510822510822515</v>
+      </c>
+      <c r="K4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>440</v>
+      </c>
+      <c r="D5">
+        <v>88</v>
+      </c>
+      <c r="E5">
+        <f>C5-D5</f>
+        <v>352</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>85</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.96590909090909094</v>
+      </c>
+      <c r="K5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>242</v>
+      </c>
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <f>C6-D6</f>
+        <v>194</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="K6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>614</v>
+      </c>
+      <c r="D7">
+        <v>122</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E10" si="1">C7-D7</f>
+        <v>492</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>105</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.86065573770491799</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>574</v>
+      </c>
+      <c r="D8">
+        <v>114</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>98</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.85964912280701755</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>517</v>
+      </c>
+      <c r="D9">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>414</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9">
+        <v>80</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.77669902912621358</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>609</v>
+      </c>
+      <c r="D10">
+        <v>121</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>488</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <v>115</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.95041322314049592</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I70" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1175</v>
+      </c>
+      <c r="D3">
+        <v>235</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">C3-D3</f>
+        <v>940</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>170</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J15" si="1">I3/D3</f>
+        <v>0.72340425531914898</v>
+      </c>
+      <c r="K3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1121</v>
+      </c>
+      <c r="D4">
+        <v>224</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>897</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>186</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="1"/>
+        <v>0.8303571428571429</v>
+      </c>
+      <c r="K4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>612</v>
+      </c>
+      <c r="D5">
+        <v>122</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>563</v>
+      </c>
+      <c r="D6">
+        <v>112</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>451</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6">
+        <v>95</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>517</v>
+      </c>
+      <c r="D7">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>414</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>80</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.77669902912621358</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>604</v>
+      </c>
+      <c r="D8">
+        <v>120</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>484</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>118</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>291</v>
+      </c>
+      <c r="D9">
+        <v>58</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9">
+        <v>57</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.98275862068965514</v>
+      </c>
+      <c r="K9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>244</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <v>47</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>535</v>
+      </c>
+      <c r="D11">
+        <v>107</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>428</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.93457943925233644</v>
+      </c>
+      <c r="K11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>2295</v>
+      </c>
+      <c r="D12">
+        <v>459</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1836</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>321</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="1"/>
+        <v>0.69934640522875813</v>
+      </c>
+      <c r="K12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>2295</v>
+      </c>
+      <c r="D13">
+        <v>459</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1836</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>323</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="K13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>2295</v>
+      </c>
+      <c r="D14">
+        <v>459</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1836</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14">
+        <v>328</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="1"/>
+        <v>0.71459694989106759</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>2295</v>
+      </c>
+      <c r="D15">
+        <v>459</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1836</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15">
+        <v>329</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.71677559912854028</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>612</v>
+      </c>
+      <c r="D19">
+        <v>122</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E31" si="2">C19-D19</f>
+        <v>490</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>104</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J31" si="3">I19/D19</f>
+        <v>0.85245901639344257</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>563</v>
+      </c>
+      <c r="D20">
+        <v>112</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>451</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20">
+        <v>101</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0.9017857142857143</v>
+      </c>
+      <c r="K20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>517</v>
+      </c>
+      <c r="D21">
+        <v>103</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>414</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <v>80</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0.77669902912621358</v>
+      </c>
+      <c r="K21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>517</v>
+      </c>
+      <c r="D22">
+        <v>103</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>414</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22">
+        <v>83</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0.80582524271844658</v>
+      </c>
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>604</v>
+      </c>
+      <c r="D23">
+        <v>120</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>484</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <v>118</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="K23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>604</v>
+      </c>
+      <c r="D24">
+        <v>120</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>484</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24">
+        <v>118</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="K24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>534</v>
+      </c>
+      <c r="D25">
+        <v>106</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>428</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25">
+        <v>92</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>0.86792452830188682</v>
+      </c>
+      <c r="K25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>534</v>
+      </c>
+      <c r="D26">
+        <v>106</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>428</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26">
+        <v>93</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0.87735849056603776</v>
+      </c>
+      <c r="K26" t="s">
+        <v>161</v>
+      </c>
+      <c r="L26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>290</v>
+      </c>
+      <c r="D27">
+        <v>58</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27">
+        <v>58</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>244</v>
+      </c>
+      <c r="D28">
+        <v>48</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28">
+        <v>46</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="K28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>1174</v>
+      </c>
+      <c r="D29">
+        <v>234</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>940</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29">
+        <v>176</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="3"/>
+        <v>0.75213675213675213</v>
+      </c>
+      <c r="K29" t="s">
+        <v>144</v>
+      </c>
+      <c r="L29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>1121</v>
+      </c>
+      <c r="D30">
+        <v>224</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>897</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30">
+        <v>194</v>
+      </c>
+      <c r="J30" s="8">
+        <f t="shared" si="3"/>
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="K30" t="s">
+        <v>154</v>
+      </c>
+      <c r="L30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>2295</v>
+      </c>
+      <c r="D31">
+        <v>459</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>1836</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31">
+        <v>340</v>
+      </c>
+      <c r="J31" s="8">
+        <f t="shared" si="3"/>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="K31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="21"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>251</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37:E48" si="4">C37-D37</f>
+        <v>201</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>164</v>
+      </c>
+      <c r="H37">
+        <v>35</v>
+      </c>
+      <c r="I37" t="s">
+        <v>166</v>
+      </c>
+      <c r="J37">
+        <v>48</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ref="K37:K49" si="5">J37/D37</f>
+        <v>0.96</v>
+      </c>
+      <c r="L37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>234</v>
+      </c>
+      <c r="D38">
+        <v>46</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>188</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38">
+        <v>35</v>
+      </c>
+      <c r="I38" t="s">
+        <v>166</v>
+      </c>
+      <c r="J38">
+        <v>44</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="L38" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" t="s">
+        <v>101</v>
+      </c>
+      <c r="N38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>232</v>
+      </c>
+      <c r="D39">
+        <v>46</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>169</v>
+      </c>
+      <c r="H39">
+        <v>35</v>
+      </c>
+      <c r="I39" t="s">
+        <v>166</v>
+      </c>
+      <c r="J39">
+        <v>45</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="L39" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>244</v>
+      </c>
+      <c r="D40">
+        <v>48</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>196</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40">
+        <v>35</v>
+      </c>
+      <c r="I40" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40">
+        <v>41</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="L40" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>495</v>
+      </c>
+      <c r="D41">
+        <v>99</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>396</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41">
+        <v>35</v>
+      </c>
+      <c r="I41" t="s">
+        <v>166</v>
+      </c>
+      <c r="J41">
+        <v>87</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>0.87878787878787878</v>
+      </c>
+      <c r="L41" t="s">
+        <v>43</v>
+      </c>
+      <c r="M41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>485</v>
+      </c>
+      <c r="D42">
+        <v>97</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>388</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42">
+        <v>35</v>
+      </c>
+      <c r="I42" t="s">
+        <v>166</v>
+      </c>
+      <c r="J42">
+        <v>84</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>0.865979381443299</v>
+      </c>
+      <c r="L42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>611</v>
+      </c>
+      <c r="D43">
+        <v>122</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>489</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>35</v>
+      </c>
+      <c r="I43" t="s">
+        <v>166</v>
+      </c>
+      <c r="J43">
+        <v>87</v>
+      </c>
+      <c r="K43" s="12">
+        <f t="shared" si="5"/>
+        <v>0.71311475409836067</v>
+      </c>
+      <c r="L43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>563</v>
+      </c>
+      <c r="D44">
+        <v>112</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>451</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>35</v>
+      </c>
+      <c r="I44" t="s">
+        <v>166</v>
+      </c>
+      <c r="J44">
+        <v>77</v>
+      </c>
+      <c r="K44" s="12">
+        <f t="shared" si="5"/>
+        <v>0.6875</v>
+      </c>
+      <c r="L44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>517</v>
+      </c>
+      <c r="D45">
+        <v>103</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="4"/>
+        <v>414</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>35</v>
+      </c>
+      <c r="I45" t="s">
+        <v>166</v>
+      </c>
+      <c r="J45">
+        <v>60</v>
+      </c>
+      <c r="K45" s="12">
+        <f t="shared" si="5"/>
+        <v>0.58252427184466016</v>
+      </c>
+      <c r="L45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>604</v>
+      </c>
+      <c r="D46">
+        <v>120</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>484</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>35</v>
+      </c>
+      <c r="I46" t="s">
+        <v>166</v>
+      </c>
+      <c r="J46">
+        <v>108</v>
+      </c>
+      <c r="K46" s="13">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="L46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>220</v>
+      </c>
+      <c r="D47">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47">
+        <v>35</v>
+      </c>
+      <c r="I47" t="s">
+        <v>166</v>
+      </c>
+      <c r="J47">
+        <v>33</v>
+      </c>
+      <c r="K47" s="12">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="L47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>220</v>
+      </c>
+      <c r="D48">
+        <v>44</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" s="4">
+        <v>88</v>
+      </c>
+      <c r="I48" t="s">
+        <v>166</v>
+      </c>
+      <c r="J48">
+        <v>41</v>
+      </c>
+      <c r="K48" s="25">
+        <f t="shared" si="5"/>
+        <v>0.93181818181818177</v>
+      </c>
+      <c r="L48" t="s">
+        <v>174</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>563</v>
+      </c>
+      <c r="D49">
+        <v>112</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49:E71" si="6">C49-D49</f>
+        <v>451</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>225</v>
+      </c>
+      <c r="I49" t="s">
+        <v>166</v>
+      </c>
+      <c r="J49">
+        <v>82</v>
+      </c>
+      <c r="K49" s="13">
+        <f t="shared" si="5"/>
+        <v>0.7321428571428571</v>
+      </c>
+      <c r="L49" t="s">
+        <v>47</v>
+      </c>
+      <c r="M49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>563</v>
+      </c>
+      <c r="D50">
+        <v>112</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="6"/>
+        <v>451</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>338</v>
+      </c>
+      <c r="I50" t="s">
+        <v>166</v>
+      </c>
+      <c r="J50">
+        <v>79</v>
+      </c>
+      <c r="K50" s="13">
+        <f t="shared" ref="K50:K71" si="7">J50/D50</f>
+        <v>0.7053571428571429</v>
+      </c>
+      <c r="L50" t="s">
+        <v>47</v>
+      </c>
+      <c r="M50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>563</v>
+      </c>
+      <c r="D51" s="10">
+        <v>112</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="6"/>
+        <v>451</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="H51" s="4">
+        <v>180</v>
+      </c>
+      <c r="I51" t="s">
+        <v>166</v>
+      </c>
+      <c r="J51">
+        <v>90</v>
+      </c>
+      <c r="K51" s="14">
+        <f t="shared" si="7"/>
+        <v>0.8035714285714286</v>
+      </c>
+      <c r="L51" t="s">
+        <v>47</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>517</v>
+      </c>
+      <c r="D52" s="10">
+        <v>103</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="6"/>
+        <v>414</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>207</v>
+      </c>
+      <c r="I52" t="s">
+        <v>166</v>
+      </c>
+      <c r="J52">
+        <v>65</v>
+      </c>
+      <c r="K52" s="23">
+        <f t="shared" si="7"/>
+        <v>0.6310679611650486</v>
+      </c>
+      <c r="L52" t="s">
+        <v>48</v>
+      </c>
+      <c r="M52" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>611</v>
+      </c>
+      <c r="D53" s="10">
+        <v>122</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="6"/>
+        <v>489</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>244</v>
+      </c>
+      <c r="I53" t="s">
+        <v>166</v>
+      </c>
+      <c r="J53">
+        <v>92</v>
+      </c>
+      <c r="K53" s="13">
+        <f t="shared" si="7"/>
+        <v>0.75409836065573765</v>
+      </c>
+      <c r="L53" t="s">
+        <v>46</v>
+      </c>
+      <c r="M53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>611</v>
+      </c>
+      <c r="D54" s="10">
+        <v>122</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="6"/>
+        <v>489</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>195</v>
+      </c>
+      <c r="I54" t="s">
+        <v>166</v>
+      </c>
+      <c r="J54">
+        <v>94</v>
+      </c>
+      <c r="K54" s="13">
+        <f t="shared" si="7"/>
+        <v>0.77049180327868849</v>
+      </c>
+      <c r="L54" t="s">
+        <v>46</v>
+      </c>
+      <c r="M54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>611</v>
+      </c>
+      <c r="D55" s="10">
+        <v>122</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="6"/>
+        <v>489</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="H55" s="4">
+        <v>97</v>
+      </c>
+      <c r="I55" t="s">
+        <v>166</v>
+      </c>
+      <c r="J55">
+        <v>98</v>
+      </c>
+      <c r="K55" s="14">
+        <f t="shared" si="7"/>
+        <v>0.80327868852459017</v>
+      </c>
+      <c r="L55" t="s">
+        <v>46</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>604</v>
+      </c>
+      <c r="D56" s="10">
+        <v>120</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="6"/>
+        <v>484</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>242</v>
+      </c>
+      <c r="I56" t="s">
+        <v>166</v>
+      </c>
+      <c r="J56">
+        <v>105</v>
+      </c>
+      <c r="K56" s="15">
+        <f t="shared" si="7"/>
+        <v>0.875</v>
+      </c>
+      <c r="L56" t="s">
+        <v>49</v>
+      </c>
+      <c r="M56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>604</v>
+      </c>
+      <c r="D57" s="10">
+        <v>120</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="6"/>
+        <v>484</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>96</v>
+      </c>
+      <c r="I57" t="s">
+        <v>166</v>
+      </c>
+      <c r="J57">
+        <v>108</v>
+      </c>
+      <c r="K57" s="15">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="L57" t="s">
+        <v>49</v>
+      </c>
+      <c r="M57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>604</v>
+      </c>
+      <c r="D58" s="10">
+        <v>120</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="6"/>
+        <v>484</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="H58" s="4">
+        <v>145</v>
+      </c>
+      <c r="I58" t="s">
+        <v>166</v>
+      </c>
+      <c r="J58">
+        <v>111</v>
+      </c>
+      <c r="K58" s="22">
+        <f t="shared" si="7"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="L58" t="s">
+        <v>49</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>517</v>
+      </c>
+      <c r="D59" s="10">
+        <v>103</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="6"/>
+        <v>414</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="H59" s="4">
+        <v>144</v>
+      </c>
+      <c r="I59" t="s">
+        <v>166</v>
+      </c>
+      <c r="J59">
+        <v>68</v>
+      </c>
+      <c r="K59" s="22">
+        <f t="shared" si="7"/>
+        <v>0.66019417475728159</v>
+      </c>
+      <c r="L59" t="s">
+        <v>48</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>1174</v>
+      </c>
+      <c r="D60" s="7">
+        <v>234</v>
+      </c>
+      <c r="E60" s="7">
+        <f t="shared" si="6"/>
+        <v>940</v>
+      </c>
+      <c r="F60" s="7">
+        <v>10</v>
+      </c>
+      <c r="H60" s="7">
+        <v>470</v>
+      </c>
+      <c r="I60" t="s">
+        <v>166</v>
+      </c>
+      <c r="J60">
+        <v>127</v>
+      </c>
+      <c r="K60" s="15">
+        <f t="shared" si="7"/>
+        <v>0.54273504273504269</v>
+      </c>
+      <c r="L60" t="s">
+        <v>181</v>
+      </c>
+      <c r="M60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>1174</v>
+      </c>
+      <c r="D61" s="7">
+        <v>234</v>
+      </c>
+      <c r="E61" s="7">
+        <f t="shared" si="6"/>
+        <v>940</v>
+      </c>
+      <c r="F61" s="7">
+        <v>10</v>
+      </c>
+      <c r="H61" s="7">
+        <v>282</v>
+      </c>
+      <c r="I61" t="s">
+        <v>166</v>
+      </c>
+      <c r="J61">
+        <v>142</v>
+      </c>
+      <c r="K61" s="15">
+        <f t="shared" si="7"/>
+        <v>0.60683760683760679</v>
+      </c>
+      <c r="L61" t="s">
+        <v>181</v>
+      </c>
+      <c r="M61" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>26</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>1174</v>
+      </c>
+      <c r="D62" s="7">
+        <v>234</v>
+      </c>
+      <c r="E62" s="11">
+        <f t="shared" si="6"/>
+        <v>940</v>
+      </c>
+      <c r="F62" s="7">
+        <v>10</v>
+      </c>
+      <c r="H62" s="11">
+        <v>188</v>
+      </c>
+      <c r="I62" t="s">
+        <v>166</v>
+      </c>
+      <c r="J62">
+        <v>151</v>
+      </c>
+      <c r="K62" s="24">
+        <f t="shared" si="7"/>
+        <v>0.64529914529914534</v>
+      </c>
+      <c r="L62" t="s">
+        <v>181</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>1121</v>
+      </c>
+      <c r="D63" s="7">
+        <v>224</v>
+      </c>
+      <c r="E63" s="7">
+        <f t="shared" si="6"/>
+        <v>897</v>
+      </c>
+      <c r="F63" s="7">
+        <v>10</v>
+      </c>
+      <c r="H63" s="7">
+        <v>448</v>
+      </c>
+      <c r="I63" t="s">
+        <v>166</v>
+      </c>
+      <c r="J63">
+        <v>146</v>
+      </c>
+      <c r="K63" s="15">
+        <f t="shared" si="7"/>
+        <v>0.6517857142857143</v>
+      </c>
+      <c r="L63" t="s">
+        <v>182</v>
+      </c>
+      <c r="M63" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>1121</v>
+      </c>
+      <c r="D64" s="7">
+        <v>224</v>
+      </c>
+      <c r="E64" s="7">
+        <f t="shared" si="6"/>
+        <v>897</v>
+      </c>
+      <c r="F64" s="7">
+        <v>10</v>
+      </c>
+      <c r="H64" s="7">
+        <v>269</v>
+      </c>
+      <c r="I64" t="s">
+        <v>166</v>
+      </c>
+      <c r="J64">
+        <v>164</v>
+      </c>
+      <c r="K64" s="22">
+        <f t="shared" si="7"/>
+        <v>0.7321428571428571</v>
+      </c>
+      <c r="L64" t="s">
+        <v>182</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>1121</v>
+      </c>
+      <c r="D65" s="7">
+        <v>224</v>
+      </c>
+      <c r="E65" s="7">
+        <f t="shared" si="6"/>
+        <v>897</v>
+      </c>
+      <c r="F65" s="7">
+        <v>10</v>
+      </c>
+      <c r="H65" s="7">
+        <v>179</v>
+      </c>
+      <c r="I65" t="s">
+        <v>166</v>
+      </c>
+      <c r="J65">
+        <v>163</v>
+      </c>
+      <c r="K65" s="15">
+        <f t="shared" si="7"/>
+        <v>0.7276785714285714</v>
+      </c>
+      <c r="L65" t="s">
+        <v>182</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>251</v>
+      </c>
+      <c r="D66" s="7">
+        <v>50</v>
+      </c>
+      <c r="E66" s="7">
+        <f t="shared" si="6"/>
+        <v>201</v>
+      </c>
+      <c r="F66" s="7">
+        <v>2</v>
+      </c>
+      <c r="H66" s="7">
+        <v>60</v>
+      </c>
+      <c r="I66" t="s">
+        <v>166</v>
+      </c>
+      <c r="J66">
+        <v>48</v>
+      </c>
+      <c r="K66" s="15">
+        <f t="shared" si="7"/>
+        <v>0.96</v>
+      </c>
+      <c r="L66" t="s">
+        <v>165</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>234</v>
+      </c>
+      <c r="D67" s="7">
+        <v>46</v>
+      </c>
+      <c r="E67" s="7">
+        <f t="shared" si="6"/>
+        <v>188</v>
+      </c>
+      <c r="F67" s="7">
+        <v>2</v>
+      </c>
+      <c r="H67" s="7">
+        <v>75</v>
+      </c>
+      <c r="I67" t="s">
+        <v>166</v>
+      </c>
+      <c r="J67">
+        <v>44</v>
+      </c>
+      <c r="K67" s="15">
+        <f t="shared" si="7"/>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="L67" t="s">
+        <v>40</v>
+      </c>
+      <c r="M67" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>32</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>234</v>
+      </c>
+      <c r="D68" s="7">
+        <v>46</v>
+      </c>
+      <c r="E68" s="7">
+        <f t="shared" si="6"/>
+        <v>188</v>
+      </c>
+      <c r="F68" s="7">
+        <v>2</v>
+      </c>
+      <c r="H68" s="7">
+        <v>94</v>
+      </c>
+      <c r="I68" t="s">
+        <v>166</v>
+      </c>
+      <c r="J68">
+        <v>44</v>
+      </c>
+      <c r="K68" s="15">
+        <f t="shared" si="7"/>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="L68" t="s">
+        <v>40</v>
+      </c>
+      <c r="M68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>232</v>
+      </c>
+      <c r="D69" s="7">
+        <v>46</v>
+      </c>
+      <c r="E69" s="7">
+        <f t="shared" si="6"/>
+        <v>186</v>
+      </c>
+      <c r="F69" s="7">
+        <v>2</v>
+      </c>
+      <c r="H69" s="7">
+        <v>37</v>
+      </c>
+      <c r="I69" t="s">
+        <v>166</v>
+      </c>
+      <c r="J69">
+        <v>46</v>
+      </c>
+      <c r="K69" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>41</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>244</v>
+      </c>
+      <c r="D70" s="7">
+        <v>48</v>
+      </c>
+      <c r="E70" s="7">
+        <f t="shared" si="6"/>
+        <v>196</v>
+      </c>
+      <c r="F70" s="7">
+        <v>2</v>
+      </c>
+      <c r="H70" s="7">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s">
+        <v>166</v>
+      </c>
+      <c r="J70">
+        <v>39</v>
+      </c>
+      <c r="K70" s="15">
+        <f t="shared" si="7"/>
+        <v>0.8125</v>
+      </c>
+      <c r="L70" t="s">
+        <v>42</v>
+      </c>
+      <c r="M70" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>244</v>
+      </c>
+      <c r="D71" s="7">
+        <v>48</v>
+      </c>
+      <c r="E71" s="7">
+        <f t="shared" si="6"/>
+        <v>196</v>
+      </c>
+      <c r="F71" s="7">
+        <v>2</v>
+      </c>
+      <c r="H71" s="7">
+        <v>58</v>
+      </c>
+      <c r="I71" t="s">
+        <v>166</v>
+      </c>
+      <c r="J71">
+        <v>41</v>
+      </c>
+      <c r="K71" s="15">
+        <f t="shared" si="7"/>
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="L71" t="s">
+        <v>42</v>
+      </c>
+      <c r="M71" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>244</v>
+      </c>
+      <c r="D72" s="7">
+        <v>48</v>
+      </c>
+      <c r="E72" s="7">
+        <f t="shared" ref="E72:E73" si="8">C72-D72</f>
+        <v>196</v>
+      </c>
+      <c r="F72" s="7">
+        <v>2</v>
+      </c>
+      <c r="H72" s="7">
+        <v>58</v>
+      </c>
+      <c r="I72" t="s">
+        <v>166</v>
+      </c>
+      <c r="J72">
+        <v>41</v>
+      </c>
+      <c r="K72" s="15">
+        <f t="shared" ref="K72:K73" si="9">J72/D72</f>
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="L72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M72" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>37</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>244</v>
+      </c>
+      <c r="D73" s="7">
+        <v>48</v>
+      </c>
+      <c r="E73" s="7">
+        <f t="shared" si="8"/>
+        <v>196</v>
+      </c>
+      <c r="F73" s="7">
+        <v>2</v>
+      </c>
+      <c r="H73" s="7">
+        <v>98</v>
+      </c>
+      <c r="I73" t="s">
+        <v>166</v>
+      </c>
+      <c r="J73">
+        <v>43</v>
+      </c>
+      <c r="K73" s="15">
+        <f t="shared" si="9"/>
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="L73" t="s">
+        <v>42</v>
+      </c>
+      <c r="M73" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>244</v>
+      </c>
+      <c r="D74" s="7">
+        <v>48</v>
+      </c>
+      <c r="E74" s="7">
+        <f t="shared" ref="E74:E79" si="10">C74-D74</f>
+        <v>196</v>
+      </c>
+      <c r="F74" s="7">
+        <v>2</v>
+      </c>
+      <c r="H74" s="7">
+        <v>117</v>
+      </c>
+      <c r="I74" t="s">
+        <v>166</v>
+      </c>
+      <c r="J74">
+        <v>43</v>
+      </c>
+      <c r="K74" s="15">
+        <f t="shared" ref="K74:K79" si="11">J74/D74</f>
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="L74" t="s">
+        <v>42</v>
+      </c>
+      <c r="M74" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>495</v>
+      </c>
+      <c r="D75" s="7">
+        <v>99</v>
+      </c>
+      <c r="E75" s="7">
+        <f t="shared" si="10"/>
+        <v>396</v>
+      </c>
+      <c r="F75" s="7">
+        <v>4</v>
+      </c>
+      <c r="H75" s="7">
+        <v>198</v>
+      </c>
+      <c r="I75" t="s">
+        <v>166</v>
+      </c>
+      <c r="J75">
+        <v>91</v>
+      </c>
+      <c r="K75" s="15">
+        <f t="shared" si="11"/>
+        <v>0.91919191919191923</v>
+      </c>
+      <c r="L75" t="s">
+        <v>43</v>
+      </c>
+      <c r="M75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>495</v>
+      </c>
+      <c r="D76" s="7">
+        <v>99</v>
+      </c>
+      <c r="E76" s="7">
+        <f t="shared" si="10"/>
+        <v>396</v>
+      </c>
+      <c r="F76" s="7">
+        <v>4</v>
+      </c>
+      <c r="H76" s="7">
+        <v>237</v>
+      </c>
+      <c r="I76" t="s">
+        <v>166</v>
+      </c>
+      <c r="J76">
+        <v>93</v>
+      </c>
+      <c r="K76" s="15">
+        <f t="shared" si="11"/>
+        <v>0.93939393939393945</v>
+      </c>
+      <c r="L76" t="s">
+        <v>43</v>
+      </c>
+      <c r="M76" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>41</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>485</v>
+      </c>
+      <c r="D77" s="7">
+        <v>97</v>
+      </c>
+      <c r="E77" s="7">
+        <f t="shared" si="10"/>
+        <v>388</v>
+      </c>
+      <c r="F77" s="7">
+        <v>4</v>
+      </c>
+      <c r="H77" s="7">
+        <v>194</v>
+      </c>
+      <c r="I77" t="s">
+        <v>166</v>
+      </c>
+      <c r="J77">
+        <v>86</v>
+      </c>
+      <c r="K77" s="15">
+        <f t="shared" si="11"/>
+        <v>0.88659793814432986</v>
+      </c>
+      <c r="L77" t="s">
+        <v>45</v>
+      </c>
+      <c r="M77" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>224</v>
+      </c>
+      <c r="D78" s="7">
+        <v>44</v>
+      </c>
+      <c r="E78" s="7">
+        <f t="shared" si="10"/>
+        <v>180</v>
+      </c>
+      <c r="F78" s="7">
+        <v>2</v>
+      </c>
+      <c r="H78" s="7">
+        <v>90</v>
+      </c>
+      <c r="I78" t="s">
+        <v>166</v>
+      </c>
+      <c r="J78">
+        <v>40</v>
+      </c>
+      <c r="K78" s="15">
+        <f t="shared" si="11"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="L78" t="s">
+        <v>184</v>
+      </c>
+      <c r="M78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>43</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>224</v>
+      </c>
+      <c r="D79" s="7">
+        <v>44</v>
+      </c>
+      <c r="E79" s="7">
+        <f t="shared" si="10"/>
+        <v>180</v>
+      </c>
+      <c r="F79" s="7">
+        <v>2</v>
+      </c>
+      <c r="H79" s="7">
+        <v>36</v>
+      </c>
+      <c r="I79" t="s">
+        <v>166</v>
+      </c>
+      <c r="J79">
+        <v>37</v>
+      </c>
+      <c r="K79" s="15">
+        <f t="shared" si="11"/>
+        <v>0.84090909090909094</v>
+      </c>
+      <c r="L79" t="s">
+        <v>184</v>
+      </c>
+      <c r="M79" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>44</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>224</v>
+      </c>
+      <c r="D80" s="7">
+        <v>44</v>
+      </c>
+      <c r="E80" s="7">
+        <f t="shared" ref="E80" si="12">C80-D80</f>
+        <v>180</v>
+      </c>
+      <c r="F80" s="7">
+        <v>2</v>
+      </c>
+      <c r="H80" s="7">
+        <v>108</v>
+      </c>
+      <c r="I80" t="s">
+        <v>166</v>
+      </c>
+      <c r="J80">
+        <v>42</v>
+      </c>
+      <c r="K80" s="15">
+        <f t="shared" ref="K80" si="13">J80/D80</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="L80" t="s">
+        <v>184</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A35:O35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/csv/results.xlsx
+++ b/csv/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10275" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10275" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Bevor Datenvermehrung" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Nach Substring Remove" sheetId="4" r:id="rId4"/>
     <sheet name="Nach nbsp remove" sheetId="5" r:id="rId5"/>
     <sheet name="Nach shortDocs remove" sheetId="6" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="189">
   <si>
     <t>case</t>
   </si>
@@ -575,6 +575,18 @@
   </si>
   <si>
     <t>travel &amp; science</t>
+  </si>
+  <si>
+    <t>0.8201840274144</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>XX</t>
   </si>
 </sst>
 </file>
@@ -624,7 +636,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -749,11 +761,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -772,14 +883,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -798,10 +929,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -814,6 +950,382 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-AT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sport &amp; uknews&amp; opinion &amp; society &amp; business</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$F$44:$N$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$43:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>71.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>politics &amp; worldnews&amp;lifstyle&amp;environment&amp;technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$50:$N$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>71.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.849999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tv/radio &amp; culture&amp;art/design&amp;film&amp;books</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$58:$N$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>62.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UsNews &amp; football&amp; fashion &amp; travel &amp; science</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$66:$N$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>89.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="210801408"/>
+        <c:axId val="210802944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="210801408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="210802944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="210802944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="210801408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1121,19 +1633,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2201,19 +2713,19 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="18"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -2536,19 +3048,19 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="18"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="38"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -2745,19 +3257,19 @@
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="18"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="38"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -3048,19 +3560,19 @@
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="18"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -3304,19 +3816,19 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="18"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="38"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -3461,19 +3973,19 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="18"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="38"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -3544,19 +4056,19 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="18"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="38"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -3627,19 +4139,19 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="18"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="38"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -4169,8 +4681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="I67" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView topLeftCell="E46" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4185,21 +4697,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4941,21 +5453,21 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -5108,21 +5620,21 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="21"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="41"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -5924,24 +6436,24 @@
     </row>
     <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="21"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="41"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -5985,7 +6497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -6017,11 +6529,11 @@
       <c r="J54">
         <v>47</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="29">
         <f t="shared" ref="K54:K71" si="4">J54/D54</f>
         <v>0.94</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M54" t="s">
@@ -6031,7 +6543,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -6077,7 +6589,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -6109,11 +6621,11 @@
       <c r="J56">
         <v>42</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="29">
         <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="30" t="s">
         <v>40</v>
       </c>
       <c r="M56" t="s">
@@ -6260,7 +6772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>7</v>
       </c>
@@ -6306,7 +6818,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>8</v>
       </c>
@@ -6338,11 +6850,11 @@
       <c r="J61">
         <v>82</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="29">
         <f t="shared" si="4"/>
         <v>0.82</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="30" t="s">
         <v>43</v>
       </c>
       <c r="M61" t="s">
@@ -6536,7 +7048,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>13</v>
       </c>
@@ -6582,7 +7094,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>14</v>
       </c>
@@ -6614,11 +7126,11 @@
       <c r="J67">
         <v>116</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="29">
         <f t="shared" si="4"/>
         <v>0.48945147679324896</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="30" t="s">
         <v>54</v>
       </c>
       <c r="M67" t="s">
@@ -6660,11 +7172,11 @@
       <c r="J68">
         <v>90</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="17">
         <f t="shared" si="4"/>
         <v>0.73770491803278693</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="18" t="s">
         <v>46</v>
       </c>
       <c r="M68" t="s">
@@ -6706,11 +7218,11 @@
       <c r="J69">
         <v>77</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="19">
         <f t="shared" si="4"/>
         <v>0.66956521739130437</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L69" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M69" t="s">
@@ -6749,11 +7261,11 @@
       <c r="J70">
         <v>56</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="19">
         <f t="shared" si="4"/>
         <v>0.5436893203883495</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L70" s="20" t="s">
         <v>48</v>
       </c>
       <c r="M70" t="s">
@@ -6763,7 +7275,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>10</v>
       </c>
@@ -6792,11 +7304,11 @@
       <c r="J71">
         <v>109</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="31">
         <f t="shared" si="4"/>
         <v>0.90082644628099173</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L71" s="24" t="s">
         <v>49</v>
       </c>
       <c r="M71" t="s">
@@ -6932,7 +7444,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>10</v>
       </c>
@@ -6972,7 +7484,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>10</v>
       </c>
@@ -7001,11 +7513,11 @@
       <c r="J76">
         <v>146</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="29">
         <f>J76/D76</f>
         <v>0.64888888888888885</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L76" s="30" t="s">
         <v>55</v>
       </c>
       <c r="M76" t="s">
@@ -7360,22 +7872,22 @@
       <c r="G87" s="6"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="21"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="41"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -7788,8 +8300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="J13" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7806,21 +8318,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -8054,21 +8566,21 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="41"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -8299,23 +8811,23 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="21"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -8633,7 +9145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -8653,21 +9165,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -9126,21 +9638,21 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="21"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -9222,23 +9734,23 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="21"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="41"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -9355,21 +9867,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -9719,10 +10231,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I70" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9731,30 +10243,29 @@
     <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9795,7 +10306,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9824,7 +10335,7 @@
       <c r="I3">
         <v>170</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="28">
         <f t="shared" ref="J3:J15" si="1">I3/D3</f>
         <v>0.72340425531914898</v>
       </c>
@@ -9832,7 +10343,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9861,10 +10372,7 @@
       <c r="I4">
         <v>186</v>
       </c>
-      <c r="J4" s="9">
-        <f t="shared" si="1"/>
-        <v>0.8303571428571429</v>
-      </c>
+      <c r="J4" s="25"/>
       <c r="K4" t="s">
         <v>154</v>
       </c>
@@ -9898,11 +10406,11 @@
       <c r="I5">
         <v>100</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="17">
         <f t="shared" si="1"/>
         <v>0.81967213114754101</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9935,11 +10443,11 @@
       <c r="I6">
         <v>95</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="19">
         <f t="shared" si="1"/>
         <v>0.8482142857142857</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="20" t="s">
         <v>47</v>
       </c>
     </row>
@@ -9972,15 +10480,15 @@
       <c r="I7">
         <v>80</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="19">
         <f t="shared" si="1"/>
         <v>0.77669902912621358</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10009,11 +10517,11 @@
       <c r="I8">
         <v>118</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="31">
         <f t="shared" si="1"/>
         <v>0.98333333333333328</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="24" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10157,7 +10665,7 @@
       <c r="I12">
         <v>321</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <f t="shared" si="1"/>
         <v>0.69934640522875813</v>
       </c>
@@ -10165,7 +10673,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10231,7 +10739,7 @@
       <c r="I14">
         <v>328</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="7">
         <f t="shared" si="1"/>
         <v>0.71459694989106759</v>
       </c>
@@ -10239,7 +10747,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10268,7 +10776,7 @@
       <c r="I15">
         <v>329</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="10">
         <f t="shared" si="1"/>
         <v>0.71677559912854028</v>
       </c>
@@ -10278,24 +10786,24 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="21"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="41"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -10365,15 +10873,15 @@
       <c r="I19">
         <v>104</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="17">
         <f t="shared" ref="J19:J31" si="3">I19/D19</f>
         <v>0.85245901639344257</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -10402,15 +10910,15 @@
       <c r="I20">
         <v>101</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="31">
         <f t="shared" si="3"/>
         <v>0.9017857142857143</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -10476,18 +10984,18 @@
       <c r="I22">
         <v>83</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="17">
         <f t="shared" si="3"/>
         <v>0.80582524271844658</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="18" t="s">
         <v>48</v>
       </c>
       <c r="L22" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -10516,11 +11024,11 @@
       <c r="I23">
         <v>118</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="31">
         <f t="shared" si="3"/>
         <v>0.98333333333333328</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="24" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10678,7 +11186,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10</v>
       </c>
@@ -10715,7 +11223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>11</v>
       </c>
@@ -10744,7 +11252,7 @@
       <c r="I29">
         <v>176</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="28">
         <f t="shared" si="3"/>
         <v>0.75213675213675213</v>
       </c>
@@ -10755,7 +11263,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>12</v>
       </c>
@@ -10784,7 +11292,7 @@
       <c r="I30">
         <v>194</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="10">
         <f t="shared" si="3"/>
         <v>0.8660714285714286</v>
       </c>
@@ -10795,7 +11303,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>13</v>
       </c>
@@ -10824,7 +11332,7 @@
       <c r="I31">
         <v>340</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="10">
         <f t="shared" si="3"/>
         <v>0.7407407407407407</v>
       </c>
@@ -10834,25 +11342,25 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="21"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="41"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -10919,7 +11427,7 @@
       <c r="F37">
         <v>2</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="25" t="s">
         <v>164</v>
       </c>
       <c r="H37">
@@ -10931,11 +11439,11 @@
       <c r="J37">
         <v>48</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="17">
         <f t="shared" ref="K37:K49" si="5">J37/D37</f>
         <v>0.96</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="18" t="s">
         <v>165</v>
       </c>
       <c r="M37" t="s">
@@ -10962,7 +11470,7 @@
       <c r="F38">
         <v>2</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="26" t="s">
         <v>167</v>
       </c>
       <c r="H38">
@@ -10974,11 +11482,11 @@
       <c r="J38">
         <v>44</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="35">
         <f t="shared" si="5"/>
         <v>0.95652173913043481</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="20" t="s">
         <v>40</v>
       </c>
       <c r="M38" t="s">
@@ -11008,7 +11516,7 @@
       <c r="F39">
         <v>2</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="26" t="s">
         <v>169</v>
       </c>
       <c r="H39">
@@ -11020,18 +11528,18 @@
       <c r="J39">
         <v>45</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="19">
         <f t="shared" si="5"/>
         <v>0.97826086956521741</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="20" t="s">
         <v>41</v>
       </c>
       <c r="M39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -11051,7 +11559,7 @@
       <c r="F40">
         <v>2</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="27" t="s">
         <v>170</v>
       </c>
       <c r="H40">
@@ -11063,18 +11571,18 @@
       <c r="J40">
         <v>41</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="19">
         <f t="shared" si="5"/>
         <v>0.85416666666666663</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="20" t="s">
         <v>42</v>
       </c>
       <c r="M40" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -11106,18 +11614,18 @@
       <c r="J41">
         <v>87</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="19">
         <f t="shared" si="5"/>
         <v>0.87878787878787878</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="20" t="s">
         <v>43</v>
       </c>
       <c r="M41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>6</v>
       </c>
@@ -11137,7 +11645,7 @@
       <c r="F42">
         <v>4</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="28" t="s">
         <v>172</v>
       </c>
       <c r="H42">
@@ -11149,11 +11657,11 @@
       <c r="J42">
         <v>84</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="19">
         <f t="shared" si="5"/>
         <v>0.865979381443299</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M42" t="s">
@@ -11189,11 +11697,11 @@
       <c r="J43">
         <v>87</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K43" s="21">
         <f t="shared" si="5"/>
         <v>0.71311475409836067</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="20" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11226,11 +11734,11 @@
       <c r="J44">
         <v>77</v>
       </c>
-      <c r="K44" s="12">
+      <c r="K44" s="21">
         <f t="shared" si="5"/>
         <v>0.6875</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="20" t="s">
         <v>47</v>
       </c>
     </row>
@@ -11263,15 +11771,15 @@
       <c r="J45">
         <v>60</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="21">
         <f t="shared" si="5"/>
         <v>0.58252427184466016</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>10</v>
       </c>
@@ -11300,15 +11808,15 @@
       <c r="J46">
         <v>108</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K46" s="22">
         <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>11</v>
       </c>
@@ -11328,7 +11836,7 @@
       <c r="F47">
         <v>2</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="28" t="s">
         <v>173</v>
       </c>
       <c r="H47">
@@ -11340,11 +11848,11 @@
       <c r="J47">
         <v>33</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="23">
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="24" t="s">
         <v>174</v>
       </c>
     </row>
@@ -11361,7 +11869,7 @@
       <c r="D48">
         <v>44</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="9">
         <f t="shared" si="4"/>
         <v>176</v>
       </c>
@@ -11371,7 +11879,7 @@
       <c r="G48" t="s">
         <v>173</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="9">
         <v>88</v>
       </c>
       <c r="I48" t="s">
@@ -11380,7 +11888,7 @@
       <c r="J48">
         <v>41</v>
       </c>
-      <c r="K48" s="25">
+      <c r="K48" s="33">
         <f t="shared" si="5"/>
         <v>0.93181818181818177</v>
       </c>
@@ -11404,14 +11912,14 @@
       <c r="D49">
         <v>112</v>
       </c>
-      <c r="E49">
-        <f t="shared" ref="E49:E71" si="6">C49-D49</f>
+      <c r="E49" s="9">
+        <f t="shared" ref="E49:E72" si="6">C49-D49</f>
         <v>451</v>
       </c>
       <c r="F49">
         <v>5</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="9">
         <v>225</v>
       </c>
       <c r="I49" t="s">
@@ -11420,7 +11928,7 @@
       <c r="J49">
         <v>82</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K49" s="11">
         <f t="shared" si="5"/>
         <v>0.7321428571428571</v>
       </c>
@@ -11444,14 +11952,14 @@
       <c r="D50">
         <v>112</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="9">
         <f t="shared" si="6"/>
         <v>451</v>
       </c>
       <c r="F50">
         <v>5</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="9">
         <v>338</v>
       </c>
       <c r="I50" t="s">
@@ -11460,8 +11968,8 @@
       <c r="J50">
         <v>79</v>
       </c>
-      <c r="K50" s="13">
-        <f t="shared" ref="K50:K71" si="7">J50/D50</f>
+      <c r="K50" s="11">
+        <f t="shared" ref="K50:K72" si="7">J50/D50</f>
         <v>0.7053571428571429</v>
       </c>
       <c r="L50" t="s">
@@ -11481,17 +11989,17 @@
       <c r="C51">
         <v>563</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>112</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="9">
         <f t="shared" si="6"/>
         <v>451</v>
       </c>
       <c r="F51">
         <v>5</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="9">
         <v>180</v>
       </c>
       <c r="I51" t="s">
@@ -11500,7 +12008,7 @@
       <c r="J51">
         <v>90</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51" s="32">
         <f t="shared" si="7"/>
         <v>0.8035714285714286</v>
       </c>
@@ -11521,17 +12029,17 @@
       <c r="C52">
         <v>517</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>103</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="9">
         <f t="shared" si="6"/>
         <v>414</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="9">
         <v>207</v>
       </c>
       <c r="I52" t="s">
@@ -11540,7 +12048,7 @@
       <c r="J52">
         <v>65</v>
       </c>
-      <c r="K52" s="23">
+      <c r="K52" s="14">
         <f t="shared" si="7"/>
         <v>0.6310679611650486</v>
       </c>
@@ -11561,17 +12069,17 @@
       <c r="C53">
         <v>611</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <v>122</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="9">
         <f t="shared" si="6"/>
         <v>489</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="9">
         <v>244</v>
       </c>
       <c r="I53" t="s">
@@ -11580,7 +12088,7 @@
       <c r="J53">
         <v>92</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K53" s="11">
         <f t="shared" si="7"/>
         <v>0.75409836065573765</v>
       </c>
@@ -11601,17 +12109,17 @@
       <c r="C54">
         <v>611</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>122</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="9">
         <f t="shared" si="6"/>
         <v>489</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="9">
         <v>195</v>
       </c>
       <c r="I54" t="s">
@@ -11620,7 +12128,7 @@
       <c r="J54">
         <v>94</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K54" s="11">
         <f t="shared" si="7"/>
         <v>0.77049180327868849</v>
       </c>
@@ -11632,8 +12140,8 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>19</v>
+      <c r="A55" t="s">
+        <v>188</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -11641,239 +12149,239 @@
       <c r="C55">
         <v>611</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="9">
         <v>122</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="9">
+        <f t="shared" ref="E55" si="8">C55-D55</f>
+        <v>489</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="H55" s="9">
+        <v>48</v>
+      </c>
+      <c r="I55" t="s">
+        <v>166</v>
+      </c>
+      <c r="J55">
+        <v>91</v>
+      </c>
+      <c r="K55" s="11">
+        <f t="shared" ref="K55" si="9">J55/D55</f>
+        <v>0.74590163934426235</v>
+      </c>
+      <c r="L55" t="s">
+        <v>46</v>
+      </c>
+      <c r="M55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>611</v>
+      </c>
+      <c r="D56" s="9">
+        <v>122</v>
+      </c>
+      <c r="E56" s="9">
         <f t="shared" si="6"/>
         <v>489</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <v>5</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H56" s="9">
         <v>97</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I56" t="s">
         <v>166</v>
       </c>
-      <c r="J55">
+      <c r="J56">
         <v>98</v>
       </c>
-      <c r="K55" s="14">
+      <c r="K56" s="32">
         <f t="shared" si="7"/>
         <v>0.80327868852459017</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L56" t="s">
         <v>46</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="M56" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>20</v>
       </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56">
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
         <v>604</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D57" s="9">
         <v>120</v>
       </c>
-      <c r="E56">
+      <c r="E57" s="9">
         <f t="shared" si="6"/>
         <v>484</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <v>5</v>
       </c>
-      <c r="H56">
+      <c r="H57" s="9">
         <v>242</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I57" t="s">
         <v>166</v>
       </c>
-      <c r="J56">
+      <c r="J57">
         <v>105</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K57" s="12">
         <f t="shared" si="7"/>
         <v>0.875</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L57" t="s">
         <v>49</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M57" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>21</v>
       </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57">
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58">
         <v>604</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D58" s="9">
         <v>120</v>
       </c>
-      <c r="E57">
+      <c r="E58" s="9">
         <f t="shared" si="6"/>
         <v>484</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>5</v>
       </c>
-      <c r="H57">
+      <c r="H58" s="9">
         <v>96</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I58" t="s">
         <v>166</v>
       </c>
-      <c r="J57">
+      <c r="J58">
         <v>108</v>
       </c>
-      <c r="K57" s="15">
+      <c r="K58" s="12">
         <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L58" t="s">
         <v>49</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M58" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>22</v>
       </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58">
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
         <v>604</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D59" s="9">
         <v>120</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E59" s="9">
         <f t="shared" si="6"/>
         <v>484</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <v>5</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H59" s="9">
         <v>145</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I59" t="s">
         <v>166</v>
       </c>
-      <c r="J58">
+      <c r="J59">
         <v>111</v>
       </c>
-      <c r="K58" s="22">
+      <c r="K59" s="34">
         <f t="shared" si="7"/>
         <v>0.92500000000000004</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L59" t="s">
         <v>49</v>
       </c>
-      <c r="M58" s="4" t="s">
+      <c r="M59" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>23</v>
       </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59">
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
         <v>517</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D60" s="9">
         <v>103</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="9">
         <f t="shared" si="6"/>
         <v>414</v>
       </c>
-      <c r="F59">
+      <c r="F60">
         <v>5</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H60" s="9">
         <v>144</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I60" t="s">
         <v>166</v>
       </c>
-      <c r="J59">
+      <c r="J60">
         <v>68</v>
       </c>
-      <c r="K59" s="22">
+      <c r="K60" s="34">
         <f t="shared" si="7"/>
         <v>0.66019417475728159</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L60" t="s">
         <v>48</v>
       </c>
-      <c r="M59" s="4" t="s">
+      <c r="M60" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>24</v>
-      </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60">
-        <v>1174</v>
-      </c>
-      <c r="D60" s="7">
-        <v>234</v>
-      </c>
-      <c r="E60" s="7">
-        <f t="shared" si="6"/>
-        <v>940</v>
-      </c>
-      <c r="F60" s="7">
-        <v>10</v>
-      </c>
-      <c r="H60" s="7">
-        <v>470</v>
-      </c>
-      <c r="I60" t="s">
-        <v>166</v>
-      </c>
-      <c r="J60">
-        <v>127</v>
-      </c>
-      <c r="K60" s="15">
-        <f t="shared" si="7"/>
-        <v>0.54273504273504269</v>
-      </c>
-      <c r="L60" t="s">
-        <v>181</v>
-      </c>
-      <c r="M60" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>25</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -11892,108 +12400,108 @@
         <v>10</v>
       </c>
       <c r="H61" s="7">
-        <v>282</v>
+        <v>470</v>
       </c>
       <c r="I61" t="s">
         <v>166</v>
       </c>
       <c r="J61">
+        <v>127</v>
+      </c>
+      <c r="K61" s="12">
+        <f t="shared" si="7"/>
+        <v>0.54273504273504269</v>
+      </c>
+      <c r="L61" t="s">
+        <v>181</v>
+      </c>
+      <c r="M61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>1174</v>
+      </c>
+      <c r="D62" s="7">
+        <v>234</v>
+      </c>
+      <c r="E62" s="7">
+        <f t="shared" si="6"/>
+        <v>940</v>
+      </c>
+      <c r="F62" s="7">
+        <v>10</v>
+      </c>
+      <c r="H62" s="7">
+        <v>282</v>
+      </c>
+      <c r="I62" t="s">
+        <v>166</v>
+      </c>
+      <c r="J62">
         <v>142</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K62" s="12">
         <f t="shared" si="7"/>
         <v>0.60683760683760679</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L62" t="s">
         <v>181</v>
       </c>
-      <c r="M61" s="10" t="s">
+      <c r="M62" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>26</v>
       </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62">
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63">
         <v>1174</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D63" s="7">
         <v>234</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="7">
         <f t="shared" si="6"/>
         <v>940</v>
       </c>
-      <c r="F62" s="7">
-        <v>10</v>
-      </c>
-      <c r="H62" s="11">
+      <c r="F63" s="7">
+        <v>10</v>
+      </c>
+      <c r="H63" s="7">
         <v>188</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I63" t="s">
         <v>166</v>
       </c>
-      <c r="J62">
+      <c r="J63">
         <v>151</v>
       </c>
-      <c r="K62" s="24">
+      <c r="K63" s="15">
         <f t="shared" si="7"/>
         <v>0.64529914529914534</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L63" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="M62" s="4" t="s">
+      <c r="M63" s="16" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>27</v>
-      </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63">
-        <v>1121</v>
-      </c>
-      <c r="D63" s="7">
-        <v>224</v>
-      </c>
-      <c r="E63" s="7">
-        <f t="shared" si="6"/>
-        <v>897</v>
-      </c>
-      <c r="F63" s="7">
-        <v>10</v>
-      </c>
-      <c r="H63" s="7">
-        <v>448</v>
-      </c>
-      <c r="I63" t="s">
-        <v>166</v>
-      </c>
-      <c r="J63">
-        <v>146</v>
-      </c>
-      <c r="K63" s="15">
-        <f t="shared" si="7"/>
-        <v>0.6517857142857143</v>
-      </c>
-      <c r="L63" t="s">
-        <v>182</v>
-      </c>
-      <c r="M63" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>28</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -12012,28 +12520,28 @@
         <v>10</v>
       </c>
       <c r="H64" s="7">
-        <v>269</v>
+        <v>448</v>
       </c>
       <c r="I64" t="s">
         <v>166</v>
       </c>
       <c r="J64">
-        <v>164</v>
-      </c>
-      <c r="K64" s="22">
+        <v>146</v>
+      </c>
+      <c r="K64" s="12">
         <f t="shared" si="7"/>
-        <v>0.7321428571428571</v>
+        <v>0.6517857142857143</v>
       </c>
       <c r="L64" t="s">
         <v>182</v>
       </c>
-      <c r="M64" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -12052,108 +12560,108 @@
         <v>10</v>
       </c>
       <c r="H65" s="7">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="I65" t="s">
         <v>166</v>
       </c>
       <c r="J65">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K65" s="15">
         <f t="shared" si="7"/>
-        <v>0.7276785714285714</v>
-      </c>
-      <c r="L65" t="s">
+        <v>0.7321428571428571</v>
+      </c>
+      <c r="L65" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="M65" s="10" t="s">
-        <v>178</v>
+      <c r="M65" s="16" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
       </c>
       <c r="C66">
-        <v>251</v>
+        <v>1121</v>
       </c>
       <c r="D66" s="7">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="E66" s="7">
         <f t="shared" si="6"/>
-        <v>201</v>
+        <v>897</v>
       </c>
       <c r="F66" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H66" s="7">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="I66" t="s">
         <v>166</v>
       </c>
       <c r="J66">
+        <v>163</v>
+      </c>
+      <c r="K66" s="12">
+        <f t="shared" si="7"/>
+        <v>0.7276785714285714</v>
+      </c>
+      <c r="L66" t="s">
+        <v>182</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>251</v>
+      </c>
+      <c r="D67" s="7">
+        <v>50</v>
+      </c>
+      <c r="E67" s="7">
+        <f t="shared" si="6"/>
+        <v>201</v>
+      </c>
+      <c r="F67" s="7">
+        <v>2</v>
+      </c>
+      <c r="H67" s="7">
+        <v>60</v>
+      </c>
+      <c r="I67" t="s">
+        <v>166</v>
+      </c>
+      <c r="J67">
         <v>48</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K67" s="12">
         <f t="shared" si="7"/>
         <v>0.96</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L67" t="s">
         <v>165</v>
       </c>
-      <c r="M66" s="4" t="s">
+      <c r="M67" s="4" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>31</v>
-      </c>
-      <c r="B67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67">
-        <v>234</v>
-      </c>
-      <c r="D67" s="7">
-        <v>46</v>
-      </c>
-      <c r="E67" s="7">
-        <f t="shared" si="6"/>
-        <v>188</v>
-      </c>
-      <c r="F67" s="7">
-        <v>2</v>
-      </c>
-      <c r="H67" s="7">
-        <v>75</v>
-      </c>
-      <c r="I67" t="s">
-        <v>166</v>
-      </c>
-      <c r="J67">
-        <v>44</v>
-      </c>
-      <c r="K67" s="15">
-        <f t="shared" si="7"/>
-        <v>0.95652173913043481</v>
-      </c>
-      <c r="L67" t="s">
-        <v>40</v>
-      </c>
-      <c r="M67" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -12172,7 +12680,7 @@
         <v>2</v>
       </c>
       <c r="H68" s="7">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="I68" t="s">
         <v>166</v>
@@ -12180,7 +12688,7 @@
       <c r="J68">
         <v>44</v>
       </c>
-      <c r="K68" s="15">
+      <c r="K68" s="12">
         <f t="shared" si="7"/>
         <v>0.95652173913043481</v>
       </c>
@@ -12188,92 +12696,92 @@
         <v>40</v>
       </c>
       <c r="M68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D69" s="7">
         <v>46</v>
       </c>
       <c r="E69" s="7">
         <f t="shared" si="6"/>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F69" s="7">
         <v>2</v>
       </c>
       <c r="H69" s="7">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="I69" t="s">
         <v>166</v>
       </c>
       <c r="J69">
+        <v>44</v>
+      </c>
+      <c r="K69" s="12">
+        <f t="shared" si="7"/>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="L69" t="s">
+        <v>40</v>
+      </c>
+      <c r="M69" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>232</v>
+      </c>
+      <c r="D70" s="7">
         <v>46</v>
       </c>
-      <c r="K69" s="15">
+      <c r="E70" s="7">
+        <f t="shared" si="6"/>
+        <v>186</v>
+      </c>
+      <c r="F70" s="7">
+        <v>2</v>
+      </c>
+      <c r="H70" s="7">
+        <v>37</v>
+      </c>
+      <c r="I70" t="s">
+        <v>166</v>
+      </c>
+      <c r="J70">
+        <v>46</v>
+      </c>
+      <c r="K70" s="12">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L70" t="s">
         <v>41</v>
       </c>
-      <c r="M69" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>34</v>
-      </c>
-      <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70">
-        <v>244</v>
-      </c>
-      <c r="D70" s="7">
-        <v>48</v>
-      </c>
-      <c r="E70" s="7">
-        <f t="shared" si="6"/>
-        <v>196</v>
-      </c>
-      <c r="F70" s="7">
-        <v>2</v>
-      </c>
-      <c r="H70" s="7">
-        <v>39</v>
-      </c>
-      <c r="I70" t="s">
-        <v>166</v>
-      </c>
-      <c r="J70">
-        <v>39</v>
-      </c>
-      <c r="K70" s="15">
-        <f t="shared" si="7"/>
-        <v>0.8125</v>
-      </c>
-      <c r="L70" t="s">
-        <v>42</v>
-      </c>
-      <c r="M70" s="10" t="s">
+      <c r="M70" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -12292,68 +12800,68 @@
         <v>2</v>
       </c>
       <c r="H71" s="7">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I71" t="s">
         <v>166</v>
       </c>
       <c r="J71">
+        <v>39</v>
+      </c>
+      <c r="K71" s="12">
+        <f t="shared" si="7"/>
+        <v>0.8125</v>
+      </c>
+      <c r="L71" t="s">
+        <v>42</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>35</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>244</v>
+      </c>
+      <c r="D72" s="7">
+        <v>48</v>
+      </c>
+      <c r="E72" s="7">
+        <f t="shared" si="6"/>
+        <v>196</v>
+      </c>
+      <c r="F72" s="7">
+        <v>2</v>
+      </c>
+      <c r="H72" s="7">
+        <v>58</v>
+      </c>
+      <c r="I72" t="s">
+        <v>166</v>
+      </c>
+      <c r="J72">
         <v>41</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K72" s="12">
         <f t="shared" si="7"/>
         <v>0.85416666666666663</v>
       </c>
-      <c r="L71" t="s">
-        <v>42</v>
-      </c>
-      <c r="M71" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>36</v>
-      </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72">
-        <v>244</v>
-      </c>
-      <c r="D72" s="7">
-        <v>48</v>
-      </c>
-      <c r="E72" s="7">
-        <f t="shared" ref="E72:E73" si="8">C72-D72</f>
-        <v>196</v>
-      </c>
-      <c r="F72" s="7">
-        <v>2</v>
-      </c>
-      <c r="H72" s="7">
-        <v>58</v>
-      </c>
-      <c r="I72" t="s">
-        <v>166</v>
-      </c>
-      <c r="J72">
-        <v>41</v>
-      </c>
-      <c r="K72" s="15">
-        <f t="shared" ref="K72:K73" si="9">J72/D72</f>
-        <v>0.85416666666666663</v>
-      </c>
       <c r="L72" t="s">
         <v>42</v>
       </c>
-      <c r="M72" s="10" t="s">
-        <v>175</v>
+      <c r="M72" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -12365,35 +12873,35 @@
         <v>48</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E73:E74" si="10">C73-D73</f>
         <v>196</v>
       </c>
       <c r="F73" s="7">
         <v>2</v>
       </c>
       <c r="H73" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="I73" t="s">
         <v>166</v>
       </c>
       <c r="J73">
-        <v>43</v>
-      </c>
-      <c r="K73" s="15">
-        <f t="shared" si="9"/>
-        <v>0.89583333333333337</v>
+        <v>41</v>
+      </c>
+      <c r="K73" s="12">
+        <f t="shared" ref="K73:K74" si="11">J73/D73</f>
+        <v>0.85416666666666663</v>
       </c>
       <c r="L73" t="s">
         <v>42</v>
       </c>
-      <c r="M73" t="s">
-        <v>177</v>
+      <c r="M73" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -12405,14 +12913,14 @@
         <v>48</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" ref="E74:E79" si="10">C74-D74</f>
+        <f t="shared" si="10"/>
         <v>196</v>
       </c>
       <c r="F74" s="7">
         <v>2</v>
       </c>
       <c r="H74" s="7">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="I74" t="s">
         <v>166</v>
@@ -12420,60 +12928,60 @@
       <c r="J74">
         <v>43</v>
       </c>
-      <c r="K74" s="15">
-        <f t="shared" ref="K74:K79" si="11">J74/D74</f>
+      <c r="K74" s="12">
+        <f t="shared" si="11"/>
         <v>0.89583333333333337</v>
       </c>
       <c r="L74" t="s">
         <v>42</v>
       </c>
       <c r="M74" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
       </c>
       <c r="C75">
-        <v>495</v>
+        <v>244</v>
       </c>
       <c r="D75" s="7">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="10"/>
-        <v>396</v>
+        <f t="shared" ref="E75:E80" si="12">C75-D75</f>
+        <v>196</v>
       </c>
       <c r="F75" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H75" s="7">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="I75" t="s">
         <v>166</v>
       </c>
       <c r="J75">
-        <v>91</v>
-      </c>
-      <c r="K75" s="15">
-        <f t="shared" si="11"/>
-        <v>0.91919191919191923</v>
+        <v>43</v>
+      </c>
+      <c r="K75" s="13">
+        <f t="shared" ref="K75:K80" si="13">J75/D75</f>
+        <v>0.89583333333333337</v>
       </c>
       <c r="L75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M75" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -12485,107 +12993,107 @@
         <v>99</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>396</v>
       </c>
       <c r="F76" s="7">
         <v>4</v>
       </c>
       <c r="H76" s="7">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="I76" t="s">
         <v>166</v>
       </c>
       <c r="J76">
-        <v>93</v>
-      </c>
-      <c r="K76" s="15">
-        <f t="shared" si="11"/>
-        <v>0.93939393939393945</v>
+        <v>91</v>
+      </c>
+      <c r="K76" s="12">
+        <f t="shared" si="13"/>
+        <v>0.91919191919191923</v>
       </c>
       <c r="L76" t="s">
         <v>43</v>
       </c>
       <c r="M76" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
       <c r="C77">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D77" s="7">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" si="10"/>
-        <v>388</v>
+        <f t="shared" si="12"/>
+        <v>396</v>
       </c>
       <c r="F77" s="7">
         <v>4</v>
       </c>
       <c r="H77" s="7">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="I77" t="s">
         <v>166</v>
       </c>
       <c r="J77">
-        <v>86</v>
-      </c>
-      <c r="K77" s="15">
-        <f t="shared" si="11"/>
-        <v>0.88659793814432986</v>
+        <v>93</v>
+      </c>
+      <c r="K77" s="13">
+        <f t="shared" si="13"/>
+        <v>0.93939393939393945</v>
       </c>
       <c r="L77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M77" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
       </c>
       <c r="C78">
-        <v>224</v>
+        <v>485</v>
       </c>
       <c r="D78" s="7">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="10"/>
-        <v>180</v>
+        <f t="shared" si="12"/>
+        <v>388</v>
       </c>
       <c r="F78" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H78" s="7">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="I78" t="s">
         <v>166</v>
       </c>
       <c r="J78">
-        <v>40</v>
-      </c>
-      <c r="K78" s="15">
-        <f t="shared" si="11"/>
-        <v>0.90909090909090906</v>
+        <v>86</v>
+      </c>
+      <c r="K78" s="12">
+        <f t="shared" si="13"/>
+        <v>0.88659793814432986</v>
       </c>
       <c r="L78" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="M78" t="s">
         <v>177</v>
@@ -12593,7 +13101,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -12605,35 +13113,35 @@
         <v>44</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="F79" s="7">
         <v>2</v>
       </c>
       <c r="H79" s="7">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="I79" t="s">
         <v>166</v>
       </c>
       <c r="J79">
-        <v>37</v>
-      </c>
-      <c r="K79" s="15">
-        <f t="shared" si="11"/>
-        <v>0.84090909090909094</v>
+        <v>40</v>
+      </c>
+      <c r="K79" s="12">
+        <f t="shared" si="13"/>
+        <v>0.90909090909090906</v>
       </c>
       <c r="L79" t="s">
         <v>184</v>
       </c>
-      <c r="M79" s="10" t="s">
-        <v>178</v>
+      <c r="M79" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -12645,30 +13153,156 @@
         <v>44</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" ref="E80" si="12">C80-D80</f>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="F80" s="7">
         <v>2</v>
       </c>
       <c r="H80" s="7">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="I80" t="s">
         <v>166</v>
       </c>
       <c r="J80">
-        <v>42</v>
-      </c>
-      <c r="K80" s="15">
-        <f t="shared" ref="K80" si="13">J80/D80</f>
-        <v>0.95454545454545459</v>
+        <v>37</v>
+      </c>
+      <c r="K80" s="12">
+        <f t="shared" si="13"/>
+        <v>0.84090909090909094</v>
       </c>
       <c r="L80" t="s">
         <v>184</v>
       </c>
-      <c r="M80" s="4" t="s">
+      <c r="M80" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>44</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>224</v>
+      </c>
+      <c r="D81" s="7">
+        <v>44</v>
+      </c>
+      <c r="E81" s="7">
+        <f t="shared" ref="E81:E83" si="14">C81-D81</f>
+        <v>180</v>
+      </c>
+      <c r="F81" s="7">
+        <v>2</v>
+      </c>
+      <c r="H81" s="7">
+        <v>108</v>
+      </c>
+      <c r="I81" t="s">
+        <v>166</v>
+      </c>
+      <c r="J81">
+        <v>42</v>
+      </c>
+      <c r="K81" s="13">
+        <f t="shared" ref="K81:K83" si="15">J81/D81</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="L81" t="s">
+        <v>184</v>
+      </c>
+      <c r="M81" s="4" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>290</v>
+      </c>
+      <c r="D82" s="7">
+        <v>58</v>
+      </c>
+      <c r="E82" s="7">
+        <f t="shared" si="14"/>
+        <v>232</v>
+      </c>
+      <c r="F82" s="7">
+        <v>2</v>
+      </c>
+      <c r="G82" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="H82" s="7">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>166</v>
+      </c>
+      <c r="J82">
+        <v>54</v>
+      </c>
+      <c r="K82" s="13">
+        <f t="shared" si="15"/>
+        <v>0.93103448275862066</v>
+      </c>
+      <c r="L82" t="s">
+        <v>146</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>46</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>290</v>
+      </c>
+      <c r="D83" s="7">
+        <v>58</v>
+      </c>
+      <c r="E83" s="7">
+        <f t="shared" si="14"/>
+        <v>232</v>
+      </c>
+      <c r="F83" s="7">
+        <v>2</v>
+      </c>
+      <c r="G83" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="H83" s="6">
+        <v>116</v>
+      </c>
+      <c r="I83" t="s">
+        <v>166</v>
+      </c>
+      <c r="J83">
+        <v>51</v>
+      </c>
+      <c r="K83" s="12">
+        <f t="shared" si="15"/>
+        <v>0.87931034482758619</v>
+      </c>
+      <c r="L83" t="s">
+        <v>146</v>
+      </c>
+      <c r="M83" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -12680,4 +13314,771 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E5:O69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E6" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F8" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E13" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13">
+        <v>69.64</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F15" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="44"/>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20">
+        <v>74.59</v>
+      </c>
+      <c r="G20">
+        <v>80.319999999999993</v>
+      </c>
+      <c r="H20">
+        <v>77.040000000000006</v>
+      </c>
+      <c r="I20">
+        <v>77.040000000000006</v>
+      </c>
+      <c r="J20">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="K20">
+        <v>77.040000000000006</v>
+      </c>
+      <c r="L20">
+        <v>64.75</v>
+      </c>
+      <c r="M20">
+        <v>68.03</v>
+      </c>
+      <c r="N20">
+        <v>54.91</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>48</v>
+      </c>
+      <c r="G21">
+        <v>97</v>
+      </c>
+      <c r="H21">
+        <v>146</v>
+      </c>
+      <c r="I21">
+        <v>195</v>
+      </c>
+      <c r="J21">
+        <v>244</v>
+      </c>
+      <c r="K21">
+        <v>293</v>
+      </c>
+      <c r="L21">
+        <v>342</v>
+      </c>
+      <c r="M21">
+        <v>391</v>
+      </c>
+      <c r="N21">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F22" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="38"/>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E42" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="44"/>
+    </row>
+    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E43" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43">
+        <v>71.31</v>
+      </c>
+      <c r="G43">
+        <v>77.040000000000006</v>
+      </c>
+      <c r="H43">
+        <v>77.86</v>
+      </c>
+      <c r="I43">
+        <v>77.86</v>
+      </c>
+      <c r="J43">
+        <v>77.86</v>
+      </c>
+      <c r="K43">
+        <v>76.22</v>
+      </c>
+      <c r="L43">
+        <v>76.22</v>
+      </c>
+      <c r="M43">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="N43">
+        <v>66.39</v>
+      </c>
+    </row>
+    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>40</v>
+      </c>
+      <c r="G44">
+        <v>80</v>
+      </c>
+      <c r="H44">
+        <v>120</v>
+      </c>
+      <c r="I44">
+        <v>160</v>
+      </c>
+      <c r="J44">
+        <v>200</v>
+      </c>
+      <c r="K44">
+        <v>240</v>
+      </c>
+      <c r="L44">
+        <v>280</v>
+      </c>
+      <c r="M44">
+        <v>320</v>
+      </c>
+      <c r="N44">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F45" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="38"/>
+    </row>
+    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>6</v>
+      </c>
+      <c r="L46">
+        <v>7</v>
+      </c>
+      <c r="M46">
+        <v>8</v>
+      </c>
+      <c r="N46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E49" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="38"/>
+    </row>
+    <row r="50" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E50" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50">
+        <v>71.42</v>
+      </c>
+      <c r="G50">
+        <v>75</v>
+      </c>
+      <c r="H50">
+        <v>70.53</v>
+      </c>
+      <c r="I50">
+        <v>75</v>
+      </c>
+      <c r="J50">
+        <v>75.89</v>
+      </c>
+      <c r="K50">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="L50">
+        <v>68.75</v>
+      </c>
+      <c r="M50">
+        <v>70.53</v>
+      </c>
+      <c r="N50">
+        <v>67.849999999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>40</v>
+      </c>
+      <c r="G51">
+        <v>80</v>
+      </c>
+      <c r="H51">
+        <v>120</v>
+      </c>
+      <c r="I51">
+        <v>160</v>
+      </c>
+      <c r="J51">
+        <v>200</v>
+      </c>
+      <c r="K51">
+        <v>240</v>
+      </c>
+      <c r="L51">
+        <v>280</v>
+      </c>
+      <c r="M51">
+        <v>320</v>
+      </c>
+      <c r="N51">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F52" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="38"/>
+    </row>
+    <row r="53" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>6</v>
+      </c>
+      <c r="L53">
+        <v>7</v>
+      </c>
+      <c r="M53">
+        <v>8</v>
+      </c>
+      <c r="N53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E57" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="38"/>
+    </row>
+    <row r="58" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E58" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58">
+        <v>62.13</v>
+      </c>
+      <c r="G58">
+        <v>66.010000000000005</v>
+      </c>
+      <c r="H58">
+        <v>65.040000000000006</v>
+      </c>
+      <c r="I58">
+        <v>66.010000000000005</v>
+      </c>
+      <c r="J58">
+        <v>64.069999999999993</v>
+      </c>
+      <c r="K58">
+        <v>47.57</v>
+      </c>
+      <c r="L58">
+        <v>55.33</v>
+      </c>
+      <c r="M58">
+        <v>49.51</v>
+      </c>
+      <c r="N58">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="59" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>40</v>
+      </c>
+      <c r="G59">
+        <v>80</v>
+      </c>
+      <c r="H59">
+        <v>120</v>
+      </c>
+      <c r="I59">
+        <v>160</v>
+      </c>
+      <c r="J59">
+        <v>200</v>
+      </c>
+      <c r="K59">
+        <v>240</v>
+      </c>
+      <c r="L59">
+        <v>280</v>
+      </c>
+      <c r="M59">
+        <v>320</v>
+      </c>
+      <c r="N59">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F60" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="38"/>
+    </row>
+    <row r="61" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+      <c r="K61">
+        <v>6</v>
+      </c>
+      <c r="L61">
+        <v>7</v>
+      </c>
+      <c r="M61">
+        <v>8</v>
+      </c>
+      <c r="N61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E65" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="38"/>
+    </row>
+    <row r="66" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E66" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66">
+        <v>89.17</v>
+      </c>
+      <c r="G66">
+        <v>93.34</v>
+      </c>
+      <c r="H66">
+        <v>88.34</v>
+      </c>
+      <c r="I66">
+        <v>94.17</v>
+      </c>
+      <c r="J66">
+        <v>89.17</v>
+      </c>
+      <c r="K66">
+        <v>88.34</v>
+      </c>
+      <c r="L66">
+        <v>90.84</v>
+      </c>
+      <c r="M66">
+        <v>94.17</v>
+      </c>
+      <c r="N66">
+        <v>93.34</v>
+      </c>
+    </row>
+    <row r="67" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>40</v>
+      </c>
+      <c r="G67">
+        <v>80</v>
+      </c>
+      <c r="H67">
+        <v>120</v>
+      </c>
+      <c r="I67">
+        <v>160</v>
+      </c>
+      <c r="J67">
+        <v>200</v>
+      </c>
+      <c r="K67">
+        <v>240</v>
+      </c>
+      <c r="L67">
+        <v>280</v>
+      </c>
+      <c r="M67">
+        <v>320</v>
+      </c>
+      <c r="N67">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F68" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="38"/>
+    </row>
+    <row r="69" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+      <c r="K69">
+        <v>6</v>
+      </c>
+      <c r="L69">
+        <v>7</v>
+      </c>
+      <c r="M69">
+        <v>8</v>
+      </c>
+      <c r="N69">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F60:O60"/>
+    <mergeCell ref="E65:O65"/>
+    <mergeCell ref="F68:O68"/>
+    <mergeCell ref="E42:O42"/>
+    <mergeCell ref="F45:O45"/>
+    <mergeCell ref="E49:O49"/>
+    <mergeCell ref="F52:O52"/>
+    <mergeCell ref="E57:O57"/>
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="F22:O22"/>
+    <mergeCell ref="E19:O19"/>
+    <mergeCell ref="E12:O12"/>
+    <mergeCell ref="E5:O5"/>
+    <mergeCell ref="F8:O8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/csv/results.xlsx
+++ b/csv/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10275" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10275" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Bevor Datenvermehrung" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,16 @@
     <sheet name="Nach Substring Remove" sheetId="4" r:id="rId4"/>
     <sheet name="Nach nbsp remove" sheetId="5" r:id="rId5"/>
     <sheet name="Nach shortDocs remove" sheetId="6" r:id="rId6"/>
-    <sheet name="Tabelle1" sheetId="7" r:id="rId7"/>
+    <sheet name="5er Kurve" sheetId="7" r:id="rId7"/>
+    <sheet name="2er Kurve" sheetId="8" r:id="rId8"/>
+    <sheet name="2er Kurve contex map aus DB" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="199">
   <si>
     <t>case</t>
   </si>
@@ -588,6 +590,36 @@
   <si>
     <t>XX</t>
   </si>
+  <si>
+    <t>world news &amp; politics</t>
+  </si>
+  <si>
+    <t>travel &amp; business</t>
+  </si>
+  <si>
+    <t>sport &amp; football OLD</t>
+  </si>
+  <si>
+    <t>film &amp; politics OLD</t>
+  </si>
+  <si>
+    <t>travel &amp; science OLD</t>
+  </si>
+  <si>
+    <t>fashion &amp; lifestyle OLD</t>
+  </si>
+  <si>
+    <t>travel &amp; business OLD</t>
+  </si>
+  <si>
+    <t>stimmt weil context map abgespeichert ist</t>
+  </si>
+  <si>
+    <t>Lösung finden …. Dh wenn die context map selbst ständig erstellt wird, kommen falsche werte bei  schnellerer berechnung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">werte stimmt  auch das problem liegt beim context map erstellen und dem trainvector der die tfidf values nixht mehr hat !! </t>
+  </si>
 </sst>
 </file>
 
@@ -636,7 +668,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -860,11 +892,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -938,6 +979,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -977,7 +1019,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$42</c:f>
+              <c:f>'5er Kurve'!$E$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -991,7 +1033,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$F$44:$N$44</c:f>
+              <c:f>'5er Kurve'!$F$44:$N$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1027,7 +1069,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$43:$N$43</c:f>
+              <c:f>'5er Kurve'!$F$43:$N$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1068,7 +1110,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$49</c:f>
+              <c:f>'5er Kurve'!$E$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1082,7 +1124,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$50:$N$50</c:f>
+              <c:f>'5er Kurve'!$F$50:$N$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1123,7 +1165,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$57</c:f>
+              <c:f>'5er Kurve'!$E$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1137,7 +1179,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$58:$N$58</c:f>
+              <c:f>'5er Kurve'!$F$58:$N$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1178,7 +1220,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$65</c:f>
+              <c:f>'5er Kurve'!$E$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1192,7 +1234,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$66:$N$66</c:f>
+              <c:f>'5er Kurve'!$F$66:$N$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1238,11 +1280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="210801408"/>
-        <c:axId val="210802944"/>
+        <c:axId val="184229888"/>
+        <c:axId val="184231424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210801408"/>
+        <c:axId val="184229888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210802944"/>
+        <c:crossAx val="184231424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1260,7 +1302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210802944"/>
+        <c:axId val="184231424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +1313,2681 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210801408"/>
+        <c:crossAx val="184229888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-AT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve'!$A$19:$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>travel &amp; business</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2er Kurve'!$B$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve'!$B$20:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>98.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve'!$A$9:$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fashion &amp; technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve'!$B$10:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>89.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.47</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.47</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve'!$A$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>world news &amp; politics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve'!$B$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>90.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve'!$A$27:$R$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fashion &amp; lifestyle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve'!$B$28:$R$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>79.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85.41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve'!$A$34:$R$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sport &amp; football</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve'!$B$35:$R$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>72.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve'!$A$43:$R$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>travel &amp; science</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve'!$B$44:$R$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>95.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90.91</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve'!$A$52:$R$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>film &amp; politics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve'!$B$53:$R$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>93.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="184277248"/>
+        <c:axId val="184614912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="184277248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184614912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="184614912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184277248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-AT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve contex map aus DB'!$A$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sport &amp; football</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$B$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$B$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>77.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve contex map aus DB'!$A$8:$R$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>film &amp; politics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$B$9:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93.47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve contex map aus DB'!$A$15:$R$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>travel &amp; science</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$B$16:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>95.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve contex map aus DB'!$A$21:$R$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fashion &amp; lifestyle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$B$22:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>79.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64.58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve contex map aus DB'!$A$27:$R$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>travel &amp; business</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$B$28:$R$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="184491008"/>
+        <c:axId val="184496896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="184491008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184496896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="184496896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184491008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-AT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve contex map aus DB'!$A$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sport &amp; football</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$B$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$B$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>77.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve contex map aus DB'!$T$1:$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sport &amp; football OLD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$U$2:$AK$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>72.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="184534144"/>
+        <c:axId val="184535680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="184534144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184535680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="184535680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184534144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-AT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve contex map aus DB'!$A$8:$R$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>film &amp; politics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$B$9:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93.47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve contex map aus DB'!$T$8:$AK$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>film &amp; politics OLD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$U$9:$AK$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>93.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="185218176"/>
+        <c:axId val="185219712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="185218176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="185219712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="185219712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="185218176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-AT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve contex map aus DB'!$A$15:$R$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>travel &amp; science</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$B$16:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>95.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve contex map aus DB'!$T$15:$AK$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>travel &amp; science OLD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$U$16:$AK$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>95.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90.91</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="185240576"/>
+        <c:axId val="185242368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="185240576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="185242368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="185242368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="185240576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-AT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve contex map aus DB'!$A$21:$R$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fashion &amp; lifestyle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$B$22:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>79.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64.58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve contex map aus DB'!$T$21:$AK$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fashion &amp; lifestyle OLD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$U$22:$AK$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>79.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85.41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="185266560"/>
+        <c:axId val="185268096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="185266560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="185268096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="185268096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="185266560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-AT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve contex map aus DB'!$A$27:$R$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>travel &amp; business</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$U$29:$AK$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$B$28:$R$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2er Kurve contex map aus DB'!$T$27:$AK$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>travel &amp; business OLD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$U$29:$AK$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2er Kurve contex map aus DB'!$U$28:$AK$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>98.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="184566528"/>
+        <c:axId val="184568064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="184566528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184568064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="184568064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184566528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1320,6 +4036,236 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4681,7 +7627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="E46" workbookViewId="0">
+    <sheetView topLeftCell="H82" workbookViewId="0">
       <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
@@ -8300,7 +11246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G16" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -10233,8 +13179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView topLeftCell="H40" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13318,10 +16264,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:O69"/>
+  <dimension ref="E5:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="Q72" sqref="Q72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14060,8 +17006,25 @@
         <v>9</v>
       </c>
     </row>
+    <row r="71" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="41"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="E72:O72"/>
     <mergeCell ref="F60:O60"/>
     <mergeCell ref="E65:O65"/>
     <mergeCell ref="F68:O68"/>
@@ -14081,4 +17044,3557 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="44"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="9">
+        <v>90.91</v>
+      </c>
+      <c r="C2">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="D2">
+        <v>61.36</v>
+      </c>
+      <c r="E2">
+        <v>61.36</v>
+      </c>
+      <c r="F2">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="G2">
+        <v>86.36</v>
+      </c>
+      <c r="H2">
+        <v>59.09</v>
+      </c>
+      <c r="I2">
+        <v>59.09</v>
+      </c>
+      <c r="J2">
+        <v>93.18</v>
+      </c>
+      <c r="K2">
+        <v>88.63</v>
+      </c>
+      <c r="L2">
+        <v>52.27</v>
+      </c>
+      <c r="M2">
+        <v>52.27</v>
+      </c>
+      <c r="N2">
+        <v>77.27</v>
+      </c>
+      <c r="O2">
+        <v>72.73</v>
+      </c>
+      <c r="P2">
+        <v>52.27</v>
+      </c>
+      <c r="Q2">
+        <v>52.27</v>
+      </c>
+      <c r="R2">
+        <v>63.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>70</v>
+      </c>
+      <c r="I3">
+        <v>80</v>
+      </c>
+      <c r="J3">
+        <v>90</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>110</v>
+      </c>
+      <c r="M3">
+        <v>120</v>
+      </c>
+      <c r="N3">
+        <v>130</v>
+      </c>
+      <c r="O3">
+        <v>140</v>
+      </c>
+      <c r="P3">
+        <v>150</v>
+      </c>
+      <c r="Q3">
+        <v>160</v>
+      </c>
+      <c r="R3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="38"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="44"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="9">
+        <v>89.13</v>
+      </c>
+      <c r="C10">
+        <v>86.95</v>
+      </c>
+      <c r="D10">
+        <v>82.6</v>
+      </c>
+      <c r="E10">
+        <v>82.6</v>
+      </c>
+      <c r="F10">
+        <v>93.47</v>
+      </c>
+      <c r="G10">
+        <v>93.47</v>
+      </c>
+      <c r="H10">
+        <v>93.47</v>
+      </c>
+      <c r="I10">
+        <v>93.47</v>
+      </c>
+      <c r="J10">
+        <v>95.65</v>
+      </c>
+      <c r="K10">
+        <v>93.47</v>
+      </c>
+      <c r="L10">
+        <v>93.47</v>
+      </c>
+      <c r="M10">
+        <v>93.47</v>
+      </c>
+      <c r="N10">
+        <v>93.47</v>
+      </c>
+      <c r="O10">
+        <v>93.47</v>
+      </c>
+      <c r="P10">
+        <v>93.47</v>
+      </c>
+      <c r="Q10">
+        <v>95.65</v>
+      </c>
+      <c r="R10">
+        <v>89.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>80</v>
+      </c>
+      <c r="J11">
+        <v>90</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>110</v>
+      </c>
+      <c r="M11">
+        <v>120</v>
+      </c>
+      <c r="N11">
+        <v>130</v>
+      </c>
+      <c r="O11">
+        <v>140</v>
+      </c>
+      <c r="P11">
+        <v>150</v>
+      </c>
+      <c r="Q11">
+        <v>160</v>
+      </c>
+      <c r="R11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="38"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>13</v>
+      </c>
+      <c r="O13">
+        <v>14</v>
+      </c>
+      <c r="P13">
+        <v>15</v>
+      </c>
+      <c r="Q13">
+        <v>16</v>
+      </c>
+      <c r="R13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="44"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="9">
+        <v>94.11</v>
+      </c>
+      <c r="C20">
+        <v>94.11</v>
+      </c>
+      <c r="D20">
+        <v>94.11</v>
+      </c>
+      <c r="E20">
+        <v>92.15</v>
+      </c>
+      <c r="F20">
+        <v>94.11</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>94.11</v>
+      </c>
+      <c r="J20">
+        <v>94.11</v>
+      </c>
+      <c r="K20">
+        <v>98.04</v>
+      </c>
+      <c r="L20">
+        <v>98.04</v>
+      </c>
+      <c r="M20">
+        <v>96.07</v>
+      </c>
+      <c r="N20">
+        <v>94.11</v>
+      </c>
+      <c r="O20">
+        <v>98.04</v>
+      </c>
+      <c r="P20">
+        <v>100</v>
+      </c>
+      <c r="Q20">
+        <v>98.04</v>
+      </c>
+      <c r="R20">
+        <v>98.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>60</v>
+      </c>
+      <c r="H21">
+        <v>70</v>
+      </c>
+      <c r="I21">
+        <v>80</v>
+      </c>
+      <c r="J21">
+        <v>90</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>110</v>
+      </c>
+      <c r="M21">
+        <v>120</v>
+      </c>
+      <c r="N21">
+        <v>130</v>
+      </c>
+      <c r="O21">
+        <v>140</v>
+      </c>
+      <c r="P21">
+        <v>150</v>
+      </c>
+      <c r="Q21">
+        <v>160</v>
+      </c>
+      <c r="R21">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="38"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>11</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>13</v>
+      </c>
+      <c r="O23">
+        <v>14</v>
+      </c>
+      <c r="P23">
+        <v>15</v>
+      </c>
+      <c r="Q23">
+        <v>16</v>
+      </c>
+      <c r="R23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="44"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="9">
+        <v>79.17</v>
+      </c>
+      <c r="C28">
+        <v>75</v>
+      </c>
+      <c r="D28">
+        <v>81.25</v>
+      </c>
+      <c r="E28">
+        <v>68.75</v>
+      </c>
+      <c r="F28">
+        <v>87.5</v>
+      </c>
+      <c r="G28">
+        <v>66.67</v>
+      </c>
+      <c r="H28">
+        <v>79.17</v>
+      </c>
+      <c r="I28">
+        <v>62.5</v>
+      </c>
+      <c r="J28">
+        <v>89.58</v>
+      </c>
+      <c r="K28">
+        <v>60.41</v>
+      </c>
+      <c r="L28">
+        <v>85.41</v>
+      </c>
+      <c r="M28">
+        <v>60.41</v>
+      </c>
+      <c r="N28">
+        <v>77.08</v>
+      </c>
+      <c r="O28">
+        <v>60.41</v>
+      </c>
+      <c r="P28">
+        <v>75</v>
+      </c>
+      <c r="Q28">
+        <v>58.33</v>
+      </c>
+      <c r="R28">
+        <v>79.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>60</v>
+      </c>
+      <c r="H29">
+        <v>70</v>
+      </c>
+      <c r="I29">
+        <v>80</v>
+      </c>
+      <c r="J29">
+        <v>90</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>110</v>
+      </c>
+      <c r="M29">
+        <v>120</v>
+      </c>
+      <c r="N29">
+        <v>130</v>
+      </c>
+      <c r="O29">
+        <v>140</v>
+      </c>
+      <c r="P29">
+        <v>150</v>
+      </c>
+      <c r="Q29">
+        <v>160</v>
+      </c>
+      <c r="R29">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="38"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>11</v>
+      </c>
+      <c r="M31">
+        <v>12</v>
+      </c>
+      <c r="N31">
+        <v>13</v>
+      </c>
+      <c r="O31">
+        <v>14</v>
+      </c>
+      <c r="P31">
+        <v>15</v>
+      </c>
+      <c r="Q31">
+        <v>16</v>
+      </c>
+      <c r="R31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="44"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="9">
+        <v>72.41</v>
+      </c>
+      <c r="C35">
+        <v>72.41</v>
+      </c>
+      <c r="D35">
+        <v>94.82</v>
+      </c>
+      <c r="E35">
+        <v>75.86</v>
+      </c>
+      <c r="F35">
+        <v>93.1</v>
+      </c>
+      <c r="G35">
+        <v>77.58</v>
+      </c>
+      <c r="H35">
+        <v>89.65</v>
+      </c>
+      <c r="I35">
+        <v>68.959999999999994</v>
+      </c>
+      <c r="J35">
+        <v>86.2</v>
+      </c>
+      <c r="K35">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="L35">
+        <v>87.93</v>
+      </c>
+      <c r="M35">
+        <v>63.79</v>
+      </c>
+      <c r="N35">
+        <v>84.48</v>
+      </c>
+      <c r="O35">
+        <v>58.62</v>
+      </c>
+      <c r="P35">
+        <v>91.38</v>
+      </c>
+      <c r="Q35">
+        <v>56.89</v>
+      </c>
+      <c r="R35">
+        <v>87.93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>60</v>
+      </c>
+      <c r="H36">
+        <v>70</v>
+      </c>
+      <c r="I36">
+        <v>80</v>
+      </c>
+      <c r="J36">
+        <v>90</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="L36">
+        <v>110</v>
+      </c>
+      <c r="M36">
+        <v>120</v>
+      </c>
+      <c r="N36">
+        <v>130</v>
+      </c>
+      <c r="O36">
+        <v>140</v>
+      </c>
+      <c r="P36">
+        <v>150</v>
+      </c>
+      <c r="Q36">
+        <v>160</v>
+      </c>
+      <c r="R36">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="38"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>10</v>
+      </c>
+      <c r="L38">
+        <v>11</v>
+      </c>
+      <c r="M38">
+        <v>12</v>
+      </c>
+      <c r="N38">
+        <v>13</v>
+      </c>
+      <c r="O38">
+        <v>14</v>
+      </c>
+      <c r="P38">
+        <v>15</v>
+      </c>
+      <c r="Q38">
+        <v>16</v>
+      </c>
+      <c r="R38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="44"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" s="9">
+        <v>95.45</v>
+      </c>
+      <c r="C44">
+        <v>77.27</v>
+      </c>
+      <c r="D44">
+        <v>86.36</v>
+      </c>
+      <c r="E44">
+        <v>70.45</v>
+      </c>
+      <c r="F44">
+        <v>93.18</v>
+      </c>
+      <c r="G44">
+        <v>70.45</v>
+      </c>
+      <c r="H44">
+        <v>95.45</v>
+      </c>
+      <c r="I44">
+        <v>68.180000000000007</v>
+      </c>
+      <c r="J44">
+        <v>90.91</v>
+      </c>
+      <c r="K44">
+        <v>65.91</v>
+      </c>
+      <c r="L44">
+        <v>95.45</v>
+      </c>
+      <c r="M44">
+        <v>63.63</v>
+      </c>
+      <c r="N44">
+        <v>86.36</v>
+      </c>
+      <c r="O44">
+        <v>63.63</v>
+      </c>
+      <c r="P44">
+        <v>90.91</v>
+      </c>
+      <c r="Q44">
+        <v>63.63</v>
+      </c>
+      <c r="R44">
+        <v>90.91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>30</v>
+      </c>
+      <c r="E45">
+        <v>40</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>60</v>
+      </c>
+      <c r="H45">
+        <v>70</v>
+      </c>
+      <c r="I45">
+        <v>80</v>
+      </c>
+      <c r="J45">
+        <v>90</v>
+      </c>
+      <c r="K45">
+        <v>100</v>
+      </c>
+      <c r="L45">
+        <v>110</v>
+      </c>
+      <c r="M45">
+        <v>120</v>
+      </c>
+      <c r="N45">
+        <v>130</v>
+      </c>
+      <c r="O45">
+        <v>140</v>
+      </c>
+      <c r="P45">
+        <v>150</v>
+      </c>
+      <c r="Q45">
+        <v>160</v>
+      </c>
+      <c r="R45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="38"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>9</v>
+      </c>
+      <c r="K47">
+        <v>10</v>
+      </c>
+      <c r="L47">
+        <v>11</v>
+      </c>
+      <c r="M47">
+        <v>12</v>
+      </c>
+      <c r="N47">
+        <v>13</v>
+      </c>
+      <c r="O47">
+        <v>14</v>
+      </c>
+      <c r="P47">
+        <v>15</v>
+      </c>
+      <c r="Q47">
+        <v>16</v>
+      </c>
+      <c r="R47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="44"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="9">
+        <v>93.47</v>
+      </c>
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+      <c r="E53">
+        <v>95.65</v>
+      </c>
+      <c r="F53">
+        <v>95.65</v>
+      </c>
+      <c r="G53">
+        <v>95.65</v>
+      </c>
+      <c r="H53">
+        <v>97.82</v>
+      </c>
+      <c r="I53">
+        <v>84.78</v>
+      </c>
+      <c r="J53">
+        <v>97.82</v>
+      </c>
+      <c r="K53">
+        <v>69.56</v>
+      </c>
+      <c r="L53">
+        <v>95.65</v>
+      </c>
+      <c r="M53">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N53">
+        <v>89.13</v>
+      </c>
+      <c r="O53">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="P53">
+        <v>91.3</v>
+      </c>
+      <c r="Q53">
+        <v>63.04</v>
+      </c>
+      <c r="R53">
+        <v>95.65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>30</v>
+      </c>
+      <c r="E54">
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <v>50</v>
+      </c>
+      <c r="G54">
+        <v>60</v>
+      </c>
+      <c r="H54">
+        <v>70</v>
+      </c>
+      <c r="I54">
+        <v>80</v>
+      </c>
+      <c r="J54">
+        <v>90</v>
+      </c>
+      <c r="K54">
+        <v>100</v>
+      </c>
+      <c r="L54">
+        <v>110</v>
+      </c>
+      <c r="M54">
+        <v>120</v>
+      </c>
+      <c r="N54">
+        <v>130</v>
+      </c>
+      <c r="O54">
+        <v>140</v>
+      </c>
+      <c r="P54">
+        <v>150</v>
+      </c>
+      <c r="Q54">
+        <v>160</v>
+      </c>
+      <c r="R54">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B55" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="38"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>7</v>
+      </c>
+      <c r="I56">
+        <v>8</v>
+      </c>
+      <c r="J56">
+        <v>9</v>
+      </c>
+      <c r="K56">
+        <v>10</v>
+      </c>
+      <c r="L56">
+        <v>11</v>
+      </c>
+      <c r="M56">
+        <v>12</v>
+      </c>
+      <c r="N56">
+        <v>13</v>
+      </c>
+      <c r="O56">
+        <v>14</v>
+      </c>
+      <c r="P56">
+        <v>15</v>
+      </c>
+      <c r="Q56">
+        <v>16</v>
+      </c>
+      <c r="R56">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="41"/>
+    </row>
+    <row r="61" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="31"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="45"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="B60:R60"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B4:R4"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="B37:R37"/>
+    <mergeCell ref="A43:R43"/>
+    <mergeCell ref="B46:R46"/>
+    <mergeCell ref="A52:R52"/>
+    <mergeCell ref="B55:R55"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK31"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="44"/>
+      <c r="T1" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="44"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="9">
+        <v>77.58</v>
+      </c>
+      <c r="C2">
+        <v>74.13</v>
+      </c>
+      <c r="D2">
+        <v>96.55</v>
+      </c>
+      <c r="E2">
+        <v>82.75</v>
+      </c>
+      <c r="F2">
+        <v>89.65</v>
+      </c>
+      <c r="G2">
+        <v>75.86</v>
+      </c>
+      <c r="H2">
+        <v>87.93</v>
+      </c>
+      <c r="I2">
+        <v>72.41</v>
+      </c>
+      <c r="J2">
+        <v>87.93</v>
+      </c>
+      <c r="K2">
+        <v>63.79</v>
+      </c>
+      <c r="L2">
+        <v>91.37</v>
+      </c>
+      <c r="M2">
+        <v>65.510000000000005</v>
+      </c>
+      <c r="N2">
+        <v>84.48</v>
+      </c>
+      <c r="O2">
+        <v>58.62</v>
+      </c>
+      <c r="P2">
+        <v>93.1</v>
+      </c>
+      <c r="Q2">
+        <v>56.89</v>
+      </c>
+      <c r="R2">
+        <v>87.93</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="U2" s="9">
+        <v>72.41</v>
+      </c>
+      <c r="V2">
+        <v>72.41</v>
+      </c>
+      <c r="W2">
+        <v>94.82</v>
+      </c>
+      <c r="X2">
+        <v>75.86</v>
+      </c>
+      <c r="Y2">
+        <v>93.1</v>
+      </c>
+      <c r="Z2">
+        <v>77.58</v>
+      </c>
+      <c r="AA2">
+        <v>89.65</v>
+      </c>
+      <c r="AB2">
+        <v>68.959999999999994</v>
+      </c>
+      <c r="AC2">
+        <v>86.2</v>
+      </c>
+      <c r="AD2">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="AE2">
+        <v>87.93</v>
+      </c>
+      <c r="AF2">
+        <v>63.79</v>
+      </c>
+      <c r="AG2">
+        <v>84.48</v>
+      </c>
+      <c r="AH2">
+        <v>58.62</v>
+      </c>
+      <c r="AI2">
+        <v>91.38</v>
+      </c>
+      <c r="AJ2">
+        <v>56.89</v>
+      </c>
+      <c r="AK2">
+        <v>87.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>70</v>
+      </c>
+      <c r="I3">
+        <v>80</v>
+      </c>
+      <c r="J3">
+        <v>90</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>110</v>
+      </c>
+      <c r="M3">
+        <v>120</v>
+      </c>
+      <c r="N3">
+        <v>130</v>
+      </c>
+      <c r="O3">
+        <v>140</v>
+      </c>
+      <c r="P3">
+        <v>150</v>
+      </c>
+      <c r="Q3">
+        <v>160</v>
+      </c>
+      <c r="R3">
+        <v>170</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3">
+        <v>20</v>
+      </c>
+      <c r="W3">
+        <v>30</v>
+      </c>
+      <c r="X3">
+        <v>40</v>
+      </c>
+      <c r="Y3">
+        <v>50</v>
+      </c>
+      <c r="Z3">
+        <v>60</v>
+      </c>
+      <c r="AA3">
+        <v>70</v>
+      </c>
+      <c r="AB3">
+        <v>80</v>
+      </c>
+      <c r="AC3">
+        <v>90</v>
+      </c>
+      <c r="AD3">
+        <v>100</v>
+      </c>
+      <c r="AE3">
+        <v>110</v>
+      </c>
+      <c r="AF3">
+        <v>120</v>
+      </c>
+      <c r="AG3">
+        <v>130</v>
+      </c>
+      <c r="AH3">
+        <v>140</v>
+      </c>
+      <c r="AI3">
+        <v>150</v>
+      </c>
+      <c r="AJ3">
+        <v>160</v>
+      </c>
+      <c r="AK3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B4" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="38"/>
+      <c r="U4" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="38"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>17</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="Z5">
+        <v>6</v>
+      </c>
+      <c r="AA5">
+        <v>7</v>
+      </c>
+      <c r="AB5">
+        <v>8</v>
+      </c>
+      <c r="AC5">
+        <v>9</v>
+      </c>
+      <c r="AD5">
+        <v>10</v>
+      </c>
+      <c r="AE5">
+        <v>11</v>
+      </c>
+      <c r="AF5">
+        <v>12</v>
+      </c>
+      <c r="AG5">
+        <v>13</v>
+      </c>
+      <c r="AH5">
+        <v>14</v>
+      </c>
+      <c r="AI5">
+        <v>15</v>
+      </c>
+      <c r="AJ5">
+        <v>16</v>
+      </c>
+      <c r="AK5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="44"/>
+      <c r="T8" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="44"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="9">
+        <v>97.82</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>97.82</v>
+      </c>
+      <c r="F9">
+        <v>97.82</v>
+      </c>
+      <c r="G9">
+        <v>97.82</v>
+      </c>
+      <c r="H9">
+        <v>91.3</v>
+      </c>
+      <c r="I9">
+        <v>95.65</v>
+      </c>
+      <c r="J9">
+        <v>78.260000000000005</v>
+      </c>
+      <c r="K9">
+        <v>95.65</v>
+      </c>
+      <c r="L9">
+        <v>67.39</v>
+      </c>
+      <c r="M9">
+        <v>97.82</v>
+      </c>
+      <c r="N9">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="O9">
+        <v>91.2</v>
+      </c>
+      <c r="P9">
+        <v>58.69</v>
+      </c>
+      <c r="Q9">
+        <v>93.47</v>
+      </c>
+      <c r="R9">
+        <v>60.87</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="U9" s="9">
+        <v>93.47</v>
+      </c>
+      <c r="V9">
+        <v>100</v>
+      </c>
+      <c r="W9">
+        <v>100</v>
+      </c>
+      <c r="X9">
+        <v>95.65</v>
+      </c>
+      <c r="Y9">
+        <v>95.65</v>
+      </c>
+      <c r="Z9">
+        <v>95.65</v>
+      </c>
+      <c r="AA9">
+        <v>97.82</v>
+      </c>
+      <c r="AB9">
+        <v>84.78</v>
+      </c>
+      <c r="AC9">
+        <v>97.82</v>
+      </c>
+      <c r="AD9">
+        <v>69.56</v>
+      </c>
+      <c r="AE9">
+        <v>95.65</v>
+      </c>
+      <c r="AF9">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="AG9">
+        <v>89.13</v>
+      </c>
+      <c r="AH9">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="AI9">
+        <v>91.3</v>
+      </c>
+      <c r="AJ9">
+        <v>63.04</v>
+      </c>
+      <c r="AK9">
+        <v>95.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <v>80</v>
+      </c>
+      <c r="J10">
+        <v>90</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>110</v>
+      </c>
+      <c r="M10">
+        <v>120</v>
+      </c>
+      <c r="N10">
+        <v>130</v>
+      </c>
+      <c r="O10">
+        <v>140</v>
+      </c>
+      <c r="P10">
+        <v>150</v>
+      </c>
+      <c r="Q10">
+        <v>160</v>
+      </c>
+      <c r="R10">
+        <v>170</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <v>20</v>
+      </c>
+      <c r="W10">
+        <v>30</v>
+      </c>
+      <c r="X10">
+        <v>40</v>
+      </c>
+      <c r="Y10">
+        <v>50</v>
+      </c>
+      <c r="Z10">
+        <v>60</v>
+      </c>
+      <c r="AA10">
+        <v>70</v>
+      </c>
+      <c r="AB10">
+        <v>80</v>
+      </c>
+      <c r="AC10">
+        <v>90</v>
+      </c>
+      <c r="AD10">
+        <v>100</v>
+      </c>
+      <c r="AE10">
+        <v>110</v>
+      </c>
+      <c r="AF10">
+        <v>120</v>
+      </c>
+      <c r="AG10">
+        <v>130</v>
+      </c>
+      <c r="AH10">
+        <v>140</v>
+      </c>
+      <c r="AI10">
+        <v>150</v>
+      </c>
+      <c r="AJ10">
+        <v>160</v>
+      </c>
+      <c r="AK10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B11" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="38"/>
+      <c r="U11" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="38"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>13</v>
+      </c>
+      <c r="O12">
+        <v>14</v>
+      </c>
+      <c r="P12">
+        <v>15</v>
+      </c>
+      <c r="Q12">
+        <v>16</v>
+      </c>
+      <c r="R12">
+        <v>17</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>6</v>
+      </c>
+      <c r="AA12">
+        <v>7</v>
+      </c>
+      <c r="AB12">
+        <v>8</v>
+      </c>
+      <c r="AC12">
+        <v>9</v>
+      </c>
+      <c r="AD12">
+        <v>10</v>
+      </c>
+      <c r="AE12">
+        <v>11</v>
+      </c>
+      <c r="AF12">
+        <v>12</v>
+      </c>
+      <c r="AG12">
+        <v>13</v>
+      </c>
+      <c r="AH12">
+        <v>14</v>
+      </c>
+      <c r="AI12">
+        <v>15</v>
+      </c>
+      <c r="AJ12">
+        <v>16</v>
+      </c>
+      <c r="AK12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="44"/>
+      <c r="T15" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="43"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="43"/>
+      <c r="AJ15" s="43"/>
+      <c r="AK15" s="44"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="9">
+        <v>95.45</v>
+      </c>
+      <c r="C16">
+        <v>77.27</v>
+      </c>
+      <c r="D16">
+        <v>86.36</v>
+      </c>
+      <c r="E16">
+        <v>70.45</v>
+      </c>
+      <c r="F16">
+        <v>93.18</v>
+      </c>
+      <c r="G16">
+        <v>70.45</v>
+      </c>
+      <c r="H16">
+        <v>95.45</v>
+      </c>
+      <c r="I16">
+        <v>68.180000000000007</v>
+      </c>
+      <c r="J16">
+        <v>90.91</v>
+      </c>
+      <c r="K16">
+        <v>65.91</v>
+      </c>
+      <c r="L16">
+        <v>95.45</v>
+      </c>
+      <c r="M16">
+        <v>63.63</v>
+      </c>
+      <c r="N16">
+        <v>88.63</v>
+      </c>
+      <c r="O16">
+        <v>63.63</v>
+      </c>
+      <c r="P16">
+        <v>93.18</v>
+      </c>
+      <c r="Q16">
+        <v>63.63</v>
+      </c>
+      <c r="R16">
+        <v>90.91</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="U16" s="9">
+        <v>95.45</v>
+      </c>
+      <c r="V16">
+        <v>77.27</v>
+      </c>
+      <c r="W16">
+        <v>86.36</v>
+      </c>
+      <c r="X16">
+        <v>70.45</v>
+      </c>
+      <c r="Y16">
+        <v>93.18</v>
+      </c>
+      <c r="Z16">
+        <v>70.45</v>
+      </c>
+      <c r="AA16">
+        <v>95.45</v>
+      </c>
+      <c r="AB16">
+        <v>68.180000000000007</v>
+      </c>
+      <c r="AC16">
+        <v>90.91</v>
+      </c>
+      <c r="AD16">
+        <v>65.91</v>
+      </c>
+      <c r="AE16">
+        <v>95.45</v>
+      </c>
+      <c r="AF16">
+        <v>63.63</v>
+      </c>
+      <c r="AG16">
+        <v>86.36</v>
+      </c>
+      <c r="AH16">
+        <v>63.63</v>
+      </c>
+      <c r="AI16">
+        <v>90.91</v>
+      </c>
+      <c r="AJ16">
+        <v>63.63</v>
+      </c>
+      <c r="AK16">
+        <v>90.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>60</v>
+      </c>
+      <c r="H17">
+        <v>70</v>
+      </c>
+      <c r="I17">
+        <v>80</v>
+      </c>
+      <c r="J17">
+        <v>90</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>110</v>
+      </c>
+      <c r="M17">
+        <v>120</v>
+      </c>
+      <c r="N17">
+        <v>130</v>
+      </c>
+      <c r="O17">
+        <v>140</v>
+      </c>
+      <c r="P17">
+        <v>150</v>
+      </c>
+      <c r="Q17">
+        <v>160</v>
+      </c>
+      <c r="R17">
+        <v>170</v>
+      </c>
+      <c r="U17">
+        <v>10</v>
+      </c>
+      <c r="V17">
+        <v>20</v>
+      </c>
+      <c r="W17">
+        <v>30</v>
+      </c>
+      <c r="X17">
+        <v>40</v>
+      </c>
+      <c r="Y17">
+        <v>50</v>
+      </c>
+      <c r="Z17">
+        <v>60</v>
+      </c>
+      <c r="AA17">
+        <v>70</v>
+      </c>
+      <c r="AB17">
+        <v>80</v>
+      </c>
+      <c r="AC17">
+        <v>90</v>
+      </c>
+      <c r="AD17">
+        <v>100</v>
+      </c>
+      <c r="AE17">
+        <v>110</v>
+      </c>
+      <c r="AF17">
+        <v>120</v>
+      </c>
+      <c r="AG17">
+        <v>130</v>
+      </c>
+      <c r="AH17">
+        <v>140</v>
+      </c>
+      <c r="AI17">
+        <v>150</v>
+      </c>
+      <c r="AJ17">
+        <v>160</v>
+      </c>
+      <c r="AK17">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B18" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="38"/>
+      <c r="U18" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="38"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>11</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="N19">
+        <v>13</v>
+      </c>
+      <c r="O19">
+        <v>14</v>
+      </c>
+      <c r="P19">
+        <v>15</v>
+      </c>
+      <c r="Q19">
+        <v>16</v>
+      </c>
+      <c r="R19">
+        <v>17</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
+      </c>
+      <c r="Z19">
+        <v>6</v>
+      </c>
+      <c r="AA19">
+        <v>7</v>
+      </c>
+      <c r="AB19">
+        <v>8</v>
+      </c>
+      <c r="AC19">
+        <v>9</v>
+      </c>
+      <c r="AD19">
+        <v>10</v>
+      </c>
+      <c r="AE19">
+        <v>11</v>
+      </c>
+      <c r="AF19">
+        <v>12</v>
+      </c>
+      <c r="AG19">
+        <v>13</v>
+      </c>
+      <c r="AH19">
+        <v>14</v>
+      </c>
+      <c r="AI19">
+        <v>15</v>
+      </c>
+      <c r="AJ19">
+        <v>16</v>
+      </c>
+      <c r="AK19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="44"/>
+      <c r="T21" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="43"/>
+      <c r="AJ21" s="43"/>
+      <c r="AK21" s="44"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="9">
+        <v>79.17</v>
+      </c>
+      <c r="C22">
+        <v>79.17</v>
+      </c>
+      <c r="D22">
+        <v>83.33</v>
+      </c>
+      <c r="E22">
+        <v>64.58</v>
+      </c>
+      <c r="F22">
+        <v>83.34</v>
+      </c>
+      <c r="G22">
+        <v>64.58</v>
+      </c>
+      <c r="H22">
+        <v>81.25</v>
+      </c>
+      <c r="I22">
+        <v>68.75</v>
+      </c>
+      <c r="J22">
+        <v>87.5</v>
+      </c>
+      <c r="K22">
+        <v>62.5</v>
+      </c>
+      <c r="L22">
+        <v>87.5</v>
+      </c>
+      <c r="M22">
+        <v>64.58</v>
+      </c>
+      <c r="N22">
+        <v>75</v>
+      </c>
+      <c r="O22">
+        <v>60.41</v>
+      </c>
+      <c r="P22">
+        <v>79.17</v>
+      </c>
+      <c r="Q22">
+        <v>58.33</v>
+      </c>
+      <c r="R22">
+        <v>72.91</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="U22" s="9">
+        <v>79.17</v>
+      </c>
+      <c r="V22">
+        <v>75</v>
+      </c>
+      <c r="W22">
+        <v>81.25</v>
+      </c>
+      <c r="X22">
+        <v>68.75</v>
+      </c>
+      <c r="Y22">
+        <v>87.5</v>
+      </c>
+      <c r="Z22">
+        <v>66.67</v>
+      </c>
+      <c r="AA22">
+        <v>79.17</v>
+      </c>
+      <c r="AB22">
+        <v>62.5</v>
+      </c>
+      <c r="AC22">
+        <v>89.58</v>
+      </c>
+      <c r="AD22">
+        <v>60.41</v>
+      </c>
+      <c r="AE22">
+        <v>85.41</v>
+      </c>
+      <c r="AF22">
+        <v>60.41</v>
+      </c>
+      <c r="AG22">
+        <v>77.08</v>
+      </c>
+      <c r="AH22">
+        <v>60.41</v>
+      </c>
+      <c r="AI22">
+        <v>75</v>
+      </c>
+      <c r="AJ22">
+        <v>58.33</v>
+      </c>
+      <c r="AK22">
+        <v>79.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>60</v>
+      </c>
+      <c r="H23">
+        <v>70</v>
+      </c>
+      <c r="I23">
+        <v>80</v>
+      </c>
+      <c r="J23">
+        <v>90</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>110</v>
+      </c>
+      <c r="M23">
+        <v>120</v>
+      </c>
+      <c r="N23">
+        <v>130</v>
+      </c>
+      <c r="O23">
+        <v>140</v>
+      </c>
+      <c r="P23">
+        <v>150</v>
+      </c>
+      <c r="Q23">
+        <v>160</v>
+      </c>
+      <c r="R23">
+        <v>170</v>
+      </c>
+      <c r="U23">
+        <v>10</v>
+      </c>
+      <c r="V23">
+        <v>20</v>
+      </c>
+      <c r="W23">
+        <v>30</v>
+      </c>
+      <c r="X23">
+        <v>40</v>
+      </c>
+      <c r="Y23">
+        <v>50</v>
+      </c>
+      <c r="Z23">
+        <v>60</v>
+      </c>
+      <c r="AA23">
+        <v>70</v>
+      </c>
+      <c r="AB23">
+        <v>80</v>
+      </c>
+      <c r="AC23">
+        <v>90</v>
+      </c>
+      <c r="AD23">
+        <v>100</v>
+      </c>
+      <c r="AE23">
+        <v>110</v>
+      </c>
+      <c r="AF23">
+        <v>120</v>
+      </c>
+      <c r="AG23">
+        <v>130</v>
+      </c>
+      <c r="AH23">
+        <v>140</v>
+      </c>
+      <c r="AI23">
+        <v>150</v>
+      </c>
+      <c r="AJ23">
+        <v>160</v>
+      </c>
+      <c r="AK23">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B24" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="38"/>
+      <c r="U24" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="38"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>11</v>
+      </c>
+      <c r="M25">
+        <v>12</v>
+      </c>
+      <c r="N25">
+        <v>13</v>
+      </c>
+      <c r="O25">
+        <v>14</v>
+      </c>
+      <c r="P25">
+        <v>15</v>
+      </c>
+      <c r="Q25">
+        <v>16</v>
+      </c>
+      <c r="R25">
+        <v>17</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>5</v>
+      </c>
+      <c r="Z25">
+        <v>6</v>
+      </c>
+      <c r="AA25">
+        <v>7</v>
+      </c>
+      <c r="AB25">
+        <v>8</v>
+      </c>
+      <c r="AC25">
+        <v>9</v>
+      </c>
+      <c r="AD25">
+        <v>10</v>
+      </c>
+      <c r="AE25">
+        <v>11</v>
+      </c>
+      <c r="AF25">
+        <v>12</v>
+      </c>
+      <c r="AG25">
+        <v>13</v>
+      </c>
+      <c r="AH25">
+        <v>14</v>
+      </c>
+      <c r="AI25">
+        <v>15</v>
+      </c>
+      <c r="AJ25">
+        <v>16</v>
+      </c>
+      <c r="AK25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="44"/>
+      <c r="T27" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="43"/>
+      <c r="AI27" s="43"/>
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="44"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="9">
+        <v>94.11</v>
+      </c>
+      <c r="C28">
+        <v>88.23</v>
+      </c>
+      <c r="D28">
+        <v>92.15</v>
+      </c>
+      <c r="E28">
+        <v>92.15</v>
+      </c>
+      <c r="F28">
+        <v>94.11</v>
+      </c>
+      <c r="G28">
+        <v>94.11</v>
+      </c>
+      <c r="H28">
+        <v>98.03</v>
+      </c>
+      <c r="I28">
+        <v>94.11</v>
+      </c>
+      <c r="J28">
+        <v>96.07</v>
+      </c>
+      <c r="K28">
+        <v>92.15</v>
+      </c>
+      <c r="L28">
+        <v>98.03</v>
+      </c>
+      <c r="M28">
+        <v>96.07</v>
+      </c>
+      <c r="N28">
+        <v>98.03</v>
+      </c>
+      <c r="O28">
+        <v>96.07</v>
+      </c>
+      <c r="P28">
+        <v>100</v>
+      </c>
+      <c r="Q28">
+        <v>100</v>
+      </c>
+      <c r="R28">
+        <v>100</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="U28" s="9">
+        <v>94.11</v>
+      </c>
+      <c r="V28">
+        <v>94.11</v>
+      </c>
+      <c r="W28">
+        <v>94.11</v>
+      </c>
+      <c r="X28">
+        <v>92.15</v>
+      </c>
+      <c r="Y28">
+        <v>94.11</v>
+      </c>
+      <c r="Z28">
+        <v>100</v>
+      </c>
+      <c r="AA28">
+        <v>100</v>
+      </c>
+      <c r="AB28">
+        <v>94.11</v>
+      </c>
+      <c r="AC28">
+        <v>94.11</v>
+      </c>
+      <c r="AD28">
+        <v>98.04</v>
+      </c>
+      <c r="AE28">
+        <v>98.04</v>
+      </c>
+      <c r="AF28">
+        <v>96.07</v>
+      </c>
+      <c r="AG28">
+        <v>94.11</v>
+      </c>
+      <c r="AH28">
+        <v>98.04</v>
+      </c>
+      <c r="AI28">
+        <v>100</v>
+      </c>
+      <c r="AJ28">
+        <v>98.04</v>
+      </c>
+      <c r="AK28">
+        <v>98.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>60</v>
+      </c>
+      <c r="H29">
+        <v>70</v>
+      </c>
+      <c r="I29">
+        <v>80</v>
+      </c>
+      <c r="J29">
+        <v>90</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>110</v>
+      </c>
+      <c r="M29">
+        <v>120</v>
+      </c>
+      <c r="N29">
+        <v>130</v>
+      </c>
+      <c r="O29">
+        <v>140</v>
+      </c>
+      <c r="P29">
+        <v>150</v>
+      </c>
+      <c r="Q29">
+        <v>160</v>
+      </c>
+      <c r="R29">
+        <v>170</v>
+      </c>
+      <c r="U29">
+        <v>10</v>
+      </c>
+      <c r="V29">
+        <v>20</v>
+      </c>
+      <c r="W29">
+        <v>30</v>
+      </c>
+      <c r="X29">
+        <v>40</v>
+      </c>
+      <c r="Y29">
+        <v>50</v>
+      </c>
+      <c r="Z29">
+        <v>60</v>
+      </c>
+      <c r="AA29">
+        <v>70</v>
+      </c>
+      <c r="AB29">
+        <v>80</v>
+      </c>
+      <c r="AC29">
+        <v>90</v>
+      </c>
+      <c r="AD29">
+        <v>100</v>
+      </c>
+      <c r="AE29">
+        <v>110</v>
+      </c>
+      <c r="AF29">
+        <v>120</v>
+      </c>
+      <c r="AG29">
+        <v>130</v>
+      </c>
+      <c r="AH29">
+        <v>140</v>
+      </c>
+      <c r="AI29">
+        <v>150</v>
+      </c>
+      <c r="AJ29">
+        <v>160</v>
+      </c>
+      <c r="AK29">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B30" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="38"/>
+      <c r="U30" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="38"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>11</v>
+      </c>
+      <c r="M31">
+        <v>12</v>
+      </c>
+      <c r="N31">
+        <v>13</v>
+      </c>
+      <c r="O31">
+        <v>14</v>
+      </c>
+      <c r="P31">
+        <v>15</v>
+      </c>
+      <c r="Q31">
+        <v>16</v>
+      </c>
+      <c r="R31">
+        <v>17</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+      <c r="X31">
+        <v>4</v>
+      </c>
+      <c r="Y31">
+        <v>5</v>
+      </c>
+      <c r="Z31">
+        <v>6</v>
+      </c>
+      <c r="AA31">
+        <v>7</v>
+      </c>
+      <c r="AB31">
+        <v>8</v>
+      </c>
+      <c r="AC31">
+        <v>9</v>
+      </c>
+      <c r="AD31">
+        <v>10</v>
+      </c>
+      <c r="AE31">
+        <v>11</v>
+      </c>
+      <c r="AF31">
+        <v>12</v>
+      </c>
+      <c r="AG31">
+        <v>13</v>
+      </c>
+      <c r="AH31">
+        <v>14</v>
+      </c>
+      <c r="AI31">
+        <v>15</v>
+      </c>
+      <c r="AJ31">
+        <v>16</v>
+      </c>
+      <c r="AK31">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="T8:AK8"/>
+    <mergeCell ref="U11:AK11"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B4:R4"/>
+    <mergeCell ref="T1:AK1"/>
+    <mergeCell ref="U4:AK4"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="T27:AK27"/>
+    <mergeCell ref="U30:AK30"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="T15:AK15"/>
+    <mergeCell ref="U18:AK18"/>
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="T21:AK21"/>
+    <mergeCell ref="U24:AK24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>